--- a/analisis/resultados/argentina/valor_total_produccion.xlsx
+++ b/analisis/resultados/argentina/valor_total_produccion.xlsx
@@ -454,22 +454,22 @@
         <v>752.5167892829827</v>
       </c>
       <c r="H2">
-        <v>30965.17471044122</v>
+        <v>31328.2540030858</v>
       </c>
       <c r="I2">
-        <v>19055.60979370196</v>
+        <v>19279.04458422085</v>
       </c>
       <c r="J2">
         <v>13346.36239762477</v>
       </c>
       <c r="K2">
-        <v>11909.56491673926</v>
+        <v>12049.20941886494</v>
       </c>
       <c r="L2">
         <v>19640.68341359374</v>
       </c>
       <c r="M2">
-        <v>18303.09300441898</v>
+        <v>18526.52779493787</v>
       </c>
     </row>
     <row r="3">
@@ -499,22 +499,22 @@
         <v>979.6437779742706</v>
       </c>
       <c r="H3">
-        <v>35190.17906855335</v>
+        <v>35602.79825910286</v>
       </c>
       <c r="I3">
-        <v>22014.67921154826</v>
+        <v>22272.81029689399</v>
       </c>
       <c r="J3">
         <v>14765.02265958411</v>
       </c>
       <c r="K3">
-        <v>13175.49985700509</v>
+        <v>13329.98796220887</v>
       </c>
       <c r="L3">
         <v>22268.397645477</v>
       </c>
       <c r="M3">
-        <v>21035.03543357399</v>
+        <v>21293.16651891972</v>
       </c>
     </row>
     <row r="4">
@@ -544,22 +544,22 @@
         <v>1284.25708417344</v>
       </c>
       <c r="H4">
-        <v>48036.82918112514</v>
+        <v>48600.08057960958</v>
       </c>
       <c r="I4">
-        <v>29604.75416102832</v>
+        <v>29951.88196832205</v>
       </c>
       <c r="J4">
         <v>20655.76321874334</v>
       </c>
       <c r="K4">
-        <v>18432.07502009682</v>
+        <v>18648.19861128753</v>
       </c>
       <c r="L4">
         <v>29895.26219907627</v>
       </c>
       <c r="M4">
-        <v>28320.49707685488</v>
+        <v>28667.62488414861</v>
       </c>
     </row>
     <row r="5">
@@ -589,22 +589,22 @@
         <v>1769.871427663027</v>
       </c>
       <c r="H5">
-        <v>50110.09931019022</v>
+        <v>50697.66064585284</v>
       </c>
       <c r="I5">
-        <v>28005.93327735948</v>
+        <v>28334.31425822849</v>
       </c>
       <c r="J5">
         <v>24770.86379173943</v>
       </c>
       <c r="K5">
-        <v>22104.16603283074</v>
+        <v>22363.34638762436</v>
       </c>
       <c r="L5">
         <v>26789.13529328288</v>
       </c>
       <c r="M5">
-        <v>26236.06184969645</v>
+        <v>26564.44283056546</v>
       </c>
     </row>
     <row r="6">
@@ -634,22 +634,22 @@
         <v>2467.928579489419</v>
       </c>
       <c r="H6">
-        <v>57297.67362858744</v>
+        <v>57969.51220226849</v>
       </c>
       <c r="I6">
-        <v>30929.17833285888</v>
+        <v>31291.83555330678</v>
       </c>
       <c r="J6">
         <v>29549.65160836547</v>
       </c>
       <c r="K6">
-        <v>26368.49529572856</v>
+        <v>26677.6766489617</v>
       </c>
       <c r="L6">
         <v>27719.77672351215</v>
       </c>
       <c r="M6">
-        <v>28461.24975336946</v>
+        <v>28823.90697381736</v>
       </c>
     </row>
     <row r="7">
@@ -679,22 +679,22 @@
         <v>2984.807779560585</v>
       </c>
       <c r="H7">
-        <v>61625.19240675791</v>
+        <v>62347.77290169652</v>
       </c>
       <c r="I7">
-        <v>35859.8058121841</v>
+        <v>36280.27664919409</v>
       </c>
       <c r="J7">
         <v>28873.78247737324</v>
       </c>
       <c r="K7">
-        <v>25765.38659457381</v>
+        <v>26067.49625250244</v>
       </c>
       <c r="L7">
         <v>31901.93074126725</v>
       </c>
       <c r="M7">
-        <v>32874.99803262352</v>
+        <v>33295.4688696335</v>
       </c>
     </row>
     <row r="8">
@@ -724,22 +724,22 @@
         <v>3717.553864352533</v>
       </c>
       <c r="H8">
-        <v>73722.21362773095</v>
+        <v>74586.63662635602</v>
       </c>
       <c r="I8">
-        <v>42861.74751292042</v>
+        <v>43364.31896985633</v>
       </c>
       <c r="J8">
         <v>34583.54418547882</v>
       </c>
       <c r="K8">
-        <v>30860.46611481053</v>
+        <v>31222.31765649969</v>
       </c>
       <c r="L8">
         <v>37235.17327978842</v>
       </c>
       <c r="M8">
-        <v>39144.19364856788</v>
+        <v>39646.76510550379</v>
       </c>
     </row>
     <row r="9">
@@ -769,22 +769,22 @@
         <v>5087.764327064738</v>
       </c>
       <c r="H9">
-        <v>88103.00185435099</v>
+        <v>89136.04545550191</v>
       </c>
       <c r="I9">
-        <v>47520.79950819981</v>
+        <v>48078.00024847285</v>
       </c>
       <c r="J9">
         <v>45478.13318051624</v>
       </c>
       <c r="K9">
-        <v>40582.20234615119</v>
+        <v>41058.04520702906</v>
       </c>
       <c r="L9">
         <v>37906.66372084741</v>
       </c>
       <c r="M9">
-        <v>42433.03518113507</v>
+        <v>42990.23592140811</v>
       </c>
     </row>
     <row r="10">
@@ -814,22 +814,22 @@
         <v>6361.65710941761</v>
       </c>
       <c r="H10">
-        <v>106500.4586604732</v>
+        <v>107749.2199401481</v>
       </c>
       <c r="I10">
-        <v>56148.36998859064</v>
+        <v>56806.73250871972</v>
       </c>
       <c r="J10">
         <v>56426.68120879387</v>
       </c>
       <c r="K10">
-        <v>50352.08867188259</v>
+        <v>50942.48743142842</v>
       </c>
       <c r="L10">
         <v>43879.49778578278</v>
       </c>
       <c r="M10">
-        <v>49786.71287917303</v>
+        <v>50445.07539930211</v>
       </c>
     </row>
     <row r="11">
@@ -859,22 +859,22 @@
         <v>8225.2116804</v>
       </c>
       <c r="H11">
-        <v>132357.9356206947</v>
+        <v>133909.8863553648</v>
       </c>
       <c r="I11">
-        <v>66954.30616886202</v>
+        <v>67739.37269442248</v>
       </c>
       <c r="J11">
         <v>73294.07471109502</v>
       </c>
       <c r="K11">
-        <v>65403.62945183266</v>
+        <v>66170.51366094234</v>
       </c>
       <c r="L11">
         <v>50193.01302151247</v>
       </c>
       <c r="M11">
-        <v>58729.09448846203</v>
+        <v>59514.16101402248</v>
       </c>
     </row>
     <row r="12">
@@ -904,22 +904,22 @@
         <v>11591.42279535214</v>
       </c>
       <c r="H12">
-        <v>204548.9490343299</v>
+        <v>206947.3688211084</v>
       </c>
       <c r="I12">
-        <v>122759.992655229</v>
+        <v>124199.4035972019</v>
       </c>
       <c r="J12">
         <v>91656.16540909471</v>
       </c>
       <c r="K12">
-        <v>81788.95637910091</v>
+        <v>82747.96522390646</v>
       </c>
       <c r="L12">
         <v>101163.7053929747</v>
       </c>
       <c r="M12">
-        <v>111168.5698598768</v>
+        <v>112607.9808018498</v>
       </c>
     </row>
     <row r="13">
@@ -949,22 +949,22 @@
         <v>15755.53551837146</v>
       </c>
       <c r="H13">
-        <v>224720.7687746614</v>
+        <v>227355.7113684694</v>
       </c>
       <c r="I13">
-        <v>135745.853102463</v>
+        <v>137337.5285502769</v>
       </c>
       <c r="J13">
         <v>99709.05546601515</v>
       </c>
       <c r="K13">
-        <v>88974.91567219838</v>
+        <v>90018.18281819252</v>
       </c>
       <c r="L13">
         <v>102964.1529033409</v>
       </c>
       <c r="M13">
-        <v>119990.3175840915</v>
+        <v>121581.9930319054</v>
       </c>
     </row>
     <row r="14">
@@ -994,22 +994,22 @@
         <v>19464.26682756241</v>
       </c>
       <c r="H14">
-        <v>316503.2246927907</v>
+        <v>320214.3539861267</v>
       </c>
       <c r="I14">
-        <v>190679.0328103894</v>
+        <v>192914.822177068</v>
       </c>
       <c r="J14">
         <v>141003.9136602297</v>
       </c>
       <c r="K14">
-        <v>125824.1918824012</v>
+        <v>127299.5318090587</v>
       </c>
       <c r="L14">
         <v>157897.3192240244</v>
       </c>
       <c r="M14">
-        <v>171214.765982827</v>
+        <v>173450.5553495055</v>
       </c>
     </row>
     <row r="15">
@@ -1039,22 +1039,22 @@
         <v>24538.41488058235</v>
       </c>
       <c r="H15">
-        <v>363317.7995231434</v>
+        <v>367577.8487845986</v>
       </c>
       <c r="I15">
-        <v>221951.607796282</v>
+        <v>224554.080849109</v>
       </c>
       <c r="J15">
         <v>158420.9363439421</v>
       </c>
       <c r="K15">
-        <v>141366.1917268614</v>
+        <v>143023.7679354896</v>
       </c>
       <c r="L15">
         <v>183836.6365525457</v>
       </c>
       <c r="M15">
-        <v>197413.1929156997</v>
+        <v>200015.6659685266</v>
       </c>
     </row>
     <row r="16">
@@ -1084,22 +1084,22 @@
         <v>36127.37433032937</v>
       </c>
       <c r="H16">
-        <v>687661.3488001239</v>
+        <v>695724.4583558138</v>
       </c>
       <c r="I16">
-        <v>415202.0971531277</v>
+        <v>420070.5109485799</v>
       </c>
       <c r="J16">
         <v>305329.3664788264</v>
       </c>
       <c r="K16">
-        <v>272459.2516469962</v>
+        <v>275653.9474072338</v>
       </c>
       <c r="L16">
         <v>376578.527619482</v>
       </c>
       <c r="M16">
-        <v>379074.7228227983</v>
+        <v>383943.1366182506</v>
       </c>
     </row>
     <row r="17">
@@ -1129,22 +1129,22 @@
         <v>59451.14497418605</v>
       </c>
       <c r="H17">
-        <v>1016080.395157357</v>
+        <v>1027994.351871425</v>
       </c>
       <c r="I17">
-        <v>611488.4870264488</v>
+        <v>618658.4387352954</v>
       </c>
       <c r="J17">
         <v>453402.8125134932</v>
       </c>
       <c r="K17">
-        <v>404591.9081309082</v>
+        <v>409335.9131361296</v>
       </c>
       <c r="L17">
         <v>541981.8624152051</v>
       </c>
       <c r="M17">
-        <v>552037.3420522627</v>
+        <v>559207.2937611094</v>
       </c>
     </row>
     <row r="18">
@@ -1168,16 +1168,16 @@
         <v>1056867.820068603</v>
       </c>
       <c r="H18">
-        <v>943091.1237476808</v>
+        <v>954149.2515093248</v>
       </c>
       <c r="I18">
-        <v>563704.1354895063</v>
+        <v>570313.7962031382</v>
       </c>
       <c r="J18">
         <v>425157.1127607017</v>
       </c>
       <c r="K18">
-        <v>379386.9882581745</v>
+        <v>383835.4553061866</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>precio_expo_gas_comtrade</t>
+          <t>precio_exportacion_gas_ar</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>24467322</v>
+        <v>24464806.08</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>5e-013</v>
       </c>
       <c r="S42">
-        <v>24467322</v>
+        <v>24464806.08</v>
       </c>
       <c r="T42">
         <v>29263700</v>
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>28499083.8</v>
+        <v>28501599.72</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>5e-013</v>
       </c>
       <c r="S44">
-        <v>28499083.8</v>
+        <v>28501599.72</v>
       </c>
       <c r="T44">
         <v>32864300</v>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>29574639.6</v>
+        <v>29572123.68</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>5e-013</v>
       </c>
       <c r="S45">
-        <v>29574639.6</v>
+        <v>29572123.68</v>
       </c>
       <c r="T45">
         <v>34629300</v>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>30505530</v>
+        <v>30504272.04</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>6.9e-013</v>
       </c>
       <c r="S46">
-        <v>30505530</v>
+        <v>30504272.04</v>
       </c>
       <c r="T46">
         <v>37347400</v>
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>31015003.8</v>
+        <v>31011858.9</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>1.8e-012</v>
       </c>
       <c r="S47">
-        <v>31015003.8</v>
+        <v>31011858.9</v>
       </c>
       <c r="T47">
         <v>40489100</v>
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>33952340.4</v>
+        <v>33951711.41999999</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>1.8e-012</v>
       </c>
       <c r="S48">
-        <v>33952340.4</v>
+        <v>33951711.41999999</v>
       </c>
       <c r="T48">
         <v>49914200</v>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>35656876.2</v>
+        <v>35656247.22</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>1.8e-012</v>
       </c>
       <c r="S49">
-        <v>35656876.2</v>
+        <v>35656247.22</v>
       </c>
       <c r="T49">
         <v>58350900</v>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>44575812.59999999</v>
+        <v>44578328.52</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>8.060000000000001e-012</v>
       </c>
       <c r="S50">
-        <v>44575812.59999999</v>
+        <v>44578328.52</v>
       </c>
       <c r="T50">
         <v>75965600</v>
@@ -3931,7 +3931,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>63860339.4</v>
+        <v>63859811.05679999</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3961,11 +3961,8 @@
       <c r="Q51">
         <v>8.28e-012</v>
       </c>
-      <c r="R51">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S51">
-        <v>63860339.4</v>
+        <v>63859811.05679999</v>
       </c>
       <c r="T51">
         <v>126162200</v>
@@ -3991,7 +3988,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>84459434.39999999</v>
+        <v>84461610.6708</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4021,11 +4018,8 @@
       <c r="Q52">
         <v>8.29e-012</v>
       </c>
-      <c r="R52">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S52">
-        <v>84459434.39999999</v>
+        <v>84461610.6708</v>
       </c>
       <c r="T52">
         <v>173252400</v>
@@ -4051,7 +4045,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>98208937.19999999</v>
+        <v>98205911.8062</v>
       </c>
       <c r="D53">
         <v>1600164.59776432</v>
@@ -4084,11 +4078,8 @@
       <c r="Q53">
         <v>1.16e-011</v>
       </c>
-      <c r="R53">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S53">
-        <v>96608772.60223568</v>
+        <v>96605747.20843568</v>
       </c>
       <c r="T53">
         <v>213135578.0385346</v>
@@ -4114,7 +4105,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>97139671.19999999</v>
+        <v>97140620.95979999</v>
       </c>
       <c r="D54">
         <v>640739.0198585599</v>
@@ -4161,11 +4152,8 @@
       <c r="Q54">
         <v>1.39e-011</v>
       </c>
-      <c r="R54">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S54">
-        <v>96498932.18014143</v>
+        <v>96499881.93994144</v>
       </c>
       <c r="T54">
         <v>209001407.665943</v>
@@ -4176,34 +4164,16 @@
         </is>
       </c>
       <c r="V54">
-        <v>3.339354674639331e-009</v>
+        <v>3.339387238740591e-009</v>
       </c>
       <c r="W54">
-        <v>2.979857738968011e-009</v>
-      </c>
-      <c r="X54">
-        <v>1.450672834383733e-009</v>
-      </c>
-      <c r="Y54">
-        <v>1.294501211589905e-009</v>
-      </c>
-      <c r="Z54">
-        <v>1.888681840255598e-009</v>
-      </c>
-      <c r="AA54">
-        <v>1.685356527378106e-009</v>
+        <v>3.014827184479228e-009</v>
       </c>
       <c r="AB54">
-        <v>1.218514977227621e-010</v>
+        <v>1.218526859716596e-010</v>
       </c>
       <c r="AC54">
-        <v>3.386369752745623e-010</v>
-      </c>
-      <c r="AD54">
-        <v>1.550044864981035e-009</v>
-      </c>
-      <c r="AE54">
-        <v>1.346719552103543e-009</v>
+        <v>3.386402775319826e-010</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -4221,7 +4191,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>100278281.4</v>
+        <v>100275727.7412</v>
       </c>
       <c r="D55">
         <v>101996.187941</v>
@@ -4271,11 +4241,8 @@
       <c r="Q55">
         <v>1.41e-011</v>
       </c>
-      <c r="R55">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S55">
-        <v>100176285.212059</v>
+        <v>100173731.553259</v>
       </c>
       <c r="T55">
         <v>230633567.8086838</v>
@@ -4286,34 +4253,16 @@
         </is>
       </c>
       <c r="V55">
-        <v>2.437733838063522e-009</v>
+        <v>2.437671788088725e-009</v>
       </c>
       <c r="W55">
-        <v>2.175300544762392e-009</v>
-      </c>
-      <c r="X55">
-        <v>1.058993308855009e-009</v>
-      </c>
-      <c r="Y55">
-        <v>9.449877938610299e-010</v>
-      </c>
-      <c r="Z55">
-        <v>1.378740529208513e-009</v>
-      </c>
-      <c r="AA55">
-        <v>1.230312750901363e-009</v>
+        <v>2.200750810900152e-009</v>
       </c>
       <c r="AB55">
-        <v>8.895177306962146e-011</v>
+        <v>8.894950889492326e-011</v>
       </c>
       <c r="AC55">
-        <v>2.472054914428759e-010</v>
-      </c>
-      <c r="AD55">
-        <v>1.131535037765637e-009</v>
-      </c>
-      <c r="AE55">
-        <v>9.831072594584866e-010</v>
+        <v>2.471991990846725e-010</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -4331,7 +4280,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>99536085</v>
+        <v>98276326.11719999</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4381,11 +4330,8 @@
       <c r="Q56">
         <v>1.68e-011</v>
       </c>
-      <c r="R56">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S56">
-        <v>99536085</v>
+        <v>98276326.11719999</v>
       </c>
       <c r="T56">
         <v>220105040.4835821</v>
@@ -4396,34 +4342,16 @@
         </is>
       </c>
       <c r="V56">
-        <v>4.125790903163338e-009</v>
+        <v>4.073584809579886e-009</v>
       </c>
       <c r="W56">
-        <v>3.68163047954256e-009</v>
-      </c>
-      <c r="X56">
-        <v>1.792314194422314e-009</v>
-      </c>
-      <c r="Y56">
-        <v>1.599363303177249e-009</v>
-      </c>
-      <c r="Z56">
-        <v>2.333476708741023e-009</v>
-      </c>
-      <c r="AA56">
-        <v>2.082267176365311e-009</v>
+        <v>3.677666992233811e-009</v>
       </c>
       <c r="AB56">
-        <v>1.505481896425686e-010</v>
+        <v>1.486432135878507e-010</v>
       </c>
       <c r="AC56">
-        <v>4.183878288440377e-010</v>
-      </c>
-      <c r="AD56">
-        <v>1.915088879896986e-009</v>
-      </c>
-      <c r="AE56">
-        <v>1.663879347521273e-009</v>
+        <v>4.13093718051835e-010</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -4441,7 +4369,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>104756619</v>
+        <v>104759675.8428</v>
       </c>
       <c r="D57">
         <v>19421.3608275</v>
@@ -4491,11 +4419,8 @@
       <c r="Q57">
         <v>2.07e-011</v>
       </c>
-      <c r="R57">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S57">
-        <v>104737197.6391725</v>
+        <v>104740254.4819725</v>
       </c>
       <c r="T57">
         <v>210433840.3309362</v>
@@ -4506,34 +4431,16 @@
         </is>
       </c>
       <c r="V57">
-        <v>7.548584255618013e-009</v>
+        <v>7.548804473396011e-009</v>
       </c>
       <c r="W57">
-        <v>6.735944337743898e-009</v>
-      </c>
-      <c r="X57">
-        <v>3.279234218768488e-009</v>
-      </c>
-      <c r="Y57">
-        <v>2.926209527516388e-009</v>
-      </c>
-      <c r="Z57">
-        <v>4.269350036849525e-009</v>
-      </c>
-      <c r="AA57">
-        <v>3.80973481022751e-009</v>
+        <v>6.815124844669326e-009</v>
       </c>
       <c r="AB57">
-        <v>2.754443258809759e-010</v>
+        <v>2.754523615251913e-010</v>
       </c>
       <c r="AC57">
-        <v>7.654861459733249e-010</v>
-      </c>
-      <c r="AD57">
-        <v>3.5038638908762e-009</v>
-      </c>
-      <c r="AE57">
-        <v>3.044248664254185e-009</v>
+        <v>7.655084777977368e-010</v>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
@@ -4551,7 +4458,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>114675633.6</v>
+        <v>114673312.6638</v>
       </c>
       <c r="D58">
         <v>58111.59861867</v>
@@ -4601,11 +4508,8 @@
       <c r="Q58">
         <v>3.31e-011</v>
       </c>
-      <c r="R58">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S58">
-        <v>114617522.0013813</v>
+        <v>114615201.0651813</v>
       </c>
       <c r="T58">
         <v>228238398.7226594</v>
@@ -4616,34 +4520,16 @@
         </is>
       </c>
       <c r="V58">
-        <v>9.018727533639909e-009</v>
+        <v>9.018545057973906e-009</v>
       </c>
       <c r="W58">
-        <v>8.047819909894226e-009</v>
-      </c>
-      <c r="X58">
-        <v>3.917889624938712e-009</v>
-      </c>
-      <c r="Y58">
-        <v>3.496110732998745e-009</v>
-      </c>
-      <c r="Z58">
-        <v>5.100837908701197e-009</v>
-      </c>
-      <c r="AA58">
-        <v>4.551709176895481e-009</v>
+        <v>8.142019137464471e-009</v>
       </c>
       <c r="AB58">
-        <v>3.290891697948279e-010</v>
+        <v>3.290825113427117e-010</v>
       </c>
       <c r="AC58">
-        <v>9.145703018644134e-010</v>
-      </c>
-      <c r="AD58">
-        <v>4.186267606836784e-009</v>
-      </c>
-      <c r="AE58">
-        <v>3.637138875031067e-009</v>
+        <v>9.145517973886637e-010</v>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
@@ -4661,7 +4547,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>125500379.4</v>
+        <v>125488170.8982</v>
       </c>
       <c r="D59">
         <v>1182294.78060432</v>
@@ -4708,11 +4594,8 @@
       <c r="Q59">
         <v>3.5e-011</v>
       </c>
-      <c r="R59">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S59">
-        <v>124318084.6193957</v>
+        <v>124305876.1175957</v>
       </c>
       <c r="T59">
         <v>248958565.1166893</v>
@@ -4723,34 +4606,16 @@
         </is>
       </c>
       <c r="V59">
-        <v>1.232830766502836e-008</v>
+        <v>1.232710249812836e-008</v>
       </c>
       <c r="W59">
-        <v>1.100110847254677e-008</v>
-      </c>
-      <c r="X59">
-        <v>5.35562788804786e-009</v>
-      </c>
-      <c r="Y59">
-        <v>4.779069839580901e-009</v>
-      </c>
-      <c r="Z59">
-        <v>6.972679776980496e-009</v>
-      </c>
-      <c r="AA59">
-        <v>6.222038632965865e-009</v>
+        <v>1.112901291772174e-008</v>
       </c>
       <c r="AB59">
-        <v>4.498542082933918e-010</v>
+        <v>4.498102323141747e-010</v>
       </c>
       <c r="AC59">
-        <v>1.250187902963709e-009</v>
-      </c>
-      <c r="AD59">
-        <v>5.722491874016787e-009</v>
-      </c>
-      <c r="AE59">
-        <v>4.971850730002155e-009</v>
+        <v>1.250065689508273e-009</v>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
@@ -4768,7 +4633,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>126846396.6</v>
+        <v>130081536.3606</v>
       </c>
       <c r="D60">
         <v>381429.802925</v>
@@ -4815,11 +4680,8 @@
       <c r="Q60">
         <v>3.5e-011</v>
       </c>
-      <c r="R60">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S60">
-        <v>126464966.797075</v>
+        <v>129700106.557675</v>
       </c>
       <c r="T60">
         <v>247342291.2491181</v>
@@ -4830,34 +4692,16 @@
         </is>
       </c>
       <c r="V60">
-        <v>1.251572384434711e-008</v>
+        <v>1.283508189664711e-008</v>
       </c>
       <c r="W60">
-        <v>1.116834843558278e-008</v>
-      </c>
-      <c r="X60">
-        <v>5.437044684570401e-009</v>
-      </c>
-      <c r="Y60">
-        <v>4.851721742369837e-009</v>
-      </c>
-      <c r="Z60">
-        <v>7.078679159776709e-009</v>
-      </c>
-      <c r="AA60">
-        <v>6.316626693212938e-009</v>
+        <v>1.158762103661344e-008</v>
       </c>
       <c r="AB60">
-        <v>4.566929374409432e-010</v>
+        <v>4.683461641191733e-010</v>
       </c>
       <c r="AC60">
-        <v>1.269193385838592e-009</v>
-      </c>
-      <c r="AD60">
-        <v>5.809485773938117e-009</v>
-      </c>
-      <c r="AE60">
-        <v>5.047433307374346e-009</v>
+        <v>1.301578818174296e-009</v>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
@@ -4875,7 +4719,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>143420019.6</v>
+        <v>143397621.6222</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -4922,11 +4766,8 @@
       <c r="Q61">
         <v>3.77e-011</v>
       </c>
-      <c r="R61">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S61">
-        <v>143420019.6</v>
+        <v>143397621.6222</v>
       </c>
       <c r="T61">
         <v>270539195.3540027</v>
@@ -4937,34 +4778,16 @@
         </is>
       </c>
       <c r="V61">
-        <v>1.519211156521588e-008</v>
+        <v>1.518991255512987e-008</v>
       </c>
       <c r="W61">
-        <v>1.35566106717201e-008</v>
-      </c>
-      <c r="X61">
-        <v>6.599713325439419e-009</v>
-      </c>
-      <c r="Y61">
-        <v>5.889223740483638e-009</v>
-      </c>
-      <c r="Z61">
-        <v>8.592398239776458e-009</v>
-      </c>
-      <c r="AA61">
-        <v>7.667386931236462e-009</v>
+        <v>1.371358217154201e-008</v>
       </c>
       <c r="AB61">
-        <v>5.543530796089482e-010</v>
+        <v>5.542728387544735e-010</v>
       </c>
       <c r="AC61">
-        <v>1.540600268533635e-009</v>
-      </c>
-      <c r="AD61">
-        <v>7.051797971242824e-009</v>
-      </c>
-      <c r="AE61">
-        <v>6.126786662702827e-009</v>
+        <v>1.540377271518739e-009</v>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
@@ -4982,7 +4805,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>154458618.6</v>
+        <v>154510553.4786</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5029,11 +4852,8 @@
       <c r="Q62">
         <v>4.59e-011</v>
       </c>
-      <c r="R62">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S62">
-        <v>154458618.6</v>
+        <v>154510553.4786</v>
       </c>
       <c r="T62">
         <v>286341194.7082768</v>
@@ -5044,34 +4864,16 @@
         </is>
       </c>
       <c r="V62">
-        <v>1.678051479587053e-008</v>
+        <v>1.678563882584653e-008</v>
       </c>
       <c r="W62">
-        <v>1.497401496705128e-008</v>
-      </c>
-      <c r="X62">
-        <v>7.289742879430096e-009</v>
-      </c>
-      <c r="Y62">
-        <v>6.504968429776888e-009</v>
-      </c>
-      <c r="Z62">
-        <v>9.49077191644043e-009</v>
-      </c>
-      <c r="AA62">
-        <v>8.469046537274391e-009</v>
+        <v>1.515421741268241e-008</v>
       </c>
       <c r="AB62">
-        <v>6.123131741484261e-010</v>
+        <v>6.125001476171906e-010</v>
       </c>
       <c r="AC62">
-        <v>1.701676918950629e-009</v>
-      </c>
-      <c r="AD62">
-        <v>7.789094997489801e-009</v>
-      </c>
-      <c r="AE62">
-        <v>6.767369618323762e-009</v>
+        <v>1.702196536116624e-009</v>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
@@ -5089,7 +4891,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>158471511</v>
+        <v>158461780.6794</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5139,11 +4941,8 @@
       <c r="Q63">
         <v>8e-011</v>
       </c>
-      <c r="R63">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S63">
-        <v>158471511</v>
+        <v>158461780.6794</v>
       </c>
       <c r="T63">
         <v>293519928.1023067</v>
@@ -5154,34 +4953,16 @@
         </is>
       </c>
       <c r="V63">
-        <v>2.278864673419545e-008</v>
+        <v>2.278735344219546e-008</v>
       </c>
       <c r="W63">
-        <v>2.03353437857974e-008</v>
-      </c>
-      <c r="X63">
-        <v>9.899778241805197e-009</v>
-      </c>
-      <c r="Y63">
-        <v>8.834021444905819e-009</v>
-      </c>
-      <c r="Z63">
-        <v>1.288886849239026e-008</v>
-      </c>
-      <c r="AA63">
-        <v>1.150132234089158e-008</v>
+        <v>2.057261638388979e-008</v>
       </c>
       <c r="AB63">
-        <v>8.315471119989855e-010</v>
+        <v>8.314999203758886e-010</v>
       </c>
       <c r="AC63">
-        <v>2.310949016370048e-009</v>
-      </c>
-      <c r="AD63">
-        <v>1.057791947602021e-008</v>
-      </c>
-      <c r="AE63">
-        <v>9.190373324521531e-009</v>
+        <v>2.310817866332482e-009</v>
       </c>
       <c r="AF63" t="inlineStr">
         <is>
@@ -5199,7 +4980,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>153722712</v>
+        <v>153728574.0936</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -5246,11 +5027,8 @@
       <c r="Q64">
         <v>8.68e-011</v>
       </c>
-      <c r="R64">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S64">
-        <v>153722712</v>
+        <v>153728574.0936</v>
       </c>
       <c r="T64">
         <v>314664200</v>
@@ -5276,7 +5054,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>151093575.6</v>
+        <v>151095236.1072</v>
       </c>
       <c r="D65">
         <v>220506.44815168</v>
@@ -5326,11 +5104,8 @@
       <c r="Q65">
         <v>8.68e-011</v>
       </c>
-      <c r="R65">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S65">
-        <v>150873069.1518483</v>
+        <v>150874729.6590483</v>
       </c>
       <c r="T65">
         <v>332740901.3229308</v>
@@ -5341,34 +5116,16 @@
         </is>
       </c>
       <c r="V65">
-        <v>9.922713144480759e-008</v>
+        <v>9.922819241856759e-008</v>
       </c>
       <c r="W65">
-        <v>8.854487299506195e-008</v>
-      </c>
-      <c r="X65">
-        <v>4.310596448888834e-008</v>
-      </c>
-      <c r="Y65">
-        <v>3.846540855734872e-008</v>
-      </c>
-      <c r="Z65">
-        <v>5.612116695591925e-008</v>
-      </c>
-      <c r="AA65">
-        <v>5.007946443771323e-008</v>
+        <v>8.958405557154138e-008</v>
       </c>
       <c r="AB65">
-        <v>3.620751839601788e-009</v>
+        <v>3.620790554040444e-009</v>
       </c>
       <c r="AC65">
-        <v>1.006241592509794e-008</v>
-      </c>
-      <c r="AD65">
-        <v>4.605875103082131e-008</v>
-      </c>
-      <c r="AE65">
-        <v>4.001704851261528e-008</v>
+        <v>1.006252351622855e-008</v>
       </c>
       <c r="AF65" t="inlineStr">
         <is>
@@ -5386,7 +5143,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>144464126.4</v>
+        <v>144465535.3152</v>
       </c>
       <c r="D66">
         <v>90446.18467875999</v>
@@ -5436,11 +5193,8 @@
       <c r="Q66">
         <v>2.57e-010</v>
       </c>
-      <c r="R66">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S66">
-        <v>144373680.2153212</v>
+        <v>144375089.1305212</v>
       </c>
       <c r="T66">
         <v>362562068.4544098</v>
@@ -5451,34 +5205,16 @@
         </is>
       </c>
       <c r="V66">
-        <v>1.7444597109133e-007</v>
+        <v>1.7444763365517e-007</v>
       </c>
       <c r="W66">
-        <v>1.556660575577925e-007</v>
-      </c>
-      <c r="X66">
-        <v>7.578231604201034e-008</v>
-      </c>
-      <c r="Y66">
-        <v>6.76240001248427e-008</v>
-      </c>
-      <c r="Z66">
-        <v>9.866365504931961e-008</v>
-      </c>
-      <c r="AA66">
-        <v>8.804205743294978e-008</v>
+        <v>1.574928064976459e-007</v>
       </c>
       <c r="AB66">
-        <v>6.365452286518813e-009</v>
+        <v>6.365512952699469e-009</v>
       </c>
       <c r="AC66">
-        <v>1.769020117804109e-008</v>
-      </c>
-      <c r="AD66">
-        <v>8.097345387127852e-008</v>
-      </c>
-      <c r="AE66">
-        <v>7.035185625490869e-008</v>
+        <v>1.769036977516384e-008</v>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
@@ -5496,7 +5232,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>145590000.6</v>
+        <v>145592912.7774</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -5546,11 +5282,8 @@
       <c r="Q67">
         <v>1.83e-009</v>
       </c>
-      <c r="R67">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S67">
-        <v>145590000.6</v>
+        <v>145592912.7774</v>
       </c>
       <c r="T67">
         <v>389007292.4493894</v>
@@ -5561,34 +5294,16 @@
         </is>
       </c>
       <c r="V67">
-        <v>1.311439435589735e-006</v>
+        <v>1.311464862762635e-006</v>
       </c>
       <c r="W67">
-        <v>1.170256930480734e-006</v>
-      </c>
-      <c r="X67">
-        <v>5.697117402945651e-007</v>
-      </c>
-      <c r="Y67">
-        <v>5.083796432857345e-007</v>
-      </c>
-      <c r="Z67">
-        <v>7.4172769529517e-007</v>
-      </c>
-      <c r="AA67">
-        <v>6.618772871949991e-007</v>
+        <v>1.184001625770498e-006</v>
       </c>
       <c r="AB67">
-        <v>4.785381457468648e-008</v>
+        <v>4.785474240039013e-008</v>
       </c>
       <c r="AC67">
-        <v>1.329903310650441e-007</v>
-      </c>
-      <c r="AD67">
-        <v>6.087373642301259e-007</v>
-      </c>
-      <c r="AE67">
-        <v>5.28886956129955e-007</v>
+        <v>1.32992909581482e-007</v>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
@@ -5606,7 +5321,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>157540620.6</v>
+        <v>157542721.3932</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -5656,11 +5371,8 @@
       <c r="Q68">
         <v>4.05e-009</v>
       </c>
-      <c r="R68">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S68">
-        <v>157540620.6</v>
+        <v>157542721.3932</v>
       </c>
       <c r="T68">
         <v>411268175.1924017</v>
@@ -5671,34 +5383,16 @@
         </is>
       </c>
       <c r="V68">
-        <v>3.525787997823181e-006</v>
+        <v>3.52582865998518e-006</v>
       </c>
       <c r="W68">
-        <v>3.146220654866102e-006</v>
-      </c>
-      <c r="X68">
-        <v>1.53166266137655e-006</v>
-      </c>
-      <c r="Y68">
-        <v>1.366772110088667e-006</v>
-      </c>
-      <c r="Z68">
-        <v>1.994125336446631e-006</v>
-      </c>
-      <c r="AA68">
-        <v>1.779448544777435e-006</v>
+        <v>3.183148084361781e-006</v>
       </c>
       <c r="AB68">
-        <v>1.286543629074366e-007</v>
+        <v>1.286558466508011e-007</v>
       </c>
       <c r="AC68">
-        <v>3.575427887638656e-007</v>
-      </c>
-      <c r="AD68">
-        <v>1.636582547682765e-006</v>
-      </c>
-      <c r="AE68">
-        <v>1.421905756013569e-006</v>
+        <v>3.575469122286931e-007</v>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
@@ -5716,7 +5410,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>165138699</v>
+        <v>165137944.224</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5766,11 +5460,8 @@
       <c r="Q69">
         <v>7.9e-009</v>
       </c>
-      <c r="R69">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S69">
-        <v>165138699</v>
+        <v>165137944.224</v>
       </c>
       <c r="T69">
         <v>405831293.4761194</v>
@@ -5781,34 +5472,16 @@
         </is>
       </c>
       <c r="V69">
-        <v>1.260573481918249e-005</v>
+        <v>1.260568696414249e-005</v>
       </c>
       <c r="W69">
-        <v>1.124866931374293e-005</v>
-      </c>
-      <c r="X69">
-        <v>5.476146992864198e-006</v>
-      </c>
-      <c r="Y69">
-        <v>4.886614506790967e-006</v>
-      </c>
-      <c r="Z69">
-        <v>7.12958782631829e-006</v>
-      </c>
-      <c r="AA69">
-        <v>6.362054806951966e-006</v>
+        <v>1.138052134165337e-005</v>
       </c>
       <c r="AB69">
-        <v>4.599773960156711e-007</v>
+        <v>4.599756498075365e-007</v>
       </c>
       <c r="AC69">
-        <v>1.278321210592056e-006</v>
-      </c>
-      <c r="AD69">
-        <v>5.851266615726235e-006</v>
-      </c>
-      <c r="AE69">
-        <v>5.08373359635991e-006</v>
+        <v>1.27831635771251e-006</v>
       </c>
       <c r="AF69" t="inlineStr">
         <is>
@@ -5826,7 +5499,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>172554373.2</v>
+        <v>172553838.567</v>
       </c>
       <c r="D70">
         <v>1.20135371</v>
@@ -5876,11 +5549,8 @@
       <c r="Q70">
         <v>1.31e-008</v>
       </c>
-      <c r="R70">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S70">
-        <v>172554371.9986463</v>
+        <v>172553837.3656463</v>
       </c>
       <c r="T70">
         <v>452369471.7887381</v>
@@ -5891,34 +5561,16 @@
         </is>
       </c>
       <c r="V70">
-        <v>2.673907310084425e-005</v>
+        <v>2.673900542231425e-005</v>
       </c>
       <c r="W70">
-        <v>2.386048853016424e-005</v>
-      </c>
-      <c r="X70">
-        <v>1.161591107964148e-005</v>
-      </c>
-      <c r="Y70">
-        <v>1.03654046659696e-005</v>
-      </c>
-      <c r="Z70">
-        <v>1.512316202120277e-005</v>
-      </c>
-      <c r="AA70">
-        <v>1.349508386419464e-005</v>
+        <v>2.41402013812369e-005</v>
       </c>
       <c r="AB70">
-        <v>9.756963313303028e-007</v>
+        <v>9.756938617722453e-007</v>
       </c>
       <c r="AC70">
-        <v>2.711553494237111e-006</v>
-      </c>
-      <c r="AD70">
-        <v>1.241160852696566e-005</v>
-      </c>
-      <c r="AE70">
-        <v>1.078353036995753e-005</v>
+        <v>2.711546631098894e-006</v>
       </c>
       <c r="AF70" t="inlineStr">
         <is>
@@ -5936,7 +5588,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>179674426.8</v>
+        <v>179675709.9192</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5983,11 +5635,8 @@
       <c r="Q71">
         <v>1.83e-008</v>
       </c>
-      <c r="R71">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S71">
-        <v>179674426.8</v>
+        <v>179675709.9192</v>
       </c>
       <c r="T71">
         <v>475349800</v>
@@ -6013,7 +5662,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>181473309.6</v>
+        <v>181475630.5362</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -6060,11 +5709,8 @@
       <c r="Q72">
         <v>4.41e-008</v>
       </c>
-      <c r="R72">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S72">
-        <v>181473309.6</v>
+        <v>181475630.5362</v>
       </c>
       <c r="T72">
         <v>481103700</v>
@@ -6090,7 +5736,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>179070606</v>
+        <v>179071260.1392</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -6137,11 +5783,8 @@
       <c r="Q73">
         <v>2.16e-007</v>
       </c>
-      <c r="R73">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S73">
-        <v>179070606</v>
+        <v>179071260.1392</v>
       </c>
       <c r="T73">
         <v>547961900</v>
@@ -6167,7 +5810,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>179095765.2</v>
+        <v>179096469.6576</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -6214,11 +5857,8 @@
       <c r="Q74">
         <v>1.053e-006</v>
       </c>
-      <c r="R74">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S74">
-        <v>179095765.2</v>
+        <v>179096469.6576</v>
       </c>
       <c r="T74">
         <v>606489300</v>
@@ -6244,7 +5884,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>175095452.4</v>
+        <v>175096653.7518</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -6294,11 +5934,8 @@
       <c r="Q75">
         <v>6.77e-006</v>
       </c>
-      <c r="R75">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S75">
-        <v>175095452.4</v>
+        <v>175096653.7518</v>
       </c>
       <c r="T75">
         <v>660023398.6105834</v>
@@ -6309,34 +5946,16 @@
         </is>
       </c>
       <c r="V75">
-        <v>0.01566014109785425</v>
+        <v>0.01566022521205775</v>
       </c>
       <c r="W75">
-        <v>0.01397425466607918</v>
-      </c>
-      <c r="X75">
-        <v>0.006803033366237761</v>
-      </c>
-      <c r="Y75">
-        <v>0.006070655440944046</v>
-      </c>
-      <c r="Z75">
-        <v>0.008857107731616487</v>
-      </c>
-      <c r="AA75">
-        <v>0.00790359922513513</v>
+        <v>0.01413818443595192</v>
       </c>
       <c r="AB75">
-        <v>0.0005714312594032611</v>
+        <v>0.0005714343286913946</v>
       </c>
       <c r="AC75">
-        <v>0.001588062164832189</v>
-      </c>
-      <c r="AD75">
-        <v>0.007269045566784298</v>
-      </c>
-      <c r="AE75">
-        <v>0.006315537060302941</v>
+        <v>0.001588070694677692</v>
       </c>
       <c r="AF75" t="inlineStr">
         <is>
@@ -6354,7 +5973,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>167780415</v>
+        <v>167780798.6778</v>
       </c>
       <c r="D76">
         <v>2557822.1855568</v>
@@ -6404,11 +6023,8 @@
       <c r="Q76">
         <v>6e-005</v>
       </c>
-      <c r="R76">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S76">
-        <v>165222592.8144432</v>
+        <v>165222976.4922432</v>
       </c>
       <c r="T76">
         <v>673597562.1345997</v>
@@ -6419,34 +6035,16 @@
         </is>
       </c>
       <c r="V76">
-        <v>0.1449833810815648</v>
+        <v>0.1449836388187649</v>
       </c>
       <c r="W76">
-        <v>0.1293752512779466</v>
-      </c>
-      <c r="X76">
-        <v>0.06298326259544343</v>
-      </c>
-      <c r="Y76">
-        <v>0.05620282382576123</v>
-      </c>
-      <c r="Z76">
-        <v>0.08200011848612138</v>
-      </c>
-      <c r="AA76">
-        <v>0.07317242745218541</v>
+        <v>0.1308924615105067</v>
       </c>
       <c r="AB76">
-        <v>0.0052903760908855</v>
+        <v>0.005290385495595963</v>
       </c>
       <c r="AC76">
-        <v>0.01470246152869133</v>
-      </c>
-      <c r="AD76">
-        <v>0.06729765695743005</v>
-      </c>
-      <c r="AE76">
-        <v>0.05846996592349409</v>
+        <v>0.01470248766528188</v>
       </c>
       <c r="AF76" t="inlineStr">
         <is>
@@ -6464,7 +6062,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>158370874.2</v>
+        <v>158370534.5508</v>
       </c>
       <c r="D77">
         <v>828555.61461192</v>
@@ -6514,11 +6112,8 @@
       <c r="Q77">
         <v>9.42e-005</v>
       </c>
-      <c r="R77">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S77">
-        <v>157542318.5853881</v>
+        <v>157541978.9361881</v>
       </c>
       <c r="T77">
         <v>678416134.559023</v>
@@ -6529,34 +6124,16 @@
         </is>
       </c>
       <c r="V77">
-        <v>0.2356888244411177</v>
+        <v>0.2356884248729777</v>
       </c>
       <c r="W77">
-        <v>0.210315835221963</v>
-      </c>
-      <c r="X77">
-        <v>0.1023872599041892</v>
-      </c>
-      <c r="Y77">
-        <v>0.09136479904764225</v>
-      </c>
-      <c r="Z77">
-        <v>0.1333015645369285</v>
-      </c>
-      <c r="AA77">
-        <v>0.1189510361743207</v>
+        <v>0.2127815133659439</v>
       </c>
       <c r="AB77">
-        <v>0.008600175498809256</v>
+        <v>0.008600160918753813</v>
       </c>
       <c r="AC77">
-        <v>0.02390071088312226</v>
-      </c>
-      <c r="AD77">
-        <v>0.1094008536538062</v>
-      </c>
-      <c r="AE77">
-        <v>0.09505032529119847</v>
+        <v>0.02390067036375264</v>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
@@ -6574,7 +6151,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>156345558.6</v>
+        <v>156346426.5924</v>
       </c>
       <c r="D78">
         <v>523314.55696856</v>
@@ -6624,11 +6201,8 @@
       <c r="Q78">
         <v>0.000214</v>
       </c>
-      <c r="R78">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S78">
-        <v>155822244.0430314</v>
+        <v>155823112.0354314</v>
       </c>
       <c r="T78">
         <v>676601575.0833107</v>
@@ -6639,34 +6213,16 @@
         </is>
       </c>
       <c r="V78">
-        <v>0.4360658943609349</v>
+        <v>0.4360678106924148</v>
       </c>
       <c r="W78">
-        <v>0.389121389195289</v>
-      </c>
-      <c r="X78">
-        <v>0.1894344891708689</v>
-      </c>
-      <c r="Y78">
-        <v>0.1690409925217762</v>
-      </c>
-      <c r="Z78">
-        <v>0.2466314051900659</v>
-      </c>
-      <c r="AA78">
-        <v>0.2200803966735128</v>
+        <v>0.3936857261416754</v>
       </c>
       <c r="AB78">
-        <v>0.01591184151154432</v>
+        <v>0.01591191143758804</v>
       </c>
       <c r="AC78">
-        <v>0.04422053057383993</v>
-      </c>
-      <c r="AD78">
-        <v>0.202410874616226</v>
-      </c>
-      <c r="AE78">
-        <v>0.1758598660996728</v>
+        <v>0.04422072490500844</v>
       </c>
       <c r="AF78" t="inlineStr">
         <is>
@@ -6684,7 +6240,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>164308445.4</v>
+        <v>164306432.664</v>
       </c>
       <c r="D79">
         <v>1264149.1603008</v>
@@ -6734,11 +6290,8 @@
       <c r="Q79">
         <v>0.000871</v>
       </c>
-      <c r="R79">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S79">
-        <v>163044296.2396992</v>
+        <v>163042283.5036992</v>
       </c>
       <c r="T79">
         <v>800203743.0230665</v>
@@ -6749,34 +6302,16 @@
         </is>
       </c>
       <c r="V79">
-        <v>2.60741016242697</v>
+        <v>2.607386998007771</v>
       </c>
       <c r="W79">
-        <v>2.326710430065659</v>
-      </c>
-      <c r="X79">
-        <v>1.13270360871069</v>
-      </c>
-      <c r="Y79">
-        <v>1.010762839900525</v>
-      </c>
-      <c r="Z79">
-        <v>1.47470655371628</v>
-      </c>
-      <c r="AA79">
-        <v>1.315947590165134</v>
+        <v>2.35397114502244</v>
       </c>
       <c r="AB79">
-        <v>0.0951431831671465</v>
+        <v>0.09514233790827215</v>
       </c>
       <c r="AC79">
-        <v>0.2644120127191311</v>
-      </c>
-      <c r="AD79">
-        <v>1.210294540997149</v>
-      </c>
-      <c r="AE79">
-        <v>1.051535577446003</v>
+        <v>0.2644096636638147</v>
       </c>
       <c r="AF79" t="inlineStr">
         <is>
@@ -6794,7 +6329,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>168019427.4</v>
+        <v>168021213.7032</v>
       </c>
       <c r="D80">
         <v>1987128.1000496</v>
@@ -6844,11 +6379,8 @@
       <c r="Q80">
         <v>0.0394</v>
       </c>
-      <c r="R80">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S80">
-        <v>166032299.2999504</v>
+        <v>166034085.6031504</v>
       </c>
       <c r="T80">
         <v>848271457.0203528</v>
@@ -6859,34 +6391,16 @@
         </is>
       </c>
       <c r="V80">
-        <v>17.17473026856449</v>
+        <v>17.17489490584167</v>
       </c>
       <c r="W80">
-        <v>15.32579132553435</v>
-      </c>
-      <c r="X80">
-        <v>7.460996829025203</v>
-      </c>
-      <c r="Y80">
-        <v>6.657786101677803</v>
-      </c>
-      <c r="Z80">
-        <v>9.713733439539283</v>
-      </c>
-      <c r="AA80">
-        <v>8.668005223856543</v>
+        <v>15.50564111044313</v>
       </c>
       <c r="AB80">
-        <v>0.6266979132532753</v>
+        <v>0.6267039207908868</v>
       </c>
       <c r="AC80">
-        <v>1.741653485768567</v>
-      </c>
-      <c r="AD80">
-        <v>7.972079953770716</v>
-      </c>
-      <c r="AE80">
-        <v>6.926351738087976</v>
+        <v>1.741670181290605</v>
       </c>
       <c r="AF80" t="inlineStr">
         <is>
@@ -6904,7 +6418,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>176139559.2</v>
+        <v>176139785.6328</v>
       </c>
       <c r="D81">
         <v>6529986.54580544</v>
@@ -6954,11 +6468,8 @@
       <c r="Q81">
         <v>0.449</v>
       </c>
-      <c r="R81">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S81">
-        <v>169609572.6541945</v>
+        <v>169609799.0869945</v>
       </c>
       <c r="T81">
         <v>808442517.0246947</v>
@@ -6969,34 +6480,16 @@
         </is>
       </c>
       <c r="V81">
-        <v>1214.815844410982</v>
+        <v>1214.81736986589</v>
       </c>
       <c r="W81">
-        <v>1084.035314631561</v>
-      </c>
-      <c r="X81">
-        <v>527.7367982651573</v>
-      </c>
-      <c r="Y81">
-        <v>470.9234974025263</v>
-      </c>
-      <c r="Z81">
-        <v>687.0790461458242</v>
-      </c>
-      <c r="AA81">
-        <v>613.1118172290351</v>
+        <v>1096.747447663631</v>
       </c>
       <c r="AB81">
-        <v>44.32806470753449</v>
+        <v>44.32812037067407</v>
       </c>
       <c r="AC81">
-        <v>123.1919347145657</v>
-      </c>
-      <c r="AD81">
-        <v>563.8871114312585</v>
-      </c>
-      <c r="AE81">
-        <v>489.9198825144694</v>
+        <v>123.1920894077584</v>
       </c>
       <c r="AF81" t="inlineStr">
         <is>
@@ -7014,7 +6507,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>180020365.8</v>
+        <v>180017346.696</v>
       </c>
       <c r="D82">
         <v>5543827.82874338</v>
@@ -7064,11 +6557,8 @@
       <c r="Q82">
         <v>0.95</v>
       </c>
-      <c r="R82">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S82">
-        <v>174476537.9712566</v>
+        <v>174473518.8672566</v>
       </c>
       <c r="T82">
         <v>861614553.1625509</v>
@@ -7079,34 +6569,16 @@
         </is>
       </c>
       <c r="V82">
-        <v>2899.174112838908</v>
+        <v>2899.126844499902</v>
       </c>
       <c r="W82">
-        <v>2587.064645264675</v>
-      </c>
-      <c r="X82">
-        <v>1259.450863241476</v>
-      </c>
-      <c r="Y82">
-        <v>1123.865167776884</v>
-      </c>
-      <c r="Z82">
-        <v>1639.723249597432</v>
-      </c>
-      <c r="AA82">
-        <v>1463.199477487791</v>
+        <v>2617.356358272517</v>
       </c>
       <c r="AB82">
-        <v>105.7895139115871</v>
+        <v>105.7877891118986</v>
       </c>
       <c r="AC82">
-        <v>293.9991848790716</v>
-      </c>
-      <c r="AD82">
-        <v>1345.72406471836</v>
-      </c>
-      <c r="AE82">
-        <v>1169.20029260872</v>
+        <v>293.9943914956467</v>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
@@ -7124,7 +6596,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>202820890.8</v>
+        <v>202821544.9392</v>
       </c>
       <c r="D83">
         <v>16964341.7535642</v>
@@ -7174,11 +6646,8 @@
       <c r="Q83">
         <v>0.99</v>
       </c>
-      <c r="R83">
-        <v>0.4344171181937762</v>
-      </c>
       <c r="S83">
-        <v>185856549.0464358</v>
+        <v>185857203.1856358</v>
       </c>
       <c r="T83">
         <v>871930690.3023067</v>
@@ -7189,34 +6658,16 @@
         </is>
       </c>
       <c r="V83">
-        <v>2961.426532262673</v>
+        <v>2961.435585477974</v>
       </c>
       <c r="W83">
-        <v>2642.615304557679</v>
-      </c>
-      <c r="X83">
-        <v>1286.494379888138</v>
-      </c>
-      <c r="Y83">
-        <v>1147.997325100715</v>
-      </c>
-      <c r="Z83">
-        <v>1674.932152374535</v>
-      </c>
-      <c r="AA83">
-        <v>1494.617979456964</v>
+        <v>2673.609219262131</v>
       </c>
       <c r="AB83">
-        <v>108.0610757199987</v>
+        <v>108.0614060676111</v>
       </c>
       <c r="AC83">
-        <v>300.3120725688058</v>
-      </c>
-      <c r="AD83">
-        <v>1374.620079805729</v>
-      </c>
-      <c r="AE83">
-        <v>1194.305906888158</v>
+        <v>300.3129906364401</v>
       </c>
       <c r="AF83" t="inlineStr">
         <is>
@@ -7234,7 +6685,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>216709977.407682</v>
+        <v>216666596.091</v>
       </c>
       <c r="D84">
         <v>28450838.2634701</v>
@@ -7285,10 +6736,10 @@
         <v>0.99</v>
       </c>
       <c r="R84">
-        <v>0.4344171181937762</v>
+        <v>0.6205117391080787</v>
       </c>
       <c r="S84">
-        <v>188259139.1442119</v>
+        <v>188215757.8275299</v>
       </c>
       <c r="T84">
         <v>882312372.2995753</v>
@@ -7299,34 +6750,34 @@
         </is>
       </c>
       <c r="V84">
-        <v>4261.191862204268</v>
+        <v>4260.53368629618</v>
       </c>
       <c r="W84">
-        <v>3802.454900717704</v>
+        <v>3846.446027229675</v>
       </c>
       <c r="X84">
-        <v>1851.134688849548</v>
+        <v>2643.711167212196</v>
       </c>
       <c r="Y84">
-        <v>1651.851500031586</v>
+        <v>2386.764913741646</v>
       </c>
       <c r="Z84">
-        <v>2410.05717335472</v>
+        <v>1616.822519083984</v>
       </c>
       <c r="AA84">
-        <v>2150.603400686118</v>
+        <v>1459.68111348803</v>
       </c>
       <c r="AB84">
-        <v>155.4889076134795</v>
+        <v>155.4648910809517</v>
       </c>
       <c r="AC84">
-        <v>432.1185569895432</v>
+        <v>432.0518127468887</v>
       </c>
       <c r="AD84">
-        <v>1977.938616365176</v>
+        <v>1184.770706337096</v>
       </c>
       <c r="AE84">
-        <v>1718.484843696575</v>
+        <v>1027.629300741141</v>
       </c>
       <c r="AF84" t="inlineStr">
         <is>
@@ -7344,7 +6795,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>243705394.8377136</v>
+        <v>243619496.0958</v>
       </c>
       <c r="D85">
         <v>39566652.3671298</v>
@@ -7395,10 +6846,10 @@
         <v>1</v>
       </c>
       <c r="R85">
-        <v>0.4321877411980095</v>
+        <v>0.6173273466455476</v>
       </c>
       <c r="S85">
-        <v>204138742.4705838</v>
+        <v>204052843.7286702</v>
       </c>
       <c r="T85">
         <v>914082404.8326491</v>
@@ -7409,34 +6860,34 @@
         </is>
       </c>
       <c r="V85">
-        <v>4577.517534332805</v>
+        <v>4576.289396768695</v>
       </c>
       <c r="W85">
-        <v>4084.726654983604</v>
+        <v>4131.51296662006</v>
       </c>
       <c r="X85">
-        <v>1978.346963457577</v>
+        <v>2825.068590789372</v>
       </c>
       <c r="Y85">
-        <v>1765.368786428665</v>
+        <v>2550.495937315237</v>
       </c>
       <c r="Z85">
-        <v>2599.170570875228</v>
+        <v>1751.220805979323</v>
       </c>
       <c r="AA85">
-        <v>2319.357868554939</v>
+        <v>1581.017029304824</v>
       </c>
       <c r="AB85">
-        <v>167.0314841507216</v>
+        <v>166.986669982663</v>
       </c>
       <c r="AC85">
-        <v>464.1964819924841</v>
+        <v>464.0719391300294</v>
       </c>
       <c r="AD85">
-        <v>2134.974088882744</v>
+        <v>1287.148866849293</v>
       </c>
       <c r="AE85">
-        <v>1855.161386562455</v>
+        <v>1116.945090174794</v>
       </c>
       <c r="AF85" t="inlineStr">
         <is>
@@ -7454,7 +6905,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>262532039.2366254</v>
+        <v>262532037.834</v>
       </c>
       <c r="D86">
         <v>72848661.85889886</v>
@@ -7505,10 +6956,10 @@
         <v>0.99</v>
       </c>
       <c r="R86">
-        <v>0.4313309116768279</v>
+        <v>0.6161034704352405</v>
       </c>
       <c r="S86">
-        <v>189683377.3777265</v>
+        <v>189683375.9751011</v>
       </c>
       <c r="T86">
         <v>1008330832.951619</v>
@@ -7519,34 +6970,34 @@
         </is>
       </c>
       <c r="V86">
-        <v>5379.047522378248</v>
+        <v>5379.047500374011</v>
       </c>
       <c r="W86">
-        <v>4799.96824223732</v>
+        <v>4856.249806131683</v>
       </c>
       <c r="X86">
-        <v>2320.149471780392</v>
+        <v>3314.049832616434</v>
       </c>
       <c r="Y86">
-        <v>2070.374677944044</v>
+        <v>2991.952358858194</v>
       </c>
       <c r="Z86">
-        <v>3058.898050597856</v>
+        <v>2064.997667757577</v>
       </c>
       <c r="AA86">
-        <v>2729.593564293275</v>
+        <v>1864.297447273489</v>
       </c>
       <c r="AB86">
-        <v>196.278940329839</v>
+        <v>196.2789395269147</v>
       </c>
       <c r="AC86">
-        <v>545.4779621553784</v>
+        <v>545.4779599239747</v>
       </c>
       <c r="AD86">
-        <v>2513.420088442477</v>
+        <v>1519.519707833603</v>
       </c>
       <c r="AE86">
-        <v>2184.115602137897</v>
+        <v>1318.819487349515</v>
       </c>
       <c r="AF86" t="inlineStr">
         <is>
@@ -7564,7 +7015,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>286623718.1403618</v>
+        <v>286623720.3984</v>
       </c>
       <c r="D87">
         <v>118623835.5705348</v>
@@ -7615,10 +7066,10 @@
         <v>1</v>
       </c>
       <c r="R87">
-        <v>0.4264221646868155</v>
+        <v>0.6090919255304758</v>
       </c>
       <c r="S87">
-        <v>167999882.569827</v>
+        <v>167999884.8278652</v>
       </c>
       <c r="T87">
         <v>1151690659.711165</v>
@@ -7629,34 +7080,34 @@
         </is>
       </c>
       <c r="V87">
-        <v>7187.837922506287</v>
+        <v>7187.83796741984</v>
       </c>
       <c r="W87">
-        <v>6414.034011568853</v>
+        <v>6489.241214798994</v>
       </c>
       <c r="X87">
-        <v>3065.053406333114</v>
+        <v>4378.054067976811</v>
       </c>
       <c r="Y87">
-        <v>2735.086267588049</v>
+        <v>3952.544426753643</v>
       </c>
       <c r="Z87">
-        <v>4122.784516173173</v>
+        <v>2809.783899443029</v>
       </c>
       <c r="AA87">
-        <v>3678.947743980804</v>
+        <v>2536.696788045351</v>
       </c>
       <c r="AB87">
-        <v>262.2808601007482</v>
+        <v>262.2808617396228</v>
       </c>
       <c r="AC87">
-        <v>728.9036146195571</v>
+        <v>728.9036191741466</v>
       </c>
       <c r="AD87">
-        <v>3393.880901553616</v>
+        <v>2080.880280268882</v>
       </c>
       <c r="AE87">
-        <v>2950.044129361247</v>
+        <v>1807.793168871205</v>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
@@ -7674,7 +7125,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>304444926.5869968</v>
+        <v>304444925.2284</v>
       </c>
       <c r="D88">
         <v>122350382.8253784</v>
@@ -7725,10 +7176,10 @@
         <v>1</v>
       </c>
       <c r="R88">
-        <v>0.4191683051783253</v>
+        <v>0.5987306741194501</v>
       </c>
       <c r="S88">
-        <v>182094543.7616184</v>
+        <v>182094542.4030216</v>
       </c>
       <c r="T88">
         <v>1285034416.67215</v>
@@ -7739,34 +7190,34 @@
         </is>
       </c>
       <c r="V88">
-        <v>7211.688799103231</v>
+        <v>7211.688773903937</v>
       </c>
       <c r="W88">
-        <v>6435.317231272447</v>
+        <v>6510.77392562864</v>
       </c>
       <c r="X88">
-        <v>3022.911371393613</v>
+        <v>4317.859281139175</v>
       </c>
       <c r="Y88">
-        <v>2697.481017117344</v>
+        <v>3898.200061530974</v>
       </c>
       <c r="Z88">
-        <v>4188.777427709618</v>
+        <v>2893.829492764762</v>
       </c>
       <c r="AA88">
-        <v>3737.836214155103</v>
+        <v>2612.573864097666</v>
       </c>
       <c r="AB88">
-        <v>263.1511674860074</v>
+        <v>263.1511665664969</v>
       </c>
       <c r="AC88">
-        <v>731.3222821452844</v>
+        <v>731.3222795898766</v>
       </c>
       <c r="AD88">
-        <v>3457.455145564333</v>
+        <v>2162.507213174886</v>
       </c>
       <c r="AE88">
-        <v>3006.513932009819</v>
+        <v>1881.251584507789</v>
       </c>
       <c r="AF88" t="inlineStr">
         <is>
@@ -7784,7 +7235,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>309128920.3372326</v>
+        <v>309128920.419</v>
       </c>
       <c r="D89">
         <v>120668555.2790124</v>
@@ -7835,10 +7286,10 @@
         <v>1</v>
       </c>
       <c r="R89">
-        <v>0.374713516506993</v>
+        <v>0.5352324437899859</v>
       </c>
       <c r="S89">
-        <v>188460365.0582202</v>
+        <v>188460365.1399876</v>
       </c>
       <c r="T89">
         <v>1293574918.18599</v>
@@ -7849,34 +7300,34 @@
         </is>
       </c>
       <c r="V89">
-        <v>5380.723877923511</v>
+        <v>5380.723878917881</v>
       </c>
       <c r="W89">
-        <v>4801.464130374855</v>
+        <v>4857.763254930584</v>
       </c>
       <c r="X89">
-        <v>2016.229965649863</v>
+        <v>2879.93799107235</v>
       </c>
       <c r="Y89">
-        <v>1799.173508674953</v>
+        <v>2600.032498289693</v>
       </c>
       <c r="Z89">
-        <v>3364.493912273648</v>
+        <v>2500.785887845531</v>
       </c>
       <c r="AA89">
-        <v>3002.290621699902</v>
+        <v>2257.730756640891</v>
       </c>
       <c r="AB89">
-        <v>196.3401097633998</v>
+        <v>196.3401097996839</v>
       </c>
       <c r="AC89">
-        <v>545.6479578661197</v>
+        <v>545.6479579669566</v>
       </c>
       <c r="AD89">
-        <v>2818.845954407528</v>
+        <v>1955.137929878575</v>
       </c>
       <c r="AE89">
-        <v>2456.642663833782</v>
+        <v>1712.082798673934</v>
       </c>
       <c r="AF89" t="inlineStr">
         <is>
@@ -7894,7 +7345,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>298550679.4023428</v>
+        <v>280944389.517</v>
       </c>
       <c r="D90">
         <v>89549617.0844461</v>
@@ -7933,7 +7384,7 @@
         <v>0.4709401388975893</v>
       </c>
       <c r="N90">
-        <v>1.738458045906026</v>
+        <v>1.162095453656468</v>
       </c>
       <c r="O90">
         <v>1.202856468366384</v>
@@ -7945,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="R90">
-        <v>0.4289450136748798</v>
+        <v>0.6126955068525004</v>
       </c>
       <c r="S90">
-        <v>209001062.3178967</v>
+        <v>191394772.4325539</v>
       </c>
       <c r="T90">
         <v>1437911082.65532</v>
@@ -7959,34 +7410,34 @@
         </is>
       </c>
       <c r="V90">
-        <v>6734.02161592933</v>
+        <v>6434.683177959978</v>
       </c>
       <c r="W90">
-        <v>6009.073123917924</v>
+        <v>5809.286668934268</v>
       </c>
       <c r="X90">
-        <v>2888.524994131743</v>
+        <v>3942.501471155447</v>
       </c>
       <c r="Y90">
-        <v>2577.561953312327</v>
+        <v>3559.323840074155</v>
       </c>
       <c r="Z90">
-        <v>3845.496621797588</v>
+        <v>2492.181706804531</v>
       </c>
       <c r="AA90">
-        <v>3431.511170605597</v>
+        <v>2249.962828860113</v>
       </c>
       <c r="AB90">
-        <v>245.7213143096481</v>
+        <v>234.798594039901</v>
       </c>
       <c r="AC90">
-        <v>682.8830518573544</v>
+        <v>652.5277667517668</v>
       </c>
       <c r="AD90">
-        <v>3162.613569940233</v>
+        <v>1839.653940052765</v>
       </c>
       <c r="AE90">
-        <v>2748.628118748243</v>
+        <v>1597.435062108346</v>
       </c>
       <c r="AF90" t="inlineStr">
         <is>
@@ -8004,7 +7455,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>283677273.7401372</v>
+        <v>272277680.3868</v>
       </c>
       <c r="D91">
         <v>5608444.835399999</v>
@@ -8043,7 +7494,7 @@
         <v>1.077351123374992</v>
       </c>
       <c r="N91">
-        <v>2.459631318753218</v>
+        <v>1.252036969292027</v>
       </c>
       <c r="O91">
         <v>1.26895656279509</v>
@@ -8055,10 +7506,10 @@
         <v>1</v>
       </c>
       <c r="R91">
-        <v>0.4538143847866191</v>
+        <v>0.6482183628192075</v>
       </c>
       <c r="S91">
-        <v>278068828.9047372</v>
+        <v>266669235.5514</v>
       </c>
       <c r="T91">
         <v>1595364783.50228</v>
@@ -8069,34 +7520,34 @@
         </is>
       </c>
       <c r="V91">
-        <v>10007.85951175725</v>
+        <v>9686.996821116143</v>
       </c>
       <c r="W91">
-        <v>8930.467267552347</v>
+        <v>8745.503071179903</v>
       </c>
       <c r="X91">
-        <v>4541.710607359031</v>
+        <v>6279.289220018774</v>
       </c>
       <c r="Y91">
-        <v>4052.774508881307</v>
+        <v>5668.995682830588</v>
       </c>
       <c r="Z91">
-        <v>5466.14890439822</v>
+        <v>3407.707601097369</v>
       </c>
       <c r="AA91">
-        <v>4877.69275867104</v>
+        <v>3076.507388349315</v>
       </c>
       <c r="AB91">
-        <v>365.1821352693905</v>
+        <v>353.4740050384509</v>
       </c>
       <c r="AC91">
-        <v>1014.876107582154</v>
+        <v>982.3380930183376</v>
       </c>
       <c r="AD91">
-        <v>4451.272796816066</v>
+        <v>2425.369508079031</v>
       </c>
       <c r="AE91">
-        <v>3862.816651088886</v>
+        <v>2094.169295330978</v>
       </c>
       <c r="AF91" t="inlineStr">
         <is>
@@ -8114,7 +7565,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>296445681.717603</v>
+        <v>280631962.5714</v>
       </c>
       <c r="D92">
         <v>104949187.5168</v>
@@ -8153,7 +7604,7 @@
         <v>0.5872543377789462</v>
       </c>
       <c r="N92">
-        <v>2.626107390538015</v>
+        <v>1.480763595628035</v>
       </c>
       <c r="O92">
         <v>1.340651558073655</v>
@@ -8165,10 +7616,10 @@
         <v>1</v>
       </c>
       <c r="R92">
-        <v>0.4166134479434036</v>
+        <v>0.5950813729302945</v>
       </c>
       <c r="S92">
-        <v>191496494.200803</v>
+        <v>175682775.0546</v>
       </c>
       <c r="T92">
         <v>1480754390.25081</v>
@@ -8179,34 +7630,34 @@
         </is>
       </c>
       <c r="V92">
-        <v>9364.101427044487</v>
+        <v>8754.955623577629</v>
       </c>
       <c r="W92">
-        <v>8356.012710411978</v>
+        <v>7904.048355537694</v>
       </c>
       <c r="X92">
-        <v>3901.21058241275</v>
+        <v>5209.911012422378</v>
       </c>
       <c r="Y92">
-        <v>3481.22726634364</v>
+        <v>4703.551947120807</v>
       </c>
       <c r="Z92">
-        <v>5462.890844631736</v>
+        <v>3545.044611155251</v>
       </c>
       <c r="AA92">
-        <v>4874.785444068339</v>
+        <v>3200.496408416887</v>
       </c>
       <c r="AB92">
-        <v>341.6917024054841</v>
+        <v>319.4642555734137</v>
       </c>
       <c r="AC92">
-        <v>949.5939462498236</v>
+        <v>887.821743987574</v>
       </c>
       <c r="AD92">
-        <v>4513.296898381913</v>
+        <v>2657.222867167677</v>
       </c>
       <c r="AE92">
-        <v>3925.191497818515</v>
+        <v>2312.674664429313</v>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
@@ -8224,7 +7675,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>292462821.4080672</v>
+        <v>276503268.6636</v>
       </c>
       <c r="D93">
         <v>97245641.75039999</v>
@@ -8263,7 +7714,7 @@
         <v>0.5139882014849745</v>
       </c>
       <c r="N93">
-        <v>2.504475959583499</v>
+        <v>1.304790888533957</v>
       </c>
       <c r="O93">
         <v>0.4929689708473924</v>
@@ -8275,10 +7726,10 @@
         <v>3.14</v>
       </c>
       <c r="R93">
-        <v>0.2670790669976674</v>
+        <v>0.3814897926470798</v>
       </c>
       <c r="S93">
-        <v>195217179.6576672</v>
+        <v>179257626.9132</v>
       </c>
       <c r="T93">
         <v>1435713696.41825</v>
@@ -8289,34 +7740,34 @@
         </is>
       </c>
       <c r="V93">
-        <v>23515.41087245516</v>
+        <v>21751.64302794259</v>
       </c>
       <c r="W93">
-        <v>20983.86841190094</v>
+        <v>19637.56821819237</v>
       </c>
       <c r="X93">
-        <v>6280.473995882127</v>
+        <v>8298.029788463118</v>
       </c>
       <c r="Y93">
-        <v>5604.351997452328</v>
+        <v>7491.531827651091</v>
       </c>
       <c r="Z93">
-        <v>17234.93687657303</v>
+        <v>13453.61323947947</v>
       </c>
       <c r="AA93">
-        <v>15379.51641444861</v>
+        <v>12146.03639054127</v>
       </c>
       <c r="AB93">
-        <v>858.0663971203546</v>
+        <v>793.7073294474019</v>
       </c>
       <c r="AC93">
-        <v>2384.648648034621</v>
+        <v>2205.788638797424</v>
       </c>
       <c r="AD93">
-        <v>14850.28822853841</v>
+        <v>11247.82460068205</v>
       </c>
       <c r="AE93">
-        <v>12994.86776641399</v>
+        <v>9940.247751743851</v>
       </c>
       <c r="AF93" t="inlineStr">
         <is>
@@ -8334,7 +7785,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>285926125.4073411</v>
+        <v>270191278.2492</v>
       </c>
       <c r="D94">
         <v>83878726.09908</v>
@@ -8373,7 +7824,7 @@
         <v>0.5281088208812833</v>
       </c>
       <c r="N94">
-        <v>3.070518024153881</v>
+        <v>1.39207231120329</v>
       </c>
       <c r="O94">
         <v>0.5422560403755233</v>
@@ -8385,10 +7836,10 @@
         <v>2.93</v>
       </c>
       <c r="R94">
-        <v>0.2914409963244444</v>
+        <v>0.4162878300665986</v>
       </c>
       <c r="S94">
-        <v>202047399.3082611</v>
+        <v>186312552.15012</v>
       </c>
       <c r="T94">
         <v>1572501877.5494</v>
@@ -8399,34 +7850,34 @@
         </is>
       </c>
       <c r="V94">
-        <v>26307.29104768069</v>
+        <v>24068.31905916087</v>
       </c>
       <c r="W94">
-        <v>23475.18980689942</v>
+        <v>21729.08303130592</v>
       </c>
       <c r="X94">
-        <v>7667.023113533197</v>
+        <v>10019.34831448864</v>
       </c>
       <c r="Y94">
-        <v>6841.63270622821</v>
+        <v>9045.55282443929</v>
       </c>
       <c r="Z94">
-        <v>18640.26793414749</v>
+        <v>14048.97074467223</v>
       </c>
       <c r="AA94">
-        <v>16633.55710067121</v>
+        <v>12683.53020686663</v>
       </c>
       <c r="AB94">
-        <v>959.9408051900698</v>
+        <v>878.2417594934886</v>
       </c>
       <c r="AC94">
-        <v>2667.767379041983</v>
+        <v>2440.717911168759</v>
       </c>
       <c r="AD94">
-        <v>15972.50055510551</v>
+        <v>11608.25283350348</v>
       </c>
       <c r="AE94">
-        <v>13965.78972162923</v>
+        <v>10242.81229569787</v>
       </c>
       <c r="AF94" t="inlineStr">
         <is>
@@ -8444,7 +7895,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>268899195.5961115</v>
+        <v>254315156.3304</v>
       </c>
       <c r="D95">
         <v>64388883.8736</v>
@@ -8483,7 +7934,7 @@
         <v>0.9666422960957281</v>
       </c>
       <c r="N95">
-        <v>3.415359409501558</v>
+        <v>1.552128439011633</v>
       </c>
       <c r="O95">
         <v>0.7725186682007303</v>
@@ -8498,7 +7949,7 @@
         <v>0.3846115847272595</v>
       </c>
       <c r="S95">
-        <v>204510311.7225115</v>
+        <v>189926272.4568</v>
       </c>
       <c r="T95">
         <v>1583430357.08149</v>
@@ -8509,34 +7960,34 @@
         </is>
       </c>
       <c r="V95">
-        <v>29992.77734585214</v>
+        <v>27365.12090066533</v>
       </c>
       <c r="W95">
-        <v>26763.91650336898</v>
+        <v>24705.46375717745</v>
       </c>
       <c r="X95">
-        <v>11535.56962536004</v>
+        <v>10524.94251585795</v>
       </c>
       <c r="Y95">
-        <v>10293.7123398688</v>
+        <v>9502.007567069893</v>
       </c>
       <c r="Z95">
-        <v>18457.2077204921</v>
+        <v>16840.17838480739</v>
       </c>
       <c r="AA95">
-        <v>16470.20416350018</v>
+        <v>15203.45619010755</v>
       </c>
       <c r="AB95">
-        <v>1094.422484743145</v>
+        <v>998.5405241420408</v>
       </c>
       <c r="AC95">
-        <v>3041.504838529846</v>
+        <v>2775.039692609138</v>
       </c>
       <c r="AD95">
-        <v>15415.70288196225</v>
+        <v>14065.13869219825</v>
       </c>
       <c r="AE95">
-        <v>13428.69932497033</v>
+        <v>12428.41649749842</v>
       </c>
       <c r="AF95" t="inlineStr">
         <is>
@@ -8554,7 +8005,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>257469922.2817313</v>
+        <v>242613090.357</v>
       </c>
       <c r="D96">
         <v>54636926.3616</v>
@@ -8593,7 +8044,7 @@
         <v>1.460267304091145</v>
       </c>
       <c r="N96">
-        <v>4.341844173370141</v>
+        <v>1.80499070801215</v>
       </c>
       <c r="O96">
         <v>1.043703097186865</v>
@@ -8608,7 +8059,7 @@
         <v>0.3744084345617603</v>
       </c>
       <c r="S96">
-        <v>202832995.9201313</v>
+        <v>187976163.9954</v>
       </c>
       <c r="T96">
         <v>1578933369.80027</v>
@@ -8619,34 +8070,34 @@
         </is>
       </c>
       <c r="V96">
-        <v>36064.19578852529</v>
+        <v>32826.51202121488</v>
       </c>
       <c r="W96">
-        <v>32181.71874232005</v>
+        <v>29636.054083538</v>
       </c>
       <c r="X96">
-        <v>13502.73908891059</v>
+        <v>12290.52297798587</v>
       </c>
       <c r="Y96">
-        <v>12049.10693581891</v>
+        <v>11095.98861600513</v>
       </c>
       <c r="Z96">
-        <v>22561.45669961471</v>
+        <v>20535.98904322901</v>
       </c>
       <c r="AA96">
-        <v>20132.61180650114</v>
+        <v>18540.06546753287</v>
       </c>
       <c r="AB96">
-        <v>1315.965717679678</v>
+        <v>1197.824144041036</v>
       </c>
       <c r="AC96">
-        <v>3657.194688029013</v>
+        <v>3328.867946882248</v>
       </c>
       <c r="AD96">
-        <v>18904.2620115857</v>
+        <v>17207.12109634676</v>
       </c>
       <c r="AE96">
-        <v>16475.41711847213</v>
+        <v>15211.19752065063</v>
       </c>
       <c r="AF96" t="inlineStr">
         <is>
@@ -8664,7 +8115,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>254181417.6250523</v>
+        <v>241190771.5932</v>
       </c>
       <c r="D97">
         <v>31949152.3164</v>
@@ -8703,7 +8154,7 @@
         <v>2.40590503571002</v>
       </c>
       <c r="N97">
-        <v>5.019218946607819</v>
+        <v>2.388092855380338</v>
       </c>
       <c r="O97">
         <v>1.288920009735108</v>
@@ -8718,7 +8169,7 @@
         <v>0.3837071541628571</v>
       </c>
       <c r="S97">
-        <v>222232265.3086523</v>
+        <v>209241619.2768</v>
       </c>
       <c r="T97">
         <v>1715489270.83511</v>
@@ -8729,34 +8180,34 @@
         </is>
       </c>
       <c r="V97">
-        <v>41594.34673630233</v>
+        <v>39119.1356913259</v>
       </c>
       <c r="W97">
-        <v>37116.52342914911</v>
+        <v>35317.08822125691</v>
       </c>
       <c r="X97">
-        <v>15960.04841544969</v>
+        <v>15010.29222942931</v>
       </c>
       <c r="Y97">
-        <v>14241.87557741781</v>
+        <v>13551.41941469705</v>
       </c>
       <c r="Z97">
-        <v>25634.29832085264</v>
+        <v>24108.84346189659</v>
       </c>
       <c r="AA97">
-        <v>22874.64785173129</v>
+        <v>21765.66880655986</v>
       </c>
       <c r="AB97">
-        <v>1517.758351668868</v>
+        <v>1427.439052763347</v>
       </c>
       <c r="AC97">
-        <v>4217.995732610849</v>
+        <v>3966.989755976295</v>
       </c>
       <c r="AD97">
-        <v>21416.30258824179</v>
+        <v>20141.8537059203</v>
       </c>
       <c r="AE97">
-        <v>18656.65211912045</v>
+        <v>17798.67905058356</v>
       </c>
       <c r="AF97" t="inlineStr">
         <is>
@@ -8774,7 +8225,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>247773030.6396965</v>
+        <v>238412145.5166</v>
       </c>
       <c r="D98">
         <v>20763719.82234</v>
@@ -8813,7 +8264,7 @@
         <v>3.030781768098272</v>
       </c>
       <c r="N98">
-        <v>7.568725879488357</v>
+        <v>4.497059288764902</v>
       </c>
       <c r="O98">
         <v>1.499304840234349</v>
@@ -8828,7 +8279,7 @@
         <v>0.4411119981224166</v>
       </c>
       <c r="S98">
-        <v>227009310.8173565</v>
+        <v>217648425.69426</v>
       </c>
       <c r="T98">
         <v>1756078870.12573</v>
@@ -8839,34 +8290,34 @@
         </is>
       </c>
       <c r="V98">
-        <v>42143.35002600684</v>
+        <v>40533.68070637073</v>
       </c>
       <c r="W98">
-        <v>37606.42398208201</v>
+        <v>36594.15148470613</v>
       </c>
       <c r="X98">
-        <v>18589.93733754428</v>
+        <v>17879.89288764324</v>
       </c>
       <c r="Y98">
-        <v>16588.64482497496</v>
+        <v>16142.11928101312</v>
       </c>
       <c r="Z98">
-        <v>23553.41268846256</v>
+        <v>22653.78781872749</v>
       </c>
       <c r="AA98">
-        <v>21017.77915710705</v>
+        <v>20452.03220369301</v>
       </c>
       <c r="AB98">
-        <v>1537.791226168024</v>
+        <v>1479.055141940246</v>
       </c>
       <c r="AC98">
-        <v>4273.669008304872</v>
+        <v>4110.435808269685</v>
       </c>
       <c r="AD98">
-        <v>19279.74368015769</v>
+        <v>18543.35201045781</v>
       </c>
       <c r="AE98">
-        <v>16744.11014880217</v>
+        <v>16341.59639542332</v>
       </c>
       <c r="AF98" t="inlineStr">
         <is>
@@ -8884,7 +8335,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>242036137.7849751</v>
+        <v>236452111.7508</v>
       </c>
       <c r="D99">
         <v>20686397.4114204</v>
@@ -8923,7 +8374,7 @@
         <v>8.991015162190822</v>
       </c>
       <c r="N99">
-        <v>13.67904582641926</v>
+        <v>12.94147669805176</v>
       </c>
       <c r="O99">
         <v>1.743880514041419</v>
@@ -8938,7 +8389,7 @@
         <v>0.4602018481003838</v>
       </c>
       <c r="S99">
-        <v>221349740.3735547</v>
+        <v>215765714.3393796</v>
       </c>
       <c r="T99">
         <v>1751287267.878551</v>
@@ -8949,34 +8400,34 @@
         </is>
       </c>
       <c r="V99">
-        <v>47462.47172910631</v>
+        <v>46621.18494250678</v>
       </c>
       <c r="W99">
-        <v>42352.91769593275</v>
+        <v>42090.00205388328</v>
       </c>
       <c r="X99">
-        <v>21842.31720514695</v>
+        <v>21455.15547117141</v>
       </c>
       <c r="Y99">
-        <v>19490.8909961117</v>
+        <v>19369.89673174604</v>
       </c>
       <c r="Z99">
-        <v>25620.15452395937</v>
+        <v>25166.02947133537</v>
       </c>
       <c r="AA99">
-        <v>22862.02669982105</v>
+        <v>22720.10532213725</v>
       </c>
       <c r="AB99">
-        <v>1731.88350124579</v>
+        <v>1701.185337992857</v>
       </c>
       <c r="AC99">
-        <v>4813.070018426514</v>
+        <v>4727.756884450024</v>
       </c>
       <c r="AD99">
-        <v>20807.08450553285</v>
+        <v>20438.27258688535</v>
       </c>
       <c r="AE99">
-        <v>18048.95668139454</v>
+        <v>17992.34843768722</v>
       </c>
       <c r="AF99" t="inlineStr">
         <is>
@@ -8994,7 +8445,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>220344493.9499344</v>
+        <v>227941980.9018</v>
       </c>
       <c r="D100">
         <v>38281780.30050659</v>
@@ -9033,7 +8484,7 @@
         <v>6.05824830177867</v>
       </c>
       <c r="N100">
-        <v>10.08763090488371</v>
+        <v>11.32325264022676</v>
       </c>
       <c r="O100">
         <v>1.799823733081524</v>
@@ -9048,7 +8499,7 @@
         <v>0.4180982742335152</v>
       </c>
       <c r="S100">
-        <v>182062713.6494278</v>
+        <v>189660200.6012934</v>
       </c>
       <c r="T100">
         <v>1681767258.59395</v>
@@ -9059,34 +8510,34 @@
         </is>
       </c>
       <c r="V100">
-        <v>49654.55613147603</v>
+        <v>50999.65410686937</v>
       </c>
       <c r="W100">
-        <v>44309.01409997165</v>
+        <v>46042.9212331824</v>
       </c>
       <c r="X100">
-        <v>20760.48422640134</v>
+        <v>21322.86736858829</v>
       </c>
       <c r="Y100">
-        <v>18525.52232818664</v>
+        <v>19250.46590826323</v>
       </c>
       <c r="Z100">
-        <v>28894.07190507469</v>
+        <v>29676.78673828108</v>
       </c>
       <c r="AA100">
-        <v>25783.49177178501</v>
+        <v>26792.45532491916</v>
       </c>
       <c r="AB100">
-        <v>1811.871640748313</v>
+        <v>1860.95363977354</v>
       </c>
       <c r="AC100">
-        <v>5035.364714225846</v>
+        <v>5171.768287435491</v>
       </c>
       <c r="AD100">
-        <v>23858.70719084884</v>
+        <v>24505.01845084559</v>
       </c>
       <c r="AE100">
-        <v>20748.12705755916</v>
+        <v>21620.68703748367</v>
       </c>
       <c r="AF100" t="inlineStr">
         <is>
@@ -9104,7 +8555,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>215106366.4088183</v>
+        <v>222743303.9568</v>
       </c>
       <c r="D101">
         <v>33429069.6217896</v>
@@ -9143,7 +8594,7 @@
         <v>7.699329891418924</v>
       </c>
       <c r="N101">
-        <v>12.96545076307643</v>
+        <v>12.57553709973752</v>
       </c>
       <c r="O101">
         <v>2.036006709535843</v>
@@ -9158,7 +8609,7 @@
         <v>0.4186047135079816</v>
       </c>
       <c r="S101">
-        <v>181677296.7870287</v>
+        <v>189314234.3350104</v>
       </c>
       <c r="T101">
         <v>1648735920.98134</v>
@@ -9169,34 +8620,34 @@
         </is>
       </c>
       <c r="V101">
-        <v>58949.13173348048</v>
+        <v>60415.26581214182</v>
       </c>
       <c r="W101">
-        <v>52602.98576114226</v>
+        <v>54543.41551496022</v>
       </c>
       <c r="X101">
-        <v>24676.38440083786</v>
+        <v>25290.11503680018</v>
       </c>
       <c r="Y101">
-        <v>22019.85778420739</v>
+        <v>22832.13082538672</v>
       </c>
       <c r="Z101">
-        <v>34272.74733264263</v>
+        <v>35125.15077534164</v>
       </c>
       <c r="AA101">
-        <v>30583.12797693487</v>
+        <v>31711.2846895735</v>
       </c>
       <c r="AB101">
-        <v>2151.026378159969</v>
+        <v>2204.524928255299</v>
       </c>
       <c r="AC101">
-        <v>5977.908191930405</v>
+        <v>6126.585783297203</v>
       </c>
       <c r="AD101">
-        <v>28294.83914071222</v>
+        <v>28998.56499204443</v>
       </c>
       <c r="AE101">
-        <v>24605.21978500447</v>
+        <v>25584.6989062763</v>
       </c>
       <c r="AF101" t="inlineStr">
         <is>
@@ -9214,7 +8665,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>202002442.1947765</v>
+        <v>209615629.6542</v>
       </c>
       <c r="D102">
         <v>21725042.0421738</v>
@@ -9253,7 +8704,7 @@
         <v>9.813452816168102</v>
       </c>
       <c r="N102">
-        <v>16.49945538996105</v>
+        <v>16.17958801155788</v>
       </c>
       <c r="O102">
         <v>2.114508017249896</v>
@@ -9268,7 +8719,7 @@
         <v>0.4606222431925799</v>
       </c>
       <c r="S102">
-        <v>180277400.1526027</v>
+        <v>187890587.6120262</v>
       </c>
       <c r="T102">
         <v>1601739631.29045</v>
@@ -9279,34 +8730,34 @@
         </is>
       </c>
       <c r="V102">
-        <v>67696.33144188121</v>
+        <v>69557.30664282387</v>
       </c>
       <c r="W102">
-        <v>60408.50906878308</v>
+        <v>62796.9276857601</v>
       </c>
       <c r="X102">
-        <v>31182.4360446677</v>
+        <v>32039.64261625167</v>
       </c>
       <c r="Y102">
-        <v>27825.50295518217</v>
+        <v>28925.66169621705</v>
       </c>
       <c r="Z102">
-        <v>36513.89539721351</v>
+        <v>37517.66402657219</v>
       </c>
       <c r="AA102">
-        <v>32583.00611360091</v>
+        <v>33871.26598954306</v>
       </c>
       <c r="AB102">
-        <v>2470.207623998689</v>
+        <v>2538.113742861093</v>
       </c>
       <c r="AC102">
-        <v>6864.943424776789</v>
+        <v>7053.661028778004</v>
       </c>
       <c r="AD102">
-        <v>29648.95197243672</v>
+        <v>30464.00299779419</v>
       </c>
       <c r="AE102">
-        <v>25718.06268882412</v>
+        <v>26817.60496076505</v>
       </c>
       <c r="AF102" t="inlineStr">
         <is>
@@ -9324,7 +8775,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>201076103.5525829</v>
+        <v>208440946.6062</v>
       </c>
       <c r="D103">
         <v>24058816.80833532</v>
@@ -9363,7 +8814,7 @@
         <v>11.37692321386652</v>
       </c>
       <c r="N103">
-        <v>15.97332383456711</v>
+        <v>18.50937721603621</v>
       </c>
       <c r="O103">
         <v>1.892351873803061</v>
@@ -9378,7 +8829,7 @@
         <v>0.472787528853811</v>
       </c>
       <c r="S103">
-        <v>177017286.7442476</v>
+        <v>184382129.7978647</v>
       </c>
       <c r="T103">
         <v>1555118556.20726</v>
@@ -9389,34 +8840,34 @@
         </is>
       </c>
       <c r="V103">
-        <v>81634.77321770658</v>
+        <v>84013.27128040315</v>
       </c>
       <c r="W103">
-        <v>72846.41328730824</v>
+        <v>75847.89543865866</v>
       </c>
       <c r="X103">
-        <v>38595.90269814077</v>
+        <v>39720.42691958666</v>
       </c>
       <c r="Y103">
-        <v>34440.87572396989</v>
+        <v>35859.93905320567</v>
       </c>
       <c r="Z103">
-        <v>43038.87051956581</v>
+        <v>44292.84436081649</v>
       </c>
       <c r="AA103">
-        <v>38405.53756333835</v>
+        <v>39987.95638545298</v>
       </c>
       <c r="AB103">
-        <v>2978.814876532976</v>
+        <v>3065.605163731675</v>
       </c>
       <c r="AC103">
-        <v>8278.411661275475</v>
+        <v>8519.610176594895</v>
       </c>
       <c r="AD103">
-        <v>34760.45885829034</v>
+        <v>35773.2341842216</v>
       </c>
       <c r="AE103">
-        <v>30127.12590206288</v>
+        <v>31468.34620885809</v>
       </c>
       <c r="AF103" t="inlineStr">
         <is>
@@ -9434,7 +8885,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>197077899.6772364</v>
+        <v>204173770.1718</v>
       </c>
       <c r="D104">
         <v>15931837.93771614</v>
@@ -9473,7 +8924,7 @@
         <v>10.79195070009504</v>
       </c>
       <c r="N104">
-        <v>15.97322981147881</v>
+        <v>20.81605585661363</v>
       </c>
       <c r="O104">
         <v>1.871133196076307</v>
@@ -9488,7 +8939,7 @@
         <v>0.4941421090100967</v>
       </c>
       <c r="S104">
-        <v>181146061.7395202</v>
+        <v>188241932.2340839</v>
       </c>
       <c r="T104">
         <v>1470145536.9903</v>
@@ -9499,34 +8950,34 @@
         </is>
       </c>
       <c r="V104">
-        <v>93734.64526576579</v>
+        <v>96538.68182185623</v>
       </c>
       <c r="W104">
-        <v>83643.67829086052</v>
+        <v>87155.94254354516</v>
       </c>
       <c r="X104">
-        <v>46318.23529893879</v>
+        <v>47703.82783650672</v>
       </c>
       <c r="Y104">
-        <v>41331.86359600786</v>
+        <v>43067.42126123021</v>
       </c>
       <c r="Z104">
-        <v>47416.40996682701</v>
+        <v>48834.85398534951</v>
       </c>
       <c r="AA104">
-        <v>42311.81469485266</v>
+        <v>44088.52128231494</v>
       </c>
       <c r="AB104">
-        <v>3420.333575492092</v>
+        <v>3522.651564241191</v>
       </c>
       <c r="AC104">
-        <v>9505.434385960012</v>
+        <v>9789.785870133021</v>
       </c>
       <c r="AD104">
-        <v>37910.97558086699</v>
+        <v>39045.06811521649</v>
       </c>
       <c r="AE104">
-        <v>32806.38030889265</v>
+        <v>34298.73541218192</v>
       </c>
       <c r="AF104" t="inlineStr">
         <is>
@@ -9544,7 +8995,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>194226984.4178757</v>
+        <v>201146495.7216</v>
       </c>
       <c r="D105">
         <v>16825688.38858842</v>
@@ -9583,7 +9034,7 @@
         <v>10.52889893168332</v>
       </c>
       <c r="N105">
-        <v>14.00824490307292</v>
+        <v>20.6154716078505</v>
       </c>
       <c r="O105">
         <v>2.287471943738364</v>
@@ -9598,7 +9049,7 @@
         <v>0.3998502889661589</v>
       </c>
       <c r="S105">
-        <v>177401296.0292872</v>
+        <v>184320807.3330116</v>
       </c>
       <c r="T105">
         <v>1463475837.4766</v>
@@ -9609,34 +9060,34 @@
         </is>
       </c>
       <c r="V105">
-        <v>145188.9835356088</v>
+        <v>149339.8457240231</v>
       </c>
       <c r="W105">
-        <v>129558.7196793377</v>
+        <v>134825.2821330536</v>
       </c>
       <c r="X105">
-        <v>58053.85702141607</v>
+        <v>59713.58046691224</v>
       </c>
       <c r="Y105">
-        <v>51804.09150186876</v>
+        <v>53909.92802084538</v>
       </c>
       <c r="Z105">
-        <v>87135.12651419273</v>
+        <v>89626.26525711088</v>
       </c>
       <c r="AA105">
-        <v>77754.62817746893</v>
+        <v>80915.35411220821</v>
       </c>
       <c r="AB105">
-        <v>5297.87842873269</v>
+        <v>5449.341457904246</v>
       </c>
       <c r="AC105">
-        <v>14723.31124366029</v>
+        <v>15144.2414991199</v>
       </c>
       <c r="AD105">
-        <v>72411.81527053245</v>
+        <v>74482.02375799097</v>
       </c>
       <c r="AE105">
-        <v>63031.31693380864</v>
+        <v>65771.11261308831</v>
       </c>
       <c r="AF105" t="inlineStr">
         <is>
@@ -9654,7 +9105,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>194339835.4062838</v>
+        <v>201105366.7194</v>
       </c>
       <c r="D106">
         <v>14726080.94671626</v>
@@ -9693,7 +9144,7 @@
         <v>6.480576847737366</v>
       </c>
       <c r="N106">
-        <v>7.196422357854731</v>
+        <v>19.87283664056364</v>
       </c>
       <c r="O106">
         <v>2.15010809733667</v>
@@ -9708,7 +9159,7 @@
         <v>0.3959354364857034</v>
       </c>
       <c r="S106">
-        <v>179613754.4595676</v>
+        <v>186379285.7726837</v>
       </c>
       <c r="T106">
         <v>1513766873.72041</v>
@@ -9719,34 +9170,34 @@
         </is>
       </c>
       <c r="V106">
-        <v>152100.3783332676</v>
+        <v>156534.0865732874</v>
       </c>
       <c r="W106">
-        <v>135726.0709437227</v>
+        <v>141320.3039240073</v>
       </c>
       <c r="X106">
-        <v>60221.92968502294</v>
+        <v>61977.39189228544</v>
       </c>
       <c r="Y106">
-        <v>53738.7611415924</v>
+        <v>55953.71621844409</v>
       </c>
       <c r="Z106">
-        <v>91878.4486482447</v>
+        <v>94556.69468100197</v>
       </c>
       <c r="AA106">
-        <v>81987.30980213033</v>
+        <v>85366.5877055632</v>
       </c>
       <c r="AB106">
-        <v>5550.072007882528</v>
+        <v>5711.85595782205</v>
       </c>
       <c r="AC106">
-        <v>15424.18133900597</v>
+        <v>15873.79442115406</v>
       </c>
       <c r="AD106">
-        <v>76454.26730923873</v>
+        <v>78682.90025984791</v>
       </c>
       <c r="AE106">
-        <v>66563.12846312436</v>
+        <v>69492.79328440914</v>
       </c>
       <c r="AF106" t="inlineStr">
         <is>
@@ -9764,7 +9215,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>186858772.4536606</v>
+        <v>178180149.422684</v>
       </c>
       <c r="D107">
         <v>18683541.3286236</v>
@@ -9803,7 +9254,7 @@
         <v>3.680975540602125</v>
       </c>
       <c r="N107">
-        <v>6.705561883807536</v>
+        <v>14.55110287725587</v>
       </c>
       <c r="O107">
         <v>3.371700184168235</v>
@@ -9818,7 +9269,7 @@
         <v>0.397544739092408</v>
       </c>
       <c r="S107">
-        <v>168175231.125037</v>
+        <v>159496608.0940604</v>
       </c>
       <c r="T107">
         <v>1587086366.95493</v>
@@ -9829,34 +9280,34 @@
         </is>
       </c>
       <c r="V107">
-        <v>234203.8807331717</v>
+        <v>226865.9351267724</v>
       </c>
       <c r="W107">
-        <v>208990.7525544465</v>
+        <v>204816.4946304467</v>
       </c>
       <c r="X107">
-        <v>93106.52066049815</v>
+        <v>90189.35898892788</v>
       </c>
       <c r="Y107">
-        <v>83083.17419698343</v>
+        <v>81423.71991968251</v>
       </c>
       <c r="Z107">
-        <v>141097.3600726735</v>
+        <v>136676.5761378445</v>
       </c>
       <c r="AA107">
-        <v>125907.5783574631</v>
+        <v>123392.7747107642</v>
       </c>
       <c r="AB107">
-        <v>8545.990594096564</v>
+        <v>8278.232374480531</v>
       </c>
       <c r="AC107">
-        <v>23750.12584657889</v>
+        <v>23006.00012559698</v>
       </c>
       <c r="AD107">
-        <v>117347.2342260946</v>
+        <v>113670.5760122476</v>
       </c>
       <c r="AE107">
-        <v>102157.4525108842</v>
+        <v>100386.7745851672</v>
       </c>
       <c r="AF107" t="inlineStr">
         <is>
@@ -9874,7 +9325,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>175065754.5388151</v>
+        <v>166357510.9765998</v>
       </c>
       <c r="D108">
         <v>10845928.399746</v>
@@ -9913,7 +9364,7 @@
         <v>5.087057457117536</v>
       </c>
       <c r="N108">
-        <v>9.095799411997563</v>
+        <v>7.294269175395665</v>
       </c>
       <c r="O108">
         <v>3.948895811758799</v>
@@ -9928,7 +9379,7 @@
         <v>0.3890978969717566</v>
       </c>
       <c r="S108">
-        <v>164219826.1390691</v>
+        <v>155511582.5768538</v>
       </c>
       <c r="T108">
         <v>1573971972.23494</v>
@@ -9939,34 +9390,34 @@
         </is>
       </c>
       <c r="V108">
-        <v>254602.2068707804</v>
+        <v>246877.0669208269</v>
       </c>
       <c r="W108">
-        <v>227193.1047827889</v>
+        <v>222882.7145120513</v>
       </c>
       <c r="X108">
-        <v>99065.18325778874</v>
+        <v>96059.34754944933</v>
       </c>
       <c r="Y108">
-        <v>88400.35927746708</v>
+        <v>86723.19548799556</v>
       </c>
       <c r="Z108">
-        <v>155537.0236129916</v>
+        <v>150817.7193713775</v>
       </c>
       <c r="AA108">
-        <v>138792.7455053218</v>
+        <v>136159.5190240557</v>
       </c>
       <c r="AB108">
-        <v>9290.316020138182</v>
+        <v>9008.429259151511</v>
       </c>
       <c r="AC108">
-        <v>25818.67744918753</v>
+        <v>25035.28715941321</v>
       </c>
       <c r="AD108">
-        <v>129718.3461638041</v>
+        <v>125782.4322119643</v>
       </c>
       <c r="AE108">
-        <v>112974.0680561343</v>
+        <v>111124.2318646425</v>
       </c>
       <c r="AF108" t="inlineStr">
         <is>
@@ -9984,7 +9435,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>178663117.0198723</v>
+        <v>169528964.5768283</v>
       </c>
       <c r="D109">
         <v>22591805.2422843</v>
@@ -10023,7 +9474,7 @@
         <v>6.446001316195582</v>
       </c>
       <c r="N109">
-        <v>8.463556495314675</v>
+        <v>6.295455362364702</v>
       </c>
       <c r="O109">
         <v>3.26601898259122</v>
@@ -10038,7 +9489,7 @@
         <v>0.3962113795146416</v>
       </c>
       <c r="S109">
-        <v>156071311.777588</v>
+        <v>146937159.334544</v>
       </c>
       <c r="T109">
         <v>1648716817.05906</v>
@@ -10049,34 +9500,34 @@
         </is>
       </c>
       <c r="V109">
-        <v>658531.1882732069</v>
+        <v>634953.6798793702</v>
       </c>
       <c r="W109">
-        <v>587637.2679519759</v>
+        <v>573241.5794064639</v>
       </c>
       <c r="X109">
-        <v>260917.5505591435</v>
+        <v>251575.8734329034</v>
       </c>
       <c r="Y109">
-        <v>232828.5725894675</v>
+        <v>227124.836971787</v>
       </c>
       <c r="Z109">
-        <v>397613.6377140635</v>
+        <v>383377.8064464668</v>
       </c>
       <c r="AA109">
-        <v>354808.6953625085</v>
+        <v>346116.7424346769</v>
       </c>
       <c r="AB109">
-        <v>24029.49653645496</v>
+        <v>23169.16422968366</v>
       </c>
       <c r="AC109">
-        <v>66780.27087520667</v>
+        <v>64389.32504736889</v>
       </c>
       <c r="AD109">
-        <v>330833.3668388568</v>
+        <v>318988.4813990979</v>
       </c>
       <c r="AE109">
-        <v>288028.4244873018</v>
+        <v>281727.417387308</v>
       </c>
       <c r="AF109" t="inlineStr">
         <is>
@@ -10094,7 +9545,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>185655272.5290866</v>
+        <v>175152024.2241997</v>
       </c>
       <c r="D110">
         <v>23950112.1422574</v>
@@ -10129,14 +9580,11 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="N110">
-        <v>5.728814685109065</v>
-      </c>
       <c r="R110">
         <v>0.3981888736946355</v>
       </c>
       <c r="S110">
-        <v>161705160.3868292</v>
+        <v>151201912.0819423</v>
       </c>
       <c r="T110">
         <v>1699298536.10193</v>
@@ -10162,7 +9610,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>175827628.644158</v>
+        <v>164579561.1756965</v>
       </c>
       <c r="D111">
         <v>11961897.6554286</v>
@@ -10193,7 +9641,7 @@
         <v>0.4022803085565649</v>
       </c>
       <c r="S111">
-        <v>163865730.9887294</v>
+        <v>152617663.5202679</v>
       </c>
       <c r="T111">
         <v>1572935499.31118</v>
@@ -10216,7 +9664,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10298,11 +9746,6 @@
           <t>vbp_criterio_ccnn_04</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>vbp_criterio_ccnn_12</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -10834,22 +10277,19 @@
         </is>
       </c>
       <c r="E54">
-        <v>3.863548928174218e-009</v>
+        <v>4.2345763130852e-009</v>
       </c>
       <c r="F54">
-        <v>3.917944184840152e-010</v>
+        <v>4.294195298040208e-010</v>
       </c>
       <c r="G54">
-        <v>1.579871472610104e-010</v>
+        <v>1.711522638371494e-010</v>
       </c>
       <c r="H54">
-        <v>3.447620062922773e-009</v>
+        <v>3.823011490052834e-009</v>
       </c>
       <c r="O54">
-        <v>1.113386278347159e-013</v>
-      </c>
-      <c r="P54">
-        <v>4.09060323562585e-014</v>
+        <v>1.220307869591543e-013</v>
       </c>
     </row>
     <row r="55">
@@ -10862,22 +10302,19 @@
         </is>
       </c>
       <c r="E55">
-        <v>2.820396416335013e-009</v>
+        <v>3.091138126529336e-009</v>
       </c>
       <c r="F55">
-        <v>2.860105033934616e-010</v>
+        <v>3.134658541284864e-010</v>
       </c>
       <c r="G55">
-        <v>1.15330850532936e-010</v>
+        <v>1.249370064613064e-010</v>
       </c>
       <c r="H55">
-        <v>2.516767731202812e-009</v>
+        <v>2.790705775816367e-009</v>
       </c>
       <c r="O55">
-        <v>8.127736254477443e-014</v>
-      </c>
-      <c r="P55">
-        <v>2.986146395681758e-014</v>
+        <v>8.907951830132267e-014</v>
       </c>
     </row>
     <row r="56">
@@ -10890,22 +10327,19 @@
         </is>
       </c>
       <c r="E56">
-        <v>4.773435760760956e-009</v>
+        <v>5.165590125000377e-009</v>
       </c>
       <c r="F56">
-        <v>4.840641396877398e-010</v>
+        <v>5.238316938068898e-010</v>
       </c>
       <c r="G56">
-        <v>1.951939816205967e-010</v>
+        <v>2.087817950562578e-010</v>
       </c>
       <c r="H56">
-        <v>4.25955338053646e-009</v>
+        <v>4.663538673221347e-009</v>
       </c>
       <c r="O56">
-        <v>1.375594815907876e-013</v>
-      </c>
-      <c r="P56">
-        <v>5.05396259527852e-014</v>
+        <v>1.488604718527242e-013</v>
       </c>
     </row>
     <row r="57">
@@ -10918,22 +10352,19 @@
         </is>
       </c>
       <c r="E57">
-        <v>8.733521129550477e-009</v>
+        <v>9.572411442528581e-009</v>
       </c>
       <c r="F57">
-        <v>8.856481167658175e-010</v>
+        <v>9.70718229363162e-010</v>
       </c>
       <c r="G57">
-        <v>3.571286696383256e-010</v>
+        <v>3.868958232507914e-010</v>
       </c>
       <c r="H57">
-        <v>7.793317290905147e-009</v>
+        <v>8.642054417396369e-009</v>
       </c>
       <c r="O57">
-        <v>2.516800684569463e-013</v>
-      </c>
-      <c r="P57">
-        <v>9.246775556645665e-014</v>
+        <v>2.758549651871802e-013</v>
       </c>
     </row>
     <row r="58">
@@ -10946,22 +10377,19 @@
         </is>
       </c>
       <c r="E58">
-        <v>1.043443973193807e-008</v>
+        <v>1.143614518194982e-008</v>
       </c>
       <c r="F58">
-        <v>1.058134715771053e-009</v>
+        <v>1.159715570983642e-009</v>
       </c>
       <c r="G58">
-        <v>4.266821508314293e-010</v>
+        <v>4.622238431298848e-010</v>
       </c>
       <c r="H58">
-        <v>9.311124159151859e-009</v>
+        <v>1.032464907939111e-008</v>
       </c>
       <c r="O58">
-        <v>3.006966453837646e-013</v>
-      </c>
-      <c r="P58">
-        <v>1.104765429994941e-013</v>
+        <v>3.295635013165477e-013</v>
       </c>
     </row>
     <row r="59">
@@ -10974,22 +10402,19 @@
         </is>
       </c>
       <c r="E59">
-        <v>1.426354026637399e-008</v>
+        <v>1.563162715661403e-008</v>
       </c>
       <c r="F59">
-        <v>1.44643579467446e-009</v>
+        <v>1.585170625671023e-009</v>
       </c>
       <c r="G59">
-        <v>5.832606441435403e-010</v>
+        <v>6.317959997663937e-010</v>
       </c>
       <c r="H59">
-        <v>1.272800435683789e-008</v>
+        <v>1.411236586840913e-008</v>
       </c>
       <c r="O59">
-        <v>4.110425494401006e-013</v>
-      </c>
-      <c r="P59">
-        <v>1.510178466736323e-013</v>
+        <v>4.504676790164902e-013</v>
       </c>
     </row>
     <row r="60">
@@ -11002,22 +10427,19 @@
         </is>
       </c>
       <c r="E60">
-        <v>1.44803760473195e-008</v>
+        <v>1.627578052210213e-008</v>
       </c>
       <c r="F60">
-        <v>1.468424657836657e-009</v>
+        <v>1.650492871600285e-009</v>
       </c>
       <c r="G60">
-        <v>5.921274314141454e-010</v>
+        <v>6.578312624728258e-010</v>
       </c>
       <c r="H60">
-        <v>1.292149676566848e-008</v>
+        <v>1.469391300218201e-008</v>
       </c>
       <c r="O60">
-        <v>4.172912598265254e-013</v>
-      </c>
-      <c r="P60">
-        <v>1.533136352442571e-013</v>
+        <v>4.690307031069996e-013</v>
       </c>
     </row>
     <row r="61">
@@ -11030,22 +10452,19 @@
         </is>
       </c>
       <c r="E61">
-        <v>1.757688897206835e-008</v>
+        <v>1.926187030889147e-008</v>
       </c>
       <c r="F61">
-        <v>1.78243555901438e-009</v>
+        <v>1.953305993242064e-009</v>
       </c>
       <c r="G61">
-        <v>7.187491599162616e-010</v>
+        <v>7.785224460159627e-010</v>
       </c>
       <c r="H61">
-        <v>1.568465578938731e-008</v>
+        <v>1.738978024395283e-008</v>
       </c>
       <c r="O61">
-        <v>5.065256674976409e-013</v>
-      </c>
-      <c r="P61">
-        <v>1.860985333382504e-013</v>
+        <v>5.550829689468158e-013</v>
       </c>
     </row>
     <row r="62">
@@ -11058,22 +10477,19 @@
         </is>
       </c>
       <c r="E62">
-        <v>1.941463134963327e-008</v>
+        <v>2.128536269987663e-008</v>
       </c>
       <c r="F62">
-        <v>1.968797170974536e-009</v>
+        <v>2.158504125677133e-009</v>
       </c>
       <c r="G62">
-        <v>7.938976001275142e-010</v>
+        <v>8.603075593233276e-010</v>
       </c>
       <c r="H62">
-        <v>1.732455672222481e-008</v>
+        <v>1.921660637455446e-008</v>
       </c>
       <c r="O62">
-        <v>5.594851921304712e-013</v>
-      </c>
-      <c r="P62">
-        <v>2.055559675669049e-013</v>
+        <v>6.133953833706036e-013</v>
       </c>
     </row>
     <row r="63">
@@ -11086,22 +10502,19 @@
         </is>
       </c>
       <c r="E63">
-        <v>2.636588809601397e-008</v>
+        <v>2.88959561217624e-008</v>
       </c>
       <c r="F63">
-        <v>2.673709583192473e-009</v>
+        <v>2.93027849154626e-009</v>
       </c>
       <c r="G63">
-        <v>1.0781464199706e-009</v>
+        <v>1.167911011710007e-009</v>
       </c>
       <c r="H63">
-        <v>2.352747861266261e-008</v>
+        <v>2.608751480713662e-008</v>
       </c>
       <c r="O63">
-        <v>7.598044846402667e-013</v>
-      </c>
-      <c r="P63">
-        <v>2.791536723379124e-013</v>
+        <v>8.327152481771577e-013</v>
       </c>
     </row>
     <row r="64">
@@ -11124,22 +10537,19 @@
         </is>
       </c>
       <c r="E65">
-        <v>1.14803282278123e-007</v>
+        <v>1.258282802099933e-007</v>
       </c>
       <c r="F65">
-        <v>1.164196081281909e-008</v>
+        <v>1.27599828008429e-008</v>
       </c>
       <c r="G65">
-        <v>4.69450326642875e-009</v>
+        <v>5.085702422253697e-009</v>
       </c>
       <c r="H65">
-        <v>1.024441793360396e-007</v>
+        <v>1.135988409347892e-007</v>
       </c>
       <c r="O65">
-        <v>3.308367554648294e-012</v>
-      </c>
-      <c r="P65">
-        <v>1.215500791313342e-012</v>
+        <v>3.626082734250044e-012</v>
       </c>
     </row>
     <row r="66">
@@ -11152,22 +10562,19 @@
         </is>
       </c>
       <c r="E66">
-        <v>2.018295779579065e-007</v>
+        <v>2.212117866356055e-007</v>
       </c>
       <c r="F66">
-        <v>2.046711549380085e-008</v>
+        <v>2.243262474940733e-008</v>
       </c>
       <c r="G66">
-        <v>8.253157873047003e-009</v>
+        <v>8.940894028323676e-009</v>
       </c>
       <c r="H66">
-        <v>1.801016928204766e-007</v>
+        <v>1.997118813114233e-007</v>
       </c>
       <c r="O66">
-        <v>5.816265998969082e-012</v>
-      </c>
-      <c r="P66">
-        <v>2.136907646280968e-012</v>
+        <v>6.374816843982173e-012</v>
       </c>
     </row>
     <row r="67">
@@ -11180,22 +10587,19 @@
         </is>
       </c>
       <c r="E67">
-        <v>1.517302269273139e-006</v>
+        <v>1.663029066791494e-006</v>
       </c>
       <c r="F67">
-        <v>1.538664505888043e-007</v>
+        <v>1.686443004239358e-007</v>
       </c>
       <c r="G67">
-        <v>6.204509416382661e-008</v>
+        <v>6.721597830904866e-008</v>
       </c>
       <c r="H67">
-        <v>1.353957680441842e-006</v>
+        <v>1.501396777521672e-006</v>
       </c>
       <c r="O67">
-        <v>4.3725174913523e-011</v>
-      </c>
-      <c r="P67">
-        <v>1.606471585450897e-011</v>
+        <v>4.792468732454053e-011</v>
       </c>
     </row>
     <row r="68">
@@ -11208,22 +10612,19 @@
         </is>
       </c>
       <c r="E68">
-        <v>4.079247569421637e-006</v>
+        <v>4.470997060287321e-006</v>
       </c>
       <c r="F68">
-        <v>4.136679666870817e-007</v>
+        <v>4.533944634439539e-007</v>
       </c>
       <c r="G68">
-        <v>1.668074349375171e-007</v>
+        <v>1.807078706110022e-007</v>
       </c>
       <c r="H68">
-        <v>3.640097750389567e-006</v>
+        <v>4.03645415024239e-006</v>
       </c>
       <c r="O68">
-        <v>1.175545684604891e-010</v>
-      </c>
-      <c r="P68">
-        <v>4.318978125192412e-011</v>
+        <v>1.288438911994522e-010</v>
       </c>
     </row>
     <row r="69">
@@ -11236,22 +10637,19 @@
         </is>
       </c>
       <c r="E69">
-        <v>1.458451646941669e-005</v>
+        <v>1.598489172182864e-005</v>
       </c>
       <c r="F69">
-        <v>1.478985320293577e-006</v>
+        <v>1.620994446586027e-006</v>
       </c>
       <c r="G69">
-        <v>5.963859120255108e-007</v>
+        <v>6.460741767549851e-007</v>
       </c>
       <c r="H69">
-        <v>1.301442599091144e-005</v>
+        <v>1.443129612069215e-005</v>
       </c>
       <c r="O69">
-        <v>4.202923481818133e-010</v>
-      </c>
-      <c r="P69">
-        <v>1.544162410492041e-010</v>
+        <v>4.606479543759664e-010</v>
       </c>
     </row>
     <row r="70">
@@ -11264,22 +10662,19 @@
         </is>
       </c>
       <c r="E70">
-        <v>3.093643152184685e-005</v>
+        <v>3.390692690060449e-005</v>
       </c>
       <c r="F70">
-        <v>3.137198835424193e-006</v>
+        <v>3.438430560753937e-006</v>
       </c>
       <c r="G70">
-        <v>1.26504378576147e-006</v>
+        <v>1.370443432762487e-006</v>
       </c>
       <c r="H70">
-        <v>2.760598195409893e-005</v>
+        <v>3.061146182035623e-005</v>
       </c>
       <c r="O70">
-        <v>8.915170740112246e-010</v>
-      </c>
-      <c r="P70">
-        <v>3.275451385102218e-010</v>
+        <v>9.771199447419266e-010</v>
       </c>
     </row>
     <row r="71">
@@ -11332,22 +10727,19 @@
         </is>
       </c>
       <c r="E75">
-        <v>0.01811838730793294</v>
+        <v>0.01985825961458998</v>
       </c>
       <c r="F75">
-        <v>0.001837347773031658</v>
+        <v>0.002013784585738278</v>
       </c>
       <c r="G75">
-        <v>0.0007408919563245006</v>
+        <v>0.0008026271904465092</v>
       </c>
       <c r="H75">
-        <v>0.01616785933138265</v>
+        <v>0.01792820557854525</v>
       </c>
       <c r="O75">
-        <v>5.221304088405794e-007</v>
-      </c>
-      <c r="P75">
-        <v>1.918317462105421e-007</v>
+        <v>5.722695422725868e-007</v>
       </c>
     </row>
     <row r="76">
@@ -11360,22 +10752,19 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.1677421062323226</v>
+        <v>0.1838493827862813</v>
       </c>
       <c r="F76">
-        <v>0.01701037625984822</v>
+        <v>0.01864378149636523</v>
       </c>
       <c r="G76">
-        <v>0.00685926264475225</v>
+        <v>0.007430787814993754</v>
       </c>
       <c r="H76">
-        <v>0.1496838946767963</v>
+        <v>0.1659807855296369</v>
       </c>
       <c r="O76">
-        <v>4.833943166040784e-006</v>
-      </c>
-      <c r="P76">
-        <v>1.776000292117158e-006</v>
+        <v>5.298117970867063e-006</v>
       </c>
     </row>
     <row r="77">
@@ -11388,22 +10777,19 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.2726860108534206</v>
+        <v>0.2988693882689301</v>
       </c>
       <c r="F77">
-        <v>0.02765251819951178</v>
+        <v>0.03030771975620718</v>
       </c>
       <c r="G77">
-        <v>0.01115059903565798</v>
+        <v>0.01207964353736803</v>
       </c>
       <c r="H77">
-        <v>0.2433301038433847</v>
+        <v>0.2698218241684555</v>
       </c>
       <c r="O77">
-        <v>7.858186046705418e-006</v>
-      </c>
-      <c r="P77">
-        <v>2.887113115541758e-006</v>
+        <v>8.612730991707306e-006</v>
       </c>
     </row>
     <row r="78">
@@ -11416,22 +10802,19 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.5045172145284285</v>
+        <v>0.5529644482780708</v>
       </c>
       <c r="F78">
-        <v>0.05116203582666973</v>
+        <v>0.05607496850255284</v>
       </c>
       <c r="G78">
-        <v>0.02063057488056313</v>
+        <v>0.02234960717363932</v>
       </c>
       <c r="H78">
-        <v>0.4502036089704955</v>
+        <v>0.4992210041947724</v>
       </c>
       <c r="O78">
-        <v>1.453903015824711e-005</v>
-      </c>
-      <c r="P78">
-        <v>5.341668472551745e-006</v>
+        <v>1.593516843120589e-005</v>
       </c>
     </row>
     <row r="79">
@@ -11444,22 +10827,19 @@
         </is>
       </c>
       <c r="E79">
-        <v>3.016707633621852</v>
+        <v>3.306348869253654</v>
       </c>
       <c r="F79">
-        <v>0.3059180134699893</v>
+        <v>0.3352899255624758</v>
       </c>
       <c r="G79">
-        <v>0.1233583531661537</v>
+        <v>0.1336353514894788</v>
       </c>
       <c r="H79">
-        <v>2.69194514033549</v>
+        <v>2.984999863674813</v>
       </c>
       <c r="O79">
-        <v>8.693460203303122e-005</v>
-      </c>
-      <c r="P79">
-        <v>3.193994494813423e-005</v>
+        <v>9.528139880954726e-005</v>
       </c>
     </row>
     <row r="80">
@@ -11472,22 +10852,19 @@
         </is>
       </c>
       <c r="E80">
-        <v>19.87072868441576</v>
+        <v>21.77896660329619</v>
       </c>
       <c r="F80">
-        <v>2.015049048037643</v>
+        <v>2.208559465442972</v>
       </c>
       <c r="G80">
-        <v>0.8125482030149706</v>
+        <v>0.8802579437922662</v>
       </c>
       <c r="H80">
-        <v>17.73155307487222</v>
+        <v>19.66223617427651</v>
       </c>
       <c r="O80">
-        <v>0.0005726288722954718</v>
-      </c>
-      <c r="P80">
-        <v>0.0002103849816886523</v>
+        <v>0.0006276199169075877</v>
       </c>
     </row>
     <row r="81">
@@ -11500,22 +10877,19 @@
         </is>
       </c>
       <c r="E81">
-        <v>1405.511217256379</v>
+        <v>1540.473293866527</v>
       </c>
       <c r="F81">
-        <v>142.5299537484962</v>
+        <v>156.2161757443584</v>
       </c>
       <c r="G81">
-        <v>57.47376616312716</v>
+        <v>62.26254343585885</v>
       </c>
       <c r="H81">
-        <v>1254.201450883657</v>
+        <v>1390.752383980658</v>
       </c>
       <c r="O81">
-        <v>0.04050361293329792</v>
-      </c>
-      <c r="P81">
-        <v>0.01488110760314439</v>
+        <v>0.04439291075218142</v>
       </c>
     </row>
     <row r="82">
@@ -11528,22 +10902,19 @@
         </is>
       </c>
       <c r="E82">
-        <v>3354.271147451261</v>
+        <v>3676.295375968044</v>
       </c>
       <c r="F82">
-        <v>340.1496235934603</v>
+        <v>372.805427284581</v>
       </c>
       <c r="G82">
-        <v>137.1619046574799</v>
+        <v>148.5877758742177</v>
       </c>
       <c r="H82">
-        <v>2993.168384669799</v>
+        <v>3318.9907145431</v>
       </c>
       <c r="O82">
-        <v>0.09666240906628974</v>
-      </c>
-      <c r="P82">
-        <v>0.03551396051664509</v>
+        <v>0.1059424095008992</v>
       </c>
     </row>
     <row r="83">
@@ -11556,22 +10927,19 @@
         </is>
       </c>
       <c r="E83">
-        <v>3426.295622769061</v>
+        <v>3755.307212505879</v>
       </c>
       <c r="F83">
-        <v>347.453475038947</v>
+        <v>380.8178524214677</v>
       </c>
       <c r="G83">
-        <v>140.1071090796244</v>
+        <v>151.7812605804902</v>
       </c>
       <c r="H83">
-        <v>3057.439092959879</v>
+        <v>3390.323272183145</v>
       </c>
       <c r="O83">
-        <v>0.09873798942038371</v>
-      </c>
-      <c r="P83">
-        <v>0.03627653284912096</v>
+        <v>0.1082193495957101</v>
       </c>
     </row>
     <row r="84">
@@ -11583,23 +10951,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D84">
+        <v>2050.243907728976</v>
+      </c>
       <c r="E84">
-        <v>4930.091246968886</v>
+        <v>5402.654361192184</v>
       </c>
       <c r="F84">
-        <v>499.9502449920075</v>
+        <v>547.8718823197912</v>
       </c>
       <c r="G84">
-        <v>201.5998933429243</v>
+        <v>218.3634102402079</v>
       </c>
       <c r="H84">
-        <v>4399.344180978737</v>
+        <v>4877.562280740553</v>
+      </c>
+      <c r="I84">
+        <v>1850.977627310266</v>
+      </c>
+      <c r="J84">
+        <v>3352.410453463208</v>
+      </c>
+      <c r="K84">
+        <v>3026.584653430287</v>
+      </c>
+      <c r="L84">
+        <v>1502.372025409185</v>
+      </c>
+      <c r="M84">
+        <v>1502.372025409185</v>
+      </c>
+      <c r="N84">
+        <v>0.6205117391080787</v>
       </c>
       <c r="O84">
-        <v>0.1420739337697104</v>
-      </c>
-      <c r="P84">
-        <v>0.0521982446235303</v>
+        <v>0.1556921199713243</v>
       </c>
     </row>
     <row r="85">
@@ -11611,23 +10997,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D85">
+        <v>2220.670324768549</v>
+      </c>
       <c r="E85">
-        <v>5296.07205181951</v>
+        <v>5803.05466121626</v>
       </c>
       <c r="F85">
-        <v>537.0635931800226</v>
+        <v>588.475639545377</v>
       </c>
       <c r="G85">
-        <v>216.5654766409628</v>
+        <v>234.5467099905117</v>
       </c>
       <c r="H85">
-        <v>4725.925463862582</v>
+        <v>5239.047075071108</v>
+      </c>
+      <c r="I85">
+        <v>2004.840045266344</v>
+      </c>
+      <c r="J85">
+        <v>3582.384336447711</v>
+      </c>
+      <c r="K85">
+        <v>3234.207029804764</v>
+      </c>
+      <c r="L85">
+        <v>1632.194685223172</v>
+      </c>
+      <c r="M85">
+        <v>1632.194685223172</v>
+      </c>
+      <c r="N85">
+        <v>0.6173273466455476</v>
       </c>
       <c r="O85">
-        <v>0.1526206620196797</v>
-      </c>
-      <c r="P85">
-        <v>0.05607313346881377</v>
+        <v>0.1672307392092476</v>
       </c>
     </row>
     <row r="86">
@@ -11639,23 +11043,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D86">
+        <v>2618.561306403105</v>
+      </c>
       <c r="E86">
-        <v>6223.421982550343</v>
+        <v>6821.008018415494</v>
       </c>
       <c r="F86">
-        <v>631.1042106528228</v>
+        <v>691.7041610529842</v>
       </c>
       <c r="G86">
-        <v>254.4864070581933</v>
+        <v>275.6901464724344</v>
       </c>
       <c r="H86">
-        <v>5553.441896545247</v>
+        <v>6158.064018722593</v>
+      </c>
+      <c r="I86">
+        <v>2364.059405625219</v>
+      </c>
+      <c r="J86">
+        <v>4202.446712012389</v>
+      </c>
+      <c r="K86">
+        <v>3794.004613097373</v>
+      </c>
+      <c r="L86">
+        <v>1926.857145350121</v>
+      </c>
+      <c r="M86">
+        <v>1926.857145350121</v>
+      </c>
+      <c r="N86">
+        <v>0.6161034704352405</v>
       </c>
       <c r="O86">
-        <v>0.1793447622523076</v>
-      </c>
-      <c r="P86">
-        <v>0.0658916208174329</v>
+        <v>0.1965658225994985</v>
       </c>
     </row>
     <row r="87">
@@ -11667,23 +11089,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D87">
+        <v>3563.002280010178</v>
+      </c>
       <c r="E87">
-        <v>8316.14674304955</v>
+        <v>9114.680695315119</v>
       </c>
       <c r="F87">
-        <v>843.3230529218535</v>
+        <v>924.3007113607432</v>
       </c>
       <c r="G87">
-        <v>340.0615145721009</v>
+        <v>368.3953528799135</v>
       </c>
       <c r="H87">
-        <v>7420.875182521995</v>
+        <v>8228.811208024948</v>
+      </c>
+      <c r="I87">
+        <v>3216.708744502273</v>
+      </c>
+      <c r="J87">
+        <v>5551.678415304941</v>
+      </c>
+      <c r="K87">
+        <v>5012.102463522676</v>
+      </c>
+      <c r="L87">
+        <v>2638.701568649435</v>
+      </c>
+      <c r="M87">
+        <v>2638.701568649435</v>
+      </c>
+      <c r="N87">
+        <v>0.6090919255304758</v>
       </c>
       <c r="O87">
-        <v>0.2396522949382789</v>
-      </c>
-      <c r="P87">
-        <v>0.08804872775646108</v>
+        <v>0.2626642138184407</v>
       </c>
     </row>
     <row r="88">
@@ -11695,23 +11135,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D88">
+        <v>3669.577963887328</v>
+      </c>
       <c r="E88">
-        <v>8343.741604239935</v>
+        <v>9144.925184188363</v>
       </c>
       <c r="F88">
-        <v>846.1213900968774</v>
+        <v>927.3677417389605</v>
       </c>
       <c r="G88">
-        <v>341.189915811371</v>
+        <v>369.6177686203638</v>
       </c>
       <c r="H88">
-        <v>7445.499329605981</v>
+        <v>8256.116189662873</v>
+      </c>
+      <c r="I88">
+        <v>3312.926177817515</v>
+      </c>
+      <c r="J88">
+        <v>5475.347220301035</v>
+      </c>
+      <c r="K88">
+        <v>4943.190011845358</v>
+      </c>
+      <c r="L88">
+        <v>2742.210222148368</v>
+      </c>
+      <c r="M88">
+        <v>2742.210222148368</v>
+      </c>
+      <c r="N88">
+        <v>0.5987306741194501</v>
       </c>
       <c r="O88">
-        <v>0.2404475156116402</v>
-      </c>
-      <c r="P88">
-        <v>0.08834089340667166</v>
+        <v>0.2635357906907182</v>
       </c>
     </row>
     <row r="89">
@@ -11723,23 +11181,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D89">
+        <v>3171.17121426212</v>
+      </c>
       <c r="E89">
-        <v>6225.361483532173</v>
+        <v>6823.13378352332</v>
       </c>
       <c r="F89">
-        <v>631.3008913920736</v>
+        <v>691.9197304477913</v>
       </c>
       <c r="G89">
-        <v>254.5657165823965</v>
+        <v>275.7760652240852</v>
       </c>
       <c r="H89">
-        <v>5555.172601299172</v>
+        <v>6159.983177531293</v>
+      </c>
+      <c r="I89">
+        <v>2862.960327716016</v>
+      </c>
+      <c r="J89">
+        <v>3651.962569261199</v>
+      </c>
+      <c r="K89">
+        <v>3297.022849815277</v>
+      </c>
+      <c r="L89">
+        <v>2479.251483814329</v>
+      </c>
+      <c r="M89">
+        <v>2479.251483814329</v>
+      </c>
+      <c r="N89">
+        <v>0.5352324437899859</v>
       </c>
       <c r="O89">
-        <v>0.179400654226763</v>
-      </c>
-      <c r="P89">
-        <v>0.06591215563953368</v>
+        <v>0.1966270822792915</v>
       </c>
     </row>
     <row r="90">
@@ -11751,23 +11227,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D90">
+        <v>3160.260511601756</v>
+      </c>
       <c r="E90">
-        <v>7791.09275037872</v>
+        <v>8159.627805810696</v>
       </c>
       <c r="F90">
-        <v>790.0784253642592</v>
+        <v>827.4507947630284</v>
       </c>
       <c r="G90">
-        <v>318.5911555829452</v>
+        <v>329.7942150003601</v>
       </c>
       <c r="H90">
-        <v>6952.345674315379</v>
+        <v>7366.581341272726</v>
+      </c>
+      <c r="I90">
+        <v>2853.110052611461</v>
+      </c>
+      <c r="J90">
+        <v>4999.367294208941</v>
+      </c>
+      <c r="K90">
+        <v>4513.471288661265</v>
+      </c>
+      <c r="L90">
+        <v>2332.809716838728</v>
+      </c>
+      <c r="M90">
+        <v>2332.809716838728</v>
+      </c>
+      <c r="N90">
+        <v>0.6126955068525004</v>
       </c>
       <c r="O90">
-        <v>0.224521441888429</v>
-      </c>
-      <c r="P90">
-        <v>0.08248962238151623</v>
+        <v>0.2351417777877799</v>
       </c>
     </row>
     <row r="91">
@@ -11779,23 +11273,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D91">
+        <v>4321.211305511692</v>
+      </c>
       <c r="E91">
-        <v>11578.84042195788</v>
+        <v>12283.78871660909</v>
       </c>
       <c r="F91">
-        <v>1174.18599691036</v>
+        <v>1245.6733294895</v>
       </c>
       <c r="G91">
-        <v>473.4786593527283</v>
+        <v>496.48373105198</v>
       </c>
       <c r="H91">
-        <v>10332.32483559817</v>
+        <v>11089.90886759184</v>
+      </c>
+      <c r="I91">
+        <v>3901.226297627245</v>
+      </c>
+      <c r="J91">
+        <v>7962.5774110974</v>
+      </c>
+      <c r="K91">
+        <v>7188.682569964592</v>
+      </c>
+      <c r="L91">
+        <v>3075.537976022191</v>
+      </c>
+      <c r="M91">
+        <v>3075.537976022191</v>
+      </c>
+      <c r="N91">
+        <v>0.6482183628192075</v>
       </c>
       <c r="O91">
-        <v>0.333675651186111</v>
-      </c>
-      <c r="P91">
-        <v>0.1225930950413487</v>
+        <v>0.3539906458399978</v>
       </c>
     </row>
     <row r="92">
@@ -11807,23 +11319,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D92">
+        <v>4495.364228824766</v>
+      </c>
       <c r="E92">
-        <v>10834.02859436603</v>
+        <v>11101.89536440096</v>
       </c>
       <c r="F92">
-        <v>1098.656186806657</v>
+        <v>1125.819995871351</v>
       </c>
       <c r="G92">
-        <v>443.0220252903503</v>
+        <v>448.7142004334328</v>
       </c>
       <c r="H92">
-        <v>9667.695437175802</v>
+        <v>10022.88550292923</v>
+      </c>
+      <c r="I92">
+        <v>4058.45303712296</v>
+      </c>
+      <c r="J92">
+        <v>6606.531135576198</v>
+      </c>
+      <c r="K92">
+        <v>5964.432465806273</v>
+      </c>
+      <c r="L92">
+        <v>3369.544232953415</v>
+      </c>
+      <c r="M92">
+        <v>3369.544232953415</v>
+      </c>
+      <c r="N92">
+        <v>0.5950813729302945</v>
       </c>
       <c r="O92">
-        <v>0.3122118808493571</v>
-      </c>
-      <c r="P92">
-        <v>0.1147072633137837</v>
+        <v>0.3199311874176579</v>
       </c>
     </row>
     <row r="93">
@@ -11835,23 +11365,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D93">
+        <v>17060.12147629662</v>
+      </c>
       <c r="E93">
-        <v>27206.7358288808</v>
+        <v>27582.60296028092</v>
       </c>
       <c r="F93">
-        <v>2758.978193647949</v>
+        <v>2797.094093539958</v>
       </c>
       <c r="G93">
-        <v>1112.530127040487</v>
+        <v>1114.828164646741</v>
       </c>
       <c r="H93">
-        <v>24277.80520812901</v>
+        <v>24901.8084092319</v>
+      </c>
+      <c r="I93">
+        <v>15402.02268265672</v>
+      </c>
+      <c r="J93">
+        <v>10522.4814839843</v>
+      </c>
+      <c r="K93">
+        <v>9499.785726575188</v>
+      </c>
+      <c r="L93">
+        <v>14263.02738275667</v>
+      </c>
+      <c r="M93">
+        <v>14263.02738275667</v>
+      </c>
+      <c r="N93">
+        <v>0.3814897926470798</v>
       </c>
       <c r="O93">
-        <v>0.7840357897267966</v>
-      </c>
-      <c r="P93">
-        <v>0.2880563018132408</v>
+        <v>0.7948674192560845</v>
       </c>
     </row>
     <row r="94">
@@ -11863,23 +11411,41 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="D94">
+        <v>17815.07638540671</v>
+      </c>
       <c r="E94">
-        <v>30436.87060327353</v>
+        <v>30520.31001416214</v>
       </c>
       <c r="F94">
-        <v>3086.539407207176</v>
+        <v>3095.000823401328</v>
       </c>
       <c r="G94">
-        <v>1244.615882329745</v>
+        <v>1233.563824506844</v>
       </c>
       <c r="H94">
-        <v>27160.20107295983</v>
+        <v>27553.99530847204</v>
+      </c>
+      <c r="I94">
+        <v>16083.60239184298</v>
+      </c>
+      <c r="J94">
+        <v>12705.23362875543</v>
+      </c>
+      <c r="K94">
+        <v>11470.39291662906</v>
+      </c>
+      <c r="L94">
+        <v>14720.07556200538</v>
+      </c>
+      <c r="M94">
+        <v>14720.07556200538</v>
+      </c>
+      <c r="N94">
+        <v>0.4162878300665986</v>
       </c>
       <c r="O94">
-        <v>0.8771208729463949</v>
-      </c>
-      <c r="P94">
-        <v>0.3222559457294436</v>
+        <v>0.8795254055894082</v>
       </c>
     </row>
     <row r="95">
@@ -11909,31 +11475,28 @@
         <v>752.5167892829827</v>
       </c>
       <c r="H95">
-        <v>30965.17471044122</v>
+        <v>31328.2540030858</v>
       </c>
       <c r="I95">
-        <v>19055.60979370196</v>
+        <v>19279.04458422085</v>
       </c>
       <c r="J95">
         <v>13346.36239762477</v>
       </c>
       <c r="K95">
-        <v>11909.56491673926</v>
+        <v>12049.20941886494</v>
       </c>
       <c r="L95">
         <v>19640.68341359374</v>
       </c>
       <c r="M95">
-        <v>18303.09300441898</v>
+        <v>18526.52779493787</v>
       </c>
       <c r="N95">
         <v>0.3846115847272595</v>
       </c>
       <c r="O95">
         <v>1</v>
-      </c>
-      <c r="P95">
-        <v>0.3674019803529841</v>
       </c>
     </row>
     <row r="96">
@@ -11963,31 +11526,28 @@
         <v>979.6437779742706</v>
       </c>
       <c r="H96">
-        <v>35190.17906855335</v>
+        <v>35602.79825910286</v>
       </c>
       <c r="I96">
-        <v>22014.67921154826</v>
+        <v>22272.81029689399</v>
       </c>
       <c r="J96">
         <v>14765.02265958411</v>
       </c>
       <c r="K96">
-        <v>13175.49985700509</v>
+        <v>13329.98796220887</v>
       </c>
       <c r="L96">
         <v>22268.397645477</v>
       </c>
       <c r="M96">
-        <v>21035.03543357399</v>
+        <v>21293.16651891972</v>
       </c>
       <c r="N96">
         <v>0.3744084345617603</v>
       </c>
       <c r="O96">
-        <v>1.202429350662079</v>
-      </c>
-      <c r="P96">
-        <v>0.4417749246678004</v>
+        <v>1.199574894639576</v>
       </c>
     </row>
     <row r="97">
@@ -12017,31 +11577,28 @@
         <v>1284.25708417344</v>
       </c>
       <c r="H97">
-        <v>48036.82918112514</v>
+        <v>48600.08057960958</v>
       </c>
       <c r="I97">
-        <v>29604.75416102832</v>
+        <v>29951.88196832205</v>
       </c>
       <c r="J97">
         <v>20655.76321874334</v>
       </c>
       <c r="K97">
-        <v>18432.07502009682</v>
+        <v>18648.19861128753</v>
       </c>
       <c r="L97">
         <v>29895.26219907627</v>
       </c>
       <c r="M97">
-        <v>28320.49707685488</v>
+        <v>28667.62488414861</v>
       </c>
       <c r="N97">
         <v>0.3837071541628571</v>
       </c>
       <c r="O97">
-        <v>1.386812106683899</v>
-      </c>
-      <c r="P97">
-        <v>0.5095175143731583</v>
+        <v>1.42952541058844</v>
       </c>
     </row>
     <row r="98">
@@ -12071,31 +11628,28 @@
         <v>1769.871427663027</v>
       </c>
       <c r="H98">
-        <v>50110.09931019022</v>
+        <v>50697.66064585284</v>
       </c>
       <c r="I98">
-        <v>28005.93327735948</v>
+        <v>28334.31425822849</v>
       </c>
       <c r="J98">
         <v>24770.86379173943</v>
       </c>
       <c r="K98">
-        <v>22104.16603283074</v>
+        <v>22363.34638762436</v>
       </c>
       <c r="L98">
         <v>26789.13529328288</v>
       </c>
       <c r="M98">
-        <v>26236.06184969645</v>
+        <v>26564.44283056546</v>
       </c>
       <c r="N98">
         <v>0.4411119981224166</v>
       </c>
       <c r="O98">
-        <v>1.405116623247132</v>
-      </c>
-      <c r="P98">
-        <v>0.5162426300078941</v>
+        <v>1.481216942307945</v>
       </c>
     </row>
     <row r="99">
@@ -12125,31 +11679,28 @@
         <v>2467.928579489419</v>
       </c>
       <c r="H99">
-        <v>57297.67362858744</v>
+        <v>57969.51220226849</v>
       </c>
       <c r="I99">
-        <v>30929.17833285888</v>
+        <v>31291.83555330678</v>
       </c>
       <c r="J99">
-        <v>29549.65160836547</v>
+        <v>29549.65160836548</v>
       </c>
       <c r="K99">
-        <v>26368.49529572856</v>
+        <v>26677.67664896171</v>
       </c>
       <c r="L99">
         <v>27719.77672351215</v>
       </c>
       <c r="M99">
-        <v>28461.24975336946</v>
+        <v>28823.90697381736</v>
       </c>
       <c r="N99">
         <v>0.4602018481003838</v>
       </c>
       <c r="O99">
-        <v>1.582463377159373</v>
-      </c>
-      <c r="P99">
-        <v>0.5814001786044247</v>
+        <v>1.7036718058634</v>
       </c>
     </row>
     <row r="100">
@@ -12179,31 +11730,28 @@
         <v>2984.807779560585</v>
       </c>
       <c r="H100">
-        <v>61625.19240675791</v>
+        <v>62347.77290169652</v>
       </c>
       <c r="I100">
-        <v>35859.8058121841</v>
+        <v>36280.27664919409</v>
       </c>
       <c r="J100">
         <v>28873.78247737324</v>
       </c>
       <c r="K100">
-        <v>25765.38659457381</v>
+        <v>26067.49625250244</v>
       </c>
       <c r="L100">
         <v>31901.93074126725</v>
       </c>
       <c r="M100">
-        <v>32874.99803262352</v>
+        <v>33295.4688696335</v>
       </c>
       <c r="N100">
         <v>0.4180982742335152</v>
       </c>
       <c r="O100">
-        <v>1.655550453327491</v>
-      </c>
-      <c r="P100">
-        <v>0.6082525151268009</v>
+        <v>1.863673626438442</v>
       </c>
     </row>
     <row r="101">
@@ -12233,31 +11781,28 @@
         <v>3717.553864352533</v>
       </c>
       <c r="H101">
-        <v>73722.21362773095</v>
+        <v>74586.63662635602</v>
       </c>
       <c r="I101">
-        <v>42861.74751292042</v>
+        <v>43364.31896985633</v>
       </c>
       <c r="J101">
         <v>34583.54418547882</v>
       </c>
       <c r="K101">
-        <v>30860.46611481053</v>
+        <v>31222.31765649969</v>
       </c>
       <c r="L101">
         <v>37235.17327978842</v>
       </c>
       <c r="M101">
-        <v>39144.19364856788</v>
+        <v>39646.76510550379</v>
       </c>
       <c r="N101">
         <v>0.4186047135079816</v>
       </c>
       <c r="O101">
-        <v>1.965444248584497</v>
-      </c>
-      <c r="P101">
-        <v>0.7221081092033269</v>
+        <v>2.207747081821697</v>
       </c>
     </row>
     <row r="102">
@@ -12287,31 +11832,28 @@
         <v>5087.764327064738</v>
       </c>
       <c r="H102">
-        <v>88103.00185435099</v>
+        <v>89136.04545550191</v>
       </c>
       <c r="I102">
-        <v>47520.79950819981</v>
+        <v>48078.00024847285</v>
       </c>
       <c r="J102">
         <v>45478.13318051624</v>
       </c>
       <c r="K102">
-        <v>40582.20234615119</v>
+        <v>41058.04520702906</v>
       </c>
       <c r="L102">
         <v>37906.66372084741</v>
       </c>
       <c r="M102">
-        <v>42433.03518113507</v>
+        <v>42990.23592140811</v>
       </c>
       <c r="N102">
         <v>0.4606222431925799</v>
       </c>
       <c r="O102">
-        <v>2.25708778687824</v>
-      </c>
-      <c r="P102">
-        <v>0.8292585227295992</v>
+        <v>2.541823472854918</v>
       </c>
     </row>
     <row r="103">
@@ -12341,31 +11883,28 @@
         <v>6361.65710941761</v>
       </c>
       <c r="H103">
-        <v>106500.4586604732</v>
+        <v>107749.2199401481</v>
       </c>
       <c r="I103">
-        <v>56148.36998859064</v>
+        <v>56806.73250871972</v>
       </c>
       <c r="J103">
         <v>56426.68120879387</v>
       </c>
       <c r="K103">
-        <v>50352.08867188259</v>
+        <v>50942.48743142842</v>
       </c>
       <c r="L103">
         <v>43879.49778578278</v>
       </c>
       <c r="M103">
-        <v>49786.71287917303</v>
+        <v>50445.07539930211</v>
       </c>
       <c r="N103">
         <v>0.472787528853811</v>
       </c>
       <c r="O103">
-        <v>2.721814398058614</v>
-      </c>
-      <c r="P103">
-        <v>1</v>
+        <v>3.070085879955331</v>
       </c>
     </row>
     <row r="104">
@@ -12386,7 +11925,7 @@
         <v>75031.82865691246</v>
       </c>
       <c r="E104">
-        <v>137038.7677675831</v>
+        <v>148325.9033680075</v>
       </c>
       <c r="F104">
         <v>24838.8156354</v>
@@ -12395,31 +11934,28 @@
         <v>8225.2116804</v>
       </c>
       <c r="H104">
-        <v>122285.9122369136</v>
+        <v>133909.8863553648</v>
       </c>
       <c r="I104">
-        <v>66954.30616886202</v>
+        <v>67739.37269442248</v>
       </c>
       <c r="J104">
-        <v>67716.62572081837</v>
+        <v>73294.07471109502</v>
       </c>
       <c r="K104">
-        <v>60426.61857497208</v>
+        <v>66170.51366094234</v>
       </c>
       <c r="L104">
         <v>50193.01302151247</v>
       </c>
       <c r="M104">
-        <v>58729.09448846203</v>
+        <v>59514.16101402248</v>
       </c>
       <c r="N104">
         <v>0.4941421090100967</v>
       </c>
       <c r="O104">
-        <v>3.125240593256658</v>
-      </c>
-      <c r="P104">
-        <v>1.148219583042031</v>
+        <v>3.527800303616019</v>
       </c>
     </row>
     <row r="105">
@@ -12440,7 +11976,7 @@
         <v>137570.0423450079</v>
       </c>
       <c r="E105">
-        <v>212264.3056975908</v>
+        <v>229226.2077541026</v>
       </c>
       <c r="F105">
         <v>36406.33695203321</v>
@@ -12449,31 +11985,28 @@
         <v>11591.42279535214</v>
       </c>
       <c r="H105">
-        <v>189413.0739820121</v>
+        <v>206947.3688211084</v>
       </c>
       <c r="I105">
-        <v>122759.992655229</v>
+        <v>124199.4035972019</v>
       </c>
       <c r="J105">
-        <v>84873.94397038275</v>
+        <v>91656.16540909471</v>
       </c>
       <c r="K105">
-        <v>75736.87236567595</v>
+        <v>82747.96522390646</v>
       </c>
       <c r="L105">
         <v>101163.7053929747</v>
       </c>
       <c r="M105">
-        <v>111168.5698598768</v>
+        <v>112607.9808018498</v>
       </c>
       <c r="N105">
         <v>0.3998502889661589</v>
       </c>
       <c r="O105">
-        <v>4.840798231567833</v>
-      </c>
-      <c r="P105">
-        <v>1.778518856767245</v>
+        <v>5.457306264646987</v>
       </c>
     </row>
     <row r="106">
@@ -12494,7 +12027,7 @@
         <v>152122.5470574318</v>
       </c>
       <c r="E106">
-        <v>222368.6702464836</v>
+        <v>251831.602523447</v>
       </c>
       <c r="F106">
         <v>49158.39415409092</v>
@@ -12503,31 +12036,28 @@
         <v>15755.53551837146</v>
       </c>
       <c r="H106">
-        <v>198429.6570742601</v>
+        <v>227355.7113684694</v>
       </c>
       <c r="I106">
-        <v>135745.853102463</v>
+        <v>137337.5285502769</v>
       </c>
       <c r="J106">
-        <v>88043.63651478694</v>
+        <v>99709.05546601515</v>
       </c>
       <c r="K106">
-        <v>78565.33288540562</v>
+        <v>90018.18281819252</v>
       </c>
       <c r="L106">
         <v>102964.1529033409</v>
       </c>
       <c r="M106">
-        <v>119990.3175840915</v>
+        <v>121581.9930319054</v>
       </c>
       <c r="N106">
         <v>0.3959354364857034</v>
       </c>
       <c r="O106">
-        <v>5.071233536640194</v>
-      </c>
-      <c r="P106">
-        <v>1.863181244194074</v>
+        <v>5.720204458131284</v>
       </c>
     </row>
     <row r="107">
@@ -12548,7 +12078,7 @@
         <v>213682.9927295787</v>
       </c>
       <c r="E107">
-        <v>342402.866422131</v>
+        <v>354686.9063898084</v>
       </c>
       <c r="F107">
         <v>55785.67350555433</v>
@@ -12557,31 +12087,28 @@
         <v>19464.26682756241</v>
       </c>
       <c r="H107">
-        <v>305541.6182957615</v>
+        <v>320214.3539861267</v>
       </c>
       <c r="I107">
-        <v>190679.0328103894</v>
+        <v>192914.822177068</v>
       </c>
       <c r="J107">
-        <v>136120.4581962787</v>
+        <v>141003.9136602297</v>
       </c>
       <c r="K107">
-        <v>121466.4629272606</v>
+        <v>127299.5318090587</v>
       </c>
       <c r="L107">
         <v>157897.3192240244</v>
       </c>
       <c r="M107">
-        <v>171214.765982827</v>
+        <v>173450.5553495055</v>
       </c>
       <c r="N107">
         <v>0.397544739092408</v>
       </c>
       <c r="O107">
-        <v>7.808676003309875</v>
-      </c>
-      <c r="P107">
-        <v>2.868923027550873</v>
+        <v>8.290331913763136</v>
       </c>
     </row>
     <row r="108">
@@ -12602,7 +12129,7 @@
         <v>248728.3635543336</v>
       </c>
       <c r="E108">
-        <v>372224.939898736</v>
+        <v>407149.2998982756</v>
       </c>
       <c r="F108">
         <v>64891.72700178792</v>
@@ -12611,31 +12138,28 @@
         <v>24538.41488058235</v>
       </c>
       <c r="H108">
-        <v>332153.2079888904</v>
+        <v>367577.8487845986</v>
       </c>
       <c r="I108">
-        <v>221951.607796282</v>
+        <v>224554.080849109</v>
       </c>
       <c r="J108">
-        <v>144831.9413150367</v>
+        <v>158420.9363439421</v>
       </c>
       <c r="K108">
-        <v>129240.1147008997</v>
+        <v>143023.7679354897</v>
       </c>
       <c r="L108">
         <v>183836.6365525457</v>
       </c>
       <c r="M108">
-        <v>197413.1929156997</v>
+        <v>200015.6659685266</v>
       </c>
       <c r="N108">
         <v>0.3890978969717566</v>
       </c>
       <c r="O108">
-        <v>8.48878394737894</v>
-      </c>
-      <c r="P108">
-        <v>3.118796033055643</v>
+        <v>9.021596060802512</v>
       </c>
     </row>
     <row r="109">
@@ -12656,7 +12180,7 @@
         <v>465293.0393007714</v>
       </c>
       <c r="E109">
-        <v>962763.5792679742</v>
+        <v>770622.4057795978</v>
       </c>
       <c r="F109">
         <v>88714.51168128941</v>
@@ -12665,31 +12189,28 @@
         <v>36127.37433032937</v>
       </c>
       <c r="H109">
-        <v>859117.6385862853</v>
+        <v>695724.4583558138</v>
       </c>
       <c r="I109">
-        <v>415202.0971531277</v>
+        <v>420070.5109485799</v>
       </c>
       <c r="J109">
-        <v>381457.8858882181</v>
+        <v>305329.3664788263</v>
       </c>
       <c r="K109">
-        <v>340392.1847496334</v>
+        <v>275653.9474072338</v>
       </c>
       <c r="L109">
         <v>376578.527619482</v>
       </c>
       <c r="M109">
-        <v>379074.7228227983</v>
+        <v>383943.1366182506</v>
       </c>
       <c r="N109">
         <v>0.3962113795146416</v>
       </c>
       <c r="O109">
-        <v>21.95632570733829</v>
-      </c>
-      <c r="P109">
-        <v>8.066797546151223</v>
+        <v>23.20302848959576</v>
       </c>
     </row>
     <row r="110">
@@ -12709,20 +12230,32 @@
       <c r="D110">
         <v>685259.8736297675</v>
       </c>
+      <c r="E110">
+        <v>1138662.686143261</v>
+      </c>
       <c r="F110">
         <v>143278.0112145623</v>
       </c>
       <c r="G110">
         <v>59451.14497418605</v>
       </c>
+      <c r="H110">
+        <v>1027994.351871425</v>
+      </c>
       <c r="I110">
-        <v>611488.4870264488</v>
+        <v>618658.4387352954</v>
+      </c>
+      <c r="J110">
+        <v>453402.8125134932</v>
+      </c>
+      <c r="K110">
+        <v>409335.9131361296</v>
       </c>
       <c r="L110">
         <v>541981.8624152051</v>
       </c>
       <c r="M110">
-        <v>552037.3420522627</v>
+        <v>559207.2937611094</v>
       </c>
       <c r="N110">
         <v>0.3981888736946355</v>
@@ -12745,8 +12278,32 @@
       <c r="D111">
         <v>631710.7073079012</v>
       </c>
+      <c r="E111">
+        <v>1056867.820068603</v>
+      </c>
+      <c r="F111">
+        <v>107174.7558206607</v>
+      </c>
+      <c r="G111">
+        <v>42716.27350826657</v>
+      </c>
+      <c r="H111">
+        <v>954149.2515093248</v>
+      </c>
       <c r="I111">
-        <v>563704.1354895063</v>
+        <v>570313.7962031382</v>
+      </c>
+      <c r="J111">
+        <v>425157.1127607017</v>
+      </c>
+      <c r="K111">
+        <v>383835.4553061866</v>
+      </c>
+      <c r="L111">
+        <v>524535.9514872405</v>
+      </c>
+      <c r="M111">
+        <v>524535.9514872405</v>
       </c>
       <c r="N111">
         <v>0.4022803085565649</v>
@@ -12833,7 +12390,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>precio_expo_gas_comtrade</t>
+          <t>precio_exportacion_gas_ar</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -14431,7 +13988,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>24467322</v>
+        <v>24464806.08</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -14517,7 +14074,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>28499083.8</v>
+        <v>28501599.72</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -14560,7 +14117,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>29574639.6</v>
+        <v>29572123.68</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -14603,7 +14160,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>30505530</v>
+        <v>30504272.04</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -14646,7 +14203,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>31015003.8</v>
+        <v>31011858.9</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -14689,7 +14246,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>33952340.4</v>
+        <v>33951711.41999999</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -14732,7 +14289,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>35656876.2</v>
+        <v>35656247.22</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -14775,7 +14332,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>44575812.59999999</v>
+        <v>44578328.52</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -14818,7 +14375,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>63860339.4</v>
+        <v>63859811.05679999</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -14861,7 +14418,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>84459434.39999999</v>
+        <v>84461610.6708</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -14904,7 +14461,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>98208937.19999999</v>
+        <v>98205911.8062</v>
       </c>
       <c r="D53">
         <v>1600164.59776432</v>
@@ -14953,7 +14510,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>97139671.19999999</v>
+        <v>97140620.95979999</v>
       </c>
       <c r="D54">
         <v>640739.0198585599</v>
@@ -15001,10 +14558,10 @@
         <v>1.39e-011</v>
       </c>
       <c r="U54">
-        <v>3.917944184840152e-010</v>
+        <v>4.294195298040208e-010</v>
       </c>
       <c r="V54">
-        <v>1.579871472610104e-010</v>
+        <v>1.711522638371494e-010</v>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
@@ -15022,7 +14579,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>100278281.4</v>
+        <v>100275727.7412</v>
       </c>
       <c r="D55">
         <v>101996.187941</v>
@@ -15073,13 +14630,13 @@
         <v>1.41e-011</v>
       </c>
       <c r="U55">
-        <v>2.860105033934616e-010</v>
+        <v>3.134658541284864e-010</v>
       </c>
       <c r="V55">
-        <v>1.15330850532936e-010</v>
+        <v>1.249370064613064e-010</v>
       </c>
       <c r="X55">
-        <v>3.556430118509356e-009</v>
+        <v>3.556349796281209e-009</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
@@ -15097,7 +14654,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>99536085</v>
+        <v>98276326.11719999</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -15148,13 +14705,13 @@
         <v>1.68e-011</v>
       </c>
       <c r="U56">
-        <v>4.840641396877398e-010</v>
+        <v>5.238316938068898e-010</v>
       </c>
       <c r="V56">
-        <v>1.951939816205967e-010</v>
+        <v>2.087817950562578e-010</v>
       </c>
       <c r="X56">
-        <v>6.174960698692978e-009</v>
+        <v>6.101645389253965e-009</v>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
@@ -15172,7 +14729,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>104756619</v>
+        <v>104759675.8428</v>
       </c>
       <c r="D57">
         <v>19421.3608275</v>
@@ -15223,13 +14780,13 @@
         <v>2.07e-011</v>
       </c>
       <c r="U57">
-        <v>8.856481167658175e-010</v>
+        <v>9.70718229363162e-010</v>
       </c>
       <c r="V57">
-        <v>3.571286696383256e-010</v>
+        <v>3.868958232507914e-010</v>
       </c>
       <c r="X57">
-        <v>1.459017727465349e-008</v>
+        <v>1.459059701249945e-008</v>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
@@ -15247,7 +14804,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>114675633.6</v>
+        <v>114673312.6638</v>
       </c>
       <c r="D58">
         <v>58111.59861867</v>
@@ -15298,13 +14855,13 @@
         <v>3.31e-011</v>
       </c>
       <c r="U58">
-        <v>1.058134715771053e-009</v>
+        <v>1.159715570983642e-009</v>
       </c>
       <c r="V58">
-        <v>4.266821508314293e-010</v>
+        <v>4.622238431298848e-010</v>
       </c>
       <c r="X58">
-        <v>6.982360257073593e-009</v>
+        <v>6.982224903171375e-009</v>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
@@ -15322,7 +14879,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>125500379.4</v>
+        <v>125488170.8982</v>
       </c>
       <c r="D59">
         <v>1182294.78060432</v>
@@ -15370,10 +14927,10 @@
         <v>3.5e-011</v>
       </c>
       <c r="U59">
-        <v>1.44643579467446e-009</v>
+        <v>1.585170625671023e-009</v>
       </c>
       <c r="V59">
-        <v>5.832606441435403e-010</v>
+        <v>6.317959997663937e-010</v>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
@@ -15391,7 +14948,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>126846396.6</v>
+        <v>130081536.3606</v>
       </c>
       <c r="D60">
         <v>381429.802925</v>
@@ -15439,10 +14996,10 @@
         <v>3.5e-011</v>
       </c>
       <c r="U60">
-        <v>1.468424657836657e-009</v>
+        <v>1.650492871600285e-009</v>
       </c>
       <c r="V60">
-        <v>5.921274314141454e-010</v>
+        <v>6.578312624728258e-010</v>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
@@ -15460,7 +15017,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>143420019.6</v>
+        <v>143397621.6222</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -15508,10 +15065,10 @@
         <v>3.77e-011</v>
       </c>
       <c r="U61">
-        <v>1.78243555901438e-009</v>
+        <v>1.953305993242064e-009</v>
       </c>
       <c r="V61">
-        <v>7.187491599162616e-010</v>
+        <v>7.785224460159627e-010</v>
       </c>
       <c r="AE61" t="inlineStr">
         <is>
@@ -15529,7 +15086,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>154458618.6</v>
+        <v>154510553.4786</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -15577,10 +15134,10 @@
         <v>4.59e-011</v>
       </c>
       <c r="U62">
-        <v>1.968797170974536e-009</v>
+        <v>2.158504125677133e-009</v>
       </c>
       <c r="V62">
-        <v>7.938976001275142e-010</v>
+        <v>8.603075593233276e-010</v>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
@@ -15598,7 +15155,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>158471511</v>
+        <v>158461780.6794</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -15649,13 +15206,13 @@
         <v>8e-011</v>
       </c>
       <c r="U63">
-        <v>2.673709583192473e-009</v>
+        <v>2.93027849154626e-009</v>
       </c>
       <c r="V63">
-        <v>1.0781464199706e-009</v>
+        <v>1.167911011710007e-009</v>
       </c>
       <c r="X63">
-        <v>4.255306628371884e-008</v>
+        <v>4.255045368694049e-008</v>
       </c>
       <c r="AE63" t="inlineStr">
         <is>
@@ -15673,7 +15230,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>153722712</v>
+        <v>153728574.0936</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -15718,7 +15275,7 @@
         <v>8.68e-011</v>
       </c>
       <c r="X64">
-        <v>1.204318077354599e-007</v>
+        <v>1.204349753294321e-007</v>
       </c>
       <c r="AE64" t="inlineStr">
         <is>
@@ -15736,7 +15293,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>151093575.6</v>
+        <v>151095236.1072</v>
       </c>
       <c r="D65">
         <v>220506.44815168</v>
@@ -15787,13 +15344,13 @@
         <v>8.68e-011</v>
       </c>
       <c r="U65">
-        <v>1.164196081281909e-008</v>
+        <v>1.27599828008429e-008</v>
       </c>
       <c r="V65">
-        <v>4.69450326642875e-009</v>
+        <v>5.085702422253697e-009</v>
       </c>
       <c r="X65">
-        <v>3.029497926353049e-007</v>
+        <v>3.029529848701026e-007</v>
       </c>
       <c r="AE65" t="inlineStr">
         <is>
@@ -15811,7 +15368,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>144464126.4</v>
+        <v>144465535.3152</v>
       </c>
       <c r="D66">
         <v>90446.18467875999</v>
@@ -15862,13 +15419,13 @@
         <v>2.57e-010</v>
       </c>
       <c r="U66">
-        <v>2.046711549380085e-008</v>
+        <v>2.243262474940733e-008</v>
       </c>
       <c r="V66">
-        <v>8.253157873047003e-009</v>
+        <v>8.940894028323676e-009</v>
       </c>
       <c r="X66">
-        <v>8.117618613037612e-007</v>
+        <v>8.11769199463471e-007</v>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
@@ -15886,7 +15443,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>145590000.6</v>
+        <v>145592912.7774</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -15937,13 +15494,13 @@
         <v>1.83e-009</v>
       </c>
       <c r="U67">
-        <v>1.538664505888043e-007</v>
+        <v>1.686443004239358e-007</v>
       </c>
       <c r="V67">
-        <v>6.204509416382661e-008</v>
+        <v>6.721597830904866e-008</v>
       </c>
       <c r="X67">
-        <v>4.245278300399867e-006</v>
+        <v>4.245354665116893e-006</v>
       </c>
       <c r="AE67" t="inlineStr">
         <is>
@@ -15961,7 +15518,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>157540620.6</v>
+        <v>157542721.3932</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -16012,13 +15569,13 @@
         <v>4.05e-009</v>
       </c>
       <c r="U68">
-        <v>4.136679666870817e-007</v>
+        <v>4.533944634439539e-007</v>
       </c>
       <c r="V68">
-        <v>1.668074349375171e-007</v>
+        <v>1.807078706110022e-007</v>
       </c>
       <c r="X68">
-        <v>1.219815144953583e-005</v>
+        <v>1.219829718996223e-005</v>
       </c>
       <c r="AE68" t="inlineStr">
         <is>
@@ -16036,7 +15593,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>165138699</v>
+        <v>165137944.224</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -16087,13 +15644,13 @@
         <v>7.9e-009</v>
       </c>
       <c r="U69">
-        <v>1.478985320293577e-006</v>
+        <v>1.620994446586027e-006</v>
       </c>
       <c r="V69">
-        <v>5.963859120255108e-007</v>
+        <v>6.460741767549851e-007</v>
       </c>
       <c r="X69">
-        <v>3.51576826122033e-005</v>
+        <v>3.515754017968907e-005</v>
       </c>
       <c r="AE69" t="inlineStr">
         <is>
@@ -16111,7 +15668,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>172554373.2</v>
+        <v>172553838.567</v>
       </c>
       <c r="D70">
         <v>1.20135371</v>
@@ -16162,13 +15719,13 @@
         <v>1.31e-008</v>
       </c>
       <c r="U70">
-        <v>3.137198835424193e-006</v>
+        <v>3.438430560753937e-006</v>
       </c>
       <c r="V70">
-        <v>1.26504378576147e-006</v>
+        <v>1.370443432762487e-006</v>
       </c>
       <c r="X70">
-        <v>0.0001485813375740899</v>
+        <v>0.0001485809101650555</v>
       </c>
       <c r="AE70" t="inlineStr">
         <is>
@@ -16186,7 +15743,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>179674426.8</v>
+        <v>179675709.9192</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -16231,7 +15788,7 @@
         <v>1.83e-008</v>
       </c>
       <c r="X71">
-        <v>0.000313462011625664</v>
+        <v>0.0003134640100009773</v>
       </c>
       <c r="AE71" t="inlineStr">
         <is>
@@ -16249,7 +15806,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>181473309.6</v>
+        <v>181475630.5362</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -16294,7 +15851,7 @@
         <v>4.41e-008</v>
       </c>
       <c r="X72">
-        <v>0.000623240639969221</v>
+        <v>0.0006232474355314905</v>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
@@ -16312,7 +15869,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>179070606</v>
+        <v>179071260.1392</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -16357,7 +15914,7 @@
         <v>2.16e-007</v>
       </c>
       <c r="X73">
-        <v>0.001473378775355022</v>
+        <v>0.001473383078571979</v>
       </c>
       <c r="AE73" t="inlineStr">
         <is>
@@ -16375,7 +15932,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>179095765.2</v>
+        <v>179096469.6576</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -16420,7 +15977,7 @@
         <v>1.053e-006</v>
       </c>
       <c r="X74">
-        <v>0.006096213463127863</v>
+        <v>0.006096231759367143</v>
       </c>
       <c r="AE74" t="inlineStr">
         <is>
@@ -16438,7 +15995,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>175095452.4</v>
+        <v>175096653.7518</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -16489,13 +16046,13 @@
         <v>6.77e-006</v>
       </c>
       <c r="U75">
-        <v>0.001837347773031658</v>
+        <v>0.002013784585738278</v>
       </c>
       <c r="V75">
-        <v>0.0007408919563245006</v>
+        <v>0.0008026271904465092</v>
       </c>
       <c r="X75">
-        <v>0.04436100329470911</v>
+        <v>0.04436122854112096</v>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
@@ -16513,7 +16070,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>167780415</v>
+        <v>167780798.6778</v>
       </c>
       <c r="D76">
         <v>2557822.1855568</v>
@@ -16564,13 +16121,13 @@
         <v>6e-005</v>
       </c>
       <c r="U76">
-        <v>0.01701037625984822</v>
+        <v>0.01864378149636523</v>
       </c>
       <c r="V76">
-        <v>0.00685926264475225</v>
+        <v>0.007430787814993754</v>
       </c>
       <c r="X76">
-        <v>0.3384821122498967</v>
+        <v>0.338482667629745</v>
       </c>
       <c r="AE76" t="inlineStr">
         <is>
@@ -16588,7 +16145,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>158370874.2</v>
+        <v>158370534.5508</v>
       </c>
       <c r="D77">
         <v>828555.61461192</v>
@@ -16639,13 +16196,13 @@
         <v>9.42e-005</v>
       </c>
       <c r="U77">
-        <v>0.02765251819951178</v>
+        <v>0.03030771975620718</v>
       </c>
       <c r="V77">
-        <v>0.01115059903565798</v>
+        <v>0.01207964353736803</v>
       </c>
       <c r="X77">
-        <v>0.4636543608015857</v>
+        <v>0.4636536704318414</v>
       </c>
       <c r="AE77" t="inlineStr">
         <is>
@@ -16663,7 +16220,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>156345558.6</v>
+        <v>156346426.5924</v>
       </c>
       <c r="D78">
         <v>523314.55696856</v>
@@ -16714,13 +16271,13 @@
         <v>0.000214</v>
       </c>
       <c r="U78">
-        <v>0.05116203582666973</v>
+        <v>0.05607496850255284</v>
       </c>
       <c r="V78">
-        <v>0.02063057488056313</v>
+        <v>0.02234960717363932</v>
       </c>
       <c r="X78">
-        <v>0.9038279987678225</v>
+        <v>0.9038315753660692</v>
       </c>
       <c r="AE78" t="inlineStr">
         <is>
@@ -16738,7 +16295,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>164308445.4</v>
+        <v>164306432.664</v>
       </c>
       <c r="D79">
         <v>1264149.1603008</v>
@@ -16789,13 +16346,13 @@
         <v>0.000871</v>
       </c>
       <c r="U79">
-        <v>0.3059180134699893</v>
+        <v>0.3352899255624758</v>
       </c>
       <c r="V79">
-        <v>0.1233583531661537</v>
+        <v>0.1336353514894788</v>
       </c>
       <c r="X79">
-        <v>3.396079155070159</v>
+        <v>3.396052078096961</v>
       </c>
       <c r="AE79" t="inlineStr">
         <is>
@@ -16813,7 +16370,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>168019427.4</v>
+        <v>168021213.7032</v>
       </c>
       <c r="D80">
         <v>1987128.1000496</v>
@@ -16864,13 +16421,13 @@
         <v>0.0394</v>
       </c>
       <c r="U80">
-        <v>2.015049048037643</v>
+        <v>2.208559465442972</v>
       </c>
       <c r="V80">
-        <v>0.8125482030149706</v>
+        <v>0.8802579437922662</v>
       </c>
       <c r="X80">
-        <v>126.4732029371874</v>
+        <v>126.4741339301008</v>
       </c>
       <c r="AE80" t="inlineStr">
         <is>
@@ -16888,7 +16445,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>176139559.2</v>
+        <v>176139785.6328</v>
       </c>
       <c r="D81">
         <v>6529986.54580544</v>
@@ -16939,13 +16496,13 @@
         <v>0.449</v>
       </c>
       <c r="U81">
-        <v>142.5299537484962</v>
+        <v>156.2161757443584</v>
       </c>
       <c r="V81">
-        <v>57.47376616312716</v>
+        <v>62.26254343585885</v>
       </c>
       <c r="X81">
-        <v>3895.19460622893</v>
+        <v>3895.198372899919</v>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
@@ -16963,7 +16520,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>180020365.8</v>
+        <v>180017346.696</v>
       </c>
       <c r="D82">
         <v>5543827.82874338</v>
@@ -17014,13 +16571,13 @@
         <v>0.95</v>
       </c>
       <c r="U82">
-        <v>340.1496235934603</v>
+        <v>372.805427284581</v>
       </c>
       <c r="V82">
-        <v>137.1619046574799</v>
+        <v>148.5877758742177</v>
       </c>
       <c r="X82">
-        <v>10690.36373285621</v>
+        <v>10690.22622714689</v>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
@@ -17038,7 +16595,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>202820890.8</v>
+        <v>202821544.9392</v>
       </c>
       <c r="D83">
         <v>16964341.7535642</v>
@@ -17089,13 +16646,13 @@
         <v>0.99</v>
       </c>
       <c r="U83">
-        <v>347.453475038947</v>
+        <v>380.8178524214677</v>
       </c>
       <c r="V83">
-        <v>140.1071090796244</v>
+        <v>151.7812605804902</v>
       </c>
       <c r="X83">
-        <v>9562.673392779543</v>
+        <v>9562.699261143765</v>
       </c>
       <c r="AE83" t="inlineStr">
         <is>
@@ -17113,7 +16670,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>216709977.407682</v>
+        <v>216666596.091</v>
       </c>
       <c r="D84">
         <v>28450838.2634701</v>
@@ -17163,14 +16720,26 @@
       <c r="Q84">
         <v>0.99</v>
       </c>
+      <c r="S84">
+        <v>3352.410453463208</v>
+      </c>
+      <c r="T84">
+        <v>3026.584653430287</v>
+      </c>
       <c r="U84">
-        <v>499.9502449920075</v>
+        <v>547.8718823197912</v>
       </c>
       <c r="V84">
-        <v>201.5998933429243</v>
+        <v>218.3634102402079</v>
       </c>
       <c r="X84">
-        <v>8118.352041598691</v>
+        <v>8116.969581128286</v>
+      </c>
+      <c r="Y84">
+        <v>5090.384927697999</v>
+      </c>
+      <c r="Z84">
+        <v>4872.021517457792</v>
       </c>
       <c r="AE84" t="inlineStr">
         <is>
@@ -17188,7 +16757,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>243705394.8377136</v>
+        <v>243619496.0958</v>
       </c>
       <c r="D85">
         <v>39566652.3671298</v>
@@ -17238,14 +16807,26 @@
       <c r="Q85">
         <v>1</v>
       </c>
+      <c r="S85">
+        <v>3582.384336447711</v>
+      </c>
+      <c r="T85">
+        <v>3234.207029804764</v>
+      </c>
       <c r="U85">
-        <v>537.0635931800226</v>
+        <v>588.475639545377</v>
       </c>
       <c r="V85">
-        <v>216.5654766409628</v>
+        <v>234.5467099905117</v>
       </c>
       <c r="X85">
-        <v>7981.857284640711</v>
+        <v>7979.465935953881</v>
+      </c>
+      <c r="Y85">
+        <v>4745.258906149116</v>
+      </c>
+      <c r="Z85">
+        <v>4510.712196158605</v>
       </c>
       <c r="AE85" t="inlineStr">
         <is>
@@ -17263,7 +16844,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>262532039.2366254</v>
+        <v>262532037.834</v>
       </c>
       <c r="D86">
         <v>72848661.85889886</v>
@@ -17313,14 +16894,26 @@
       <c r="Q86">
         <v>0.99</v>
       </c>
+      <c r="S86">
+        <v>4202.446712012389</v>
+      </c>
+      <c r="T86">
+        <v>3794.004613097373</v>
+      </c>
       <c r="U86">
-        <v>631.1042106528228</v>
+        <v>691.7041610529842</v>
       </c>
       <c r="V86">
-        <v>254.4864070581933</v>
+        <v>275.6901464724344</v>
       </c>
       <c r="X86">
-        <v>9841.893191238725</v>
+        <v>9841.893146505825</v>
+      </c>
+      <c r="Y86">
+        <v>6047.888533408452</v>
+      </c>
+      <c r="Z86">
+        <v>5772.198386936017</v>
       </c>
       <c r="AE86" t="inlineStr">
         <is>
@@ -17338,7 +16931,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>286623718.1403618</v>
+        <v>286623720.3984</v>
       </c>
       <c r="D87">
         <v>118623835.5705348</v>
@@ -17388,14 +16981,26 @@
       <c r="Q87">
         <v>1</v>
       </c>
+      <c r="S87">
+        <v>5551.678415304941</v>
+      </c>
+      <c r="T87">
+        <v>5012.102463522676</v>
+      </c>
       <c r="U87">
-        <v>843.3230529218535</v>
+        <v>924.3007113607432</v>
       </c>
       <c r="V87">
-        <v>340.0615145721009</v>
+        <v>368.3953528799135</v>
       </c>
       <c r="X87">
-        <v>12039.80040235467</v>
+        <v>12039.80048475277</v>
+      </c>
+      <c r="Y87">
+        <v>7027.698021230096</v>
+      </c>
+      <c r="Z87">
+        <v>6659.302668350182</v>
       </c>
       <c r="AE87" t="inlineStr">
         <is>
@@ -17413,7 +17018,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>304444926.5869968</v>
+        <v>304444925.2284</v>
       </c>
       <c r="D88">
         <v>122350382.8253784</v>
@@ -17463,17 +17068,32 @@
       <c r="Q88">
         <v>1</v>
       </c>
+      <c r="S88">
+        <v>5475.347220301035</v>
+      </c>
+      <c r="T88">
+        <v>4943.190011845358</v>
+      </c>
       <c r="U88">
-        <v>846.1213900968774</v>
+        <v>927.3677417389605</v>
       </c>
       <c r="V88">
-        <v>341.189915811371</v>
+        <v>369.6177686203638</v>
       </c>
       <c r="W88">
         <v>140.3441734589189</v>
       </c>
       <c r="X88">
-        <v>11331.0368125968</v>
+        <v>11331.03676902936</v>
+      </c>
+      <c r="Y88">
+        <v>6387.846757184001</v>
+      </c>
+      <c r="Z88">
+        <v>6018.228988563637</v>
+      </c>
+      <c r="AA88">
+        <v>5601.786156676581</v>
       </c>
       <c r="AE88" t="inlineStr">
         <is>
@@ -17491,7 +17111,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>309128920.3372326</v>
+        <v>309128920.419</v>
       </c>
       <c r="D89">
         <v>120668555.2790124</v>
@@ -17541,17 +17161,32 @@
       <c r="Q89">
         <v>1</v>
       </c>
+      <c r="S89">
+        <v>3651.962569261199</v>
+      </c>
+      <c r="T89">
+        <v>3297.022849815277</v>
+      </c>
       <c r="U89">
-        <v>631.3008913920736</v>
+        <v>691.9197304477913</v>
       </c>
       <c r="V89">
-        <v>254.5657165823965</v>
+        <v>275.7760652240852</v>
       </c>
       <c r="W89">
         <v>1152.292740357098</v>
       </c>
       <c r="X89">
-        <v>7633.973152312845</v>
+        <v>7633.973153980052</v>
+      </c>
+      <c r="Y89">
+        <v>4336.950304164775</v>
+      </c>
+      <c r="Z89">
+        <v>4061.17423894069</v>
+      </c>
+      <c r="AA89">
+        <v>2722.86765102012</v>
       </c>
       <c r="AE89" t="inlineStr">
         <is>
@@ -17569,7 +17204,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>298550679.4023428</v>
+        <v>280944389.517</v>
       </c>
       <c r="D90">
         <v>89549617.0844461</v>
@@ -17605,7 +17240,7 @@
         <v>0.4709401388975893</v>
       </c>
       <c r="N90">
-        <v>1.738458045906026</v>
+        <v>1.162095453656468</v>
       </c>
       <c r="O90">
         <v>1.202856468366384</v>
@@ -17616,17 +17251,32 @@
       <c r="Q90">
         <v>1</v>
       </c>
+      <c r="S90">
+        <v>4999.367294208941</v>
+      </c>
+      <c r="T90">
+        <v>4513.471288661265</v>
+      </c>
       <c r="U90">
-        <v>790.0784253642592</v>
+        <v>827.4507947630284</v>
       </c>
       <c r="V90">
-        <v>318.5911555829452</v>
+        <v>329.7942150003601</v>
       </c>
       <c r="W90">
         <v>1131.575850671096</v>
       </c>
       <c r="X90">
-        <v>10040.1857609733</v>
+        <v>9520.795104819681</v>
+      </c>
+      <c r="Y90">
+        <v>5007.323816158416</v>
+      </c>
+      <c r="Z90">
+        <v>4677.529601158056</v>
+      </c>
+      <c r="AA90">
+        <v>3313.964497500441</v>
       </c>
       <c r="AE90" t="inlineStr">
         <is>
@@ -17644,7 +17294,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>283677273.7401372</v>
+        <v>272277680.3868</v>
       </c>
       <c r="D91">
         <v>5608444.835399999</v>
@@ -17680,7 +17330,7 @@
         <v>1.077351123374992</v>
       </c>
       <c r="N91">
-        <v>2.459631318753218</v>
+        <v>1.252036969292027</v>
       </c>
       <c r="O91">
         <v>1.26895656279509</v>
@@ -17691,17 +17341,32 @@
       <c r="Q91">
         <v>1</v>
       </c>
+      <c r="S91">
+        <v>7962.5774110974</v>
+      </c>
+      <c r="T91">
+        <v>7188.682569964592</v>
+      </c>
       <c r="U91">
-        <v>1174.18599691036</v>
+        <v>1245.6733294895</v>
       </c>
       <c r="V91">
-        <v>473.4786593527283</v>
+        <v>496.48373105198</v>
       </c>
       <c r="W91">
         <v>2193.249209578293</v>
       </c>
       <c r="X91">
-        <v>16984.72834368756</v>
+        <v>16423.8617765052</v>
+      </c>
+      <c r="Y91">
+        <v>9235.179206540604</v>
+      </c>
+      <c r="Z91">
+        <v>8738.695475488625</v>
+      </c>
+      <c r="AA91">
+        <v>6145.252859504971</v>
       </c>
       <c r="AE91" t="inlineStr">
         <is>
@@ -17719,7 +17384,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>296445681.717603</v>
+        <v>280631962.5714</v>
       </c>
       <c r="D92">
         <v>104949187.5168</v>
@@ -17758,7 +17423,7 @@
         <v>0.5872543377789462</v>
       </c>
       <c r="N92">
-        <v>2.626107390538015</v>
+        <v>1.480763595628035</v>
       </c>
       <c r="O92">
         <v>1.340651558073655</v>
@@ -17769,17 +17434,32 @@
       <c r="Q92">
         <v>1</v>
       </c>
+      <c r="S92">
+        <v>6606.531135576198</v>
+      </c>
+      <c r="T92">
+        <v>5964.432465806273</v>
+      </c>
       <c r="U92">
-        <v>1098.656186806657</v>
+        <v>1125.819995871351</v>
       </c>
       <c r="V92">
-        <v>443.0220252903503</v>
+        <v>448.7142004334328</v>
       </c>
       <c r="W92">
         <v>2450.768900537212</v>
       </c>
       <c r="X92">
-        <v>14232.00911841002</v>
+        <v>13568.28825101198</v>
+      </c>
+      <c r="Y92">
+        <v>7603.855785205708</v>
+      </c>
+      <c r="Z92">
+        <v>7155.141584772276</v>
+      </c>
+      <c r="AA92">
+        <v>4373.759849802299</v>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
@@ -17797,7 +17477,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>292462821.4080672</v>
+        <v>276503268.6636</v>
       </c>
       <c r="D93">
         <v>97245641.75039999</v>
@@ -17836,7 +17516,7 @@
         <v>0.5139882014849745</v>
       </c>
       <c r="N93">
-        <v>2.504475959583499</v>
+        <v>1.304790888533957</v>
       </c>
       <c r="O93">
         <v>0.4929689708473924</v>
@@ -17847,17 +17527,32 @@
       <c r="Q93">
         <v>3.14</v>
       </c>
+      <c r="S93">
+        <v>10522.4814839843</v>
+      </c>
+      <c r="T93">
+        <v>9499.785726575188</v>
+      </c>
       <c r="U93">
-        <v>2758.978193647949</v>
+        <v>2797.094093539958</v>
       </c>
       <c r="V93">
-        <v>1112.530127040487</v>
+        <v>1114.828164646741</v>
       </c>
       <c r="W93">
         <v>3927.818961227893</v>
       </c>
       <c r="X93">
-        <v>19084.40034787444</v>
+        <v>18151.11485205031</v>
+      </c>
+      <c r="Y93">
+        <v>8651.32912547512</v>
+      </c>
+      <c r="Z93">
+        <v>7536.500960828379</v>
+      </c>
+      <c r="AA93">
+        <v>3166.401336164298</v>
       </c>
       <c r="AE93" t="inlineStr">
         <is>
@@ -17875,7 +17570,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>285926125.4073411</v>
+        <v>270191278.2492</v>
       </c>
       <c r="D94">
         <v>83878726.09908</v>
@@ -17914,7 +17609,7 @@
         <v>0.5281088208812833</v>
       </c>
       <c r="N94">
-        <v>3.070518024153881</v>
+        <v>1.39207231120329</v>
       </c>
       <c r="O94">
         <v>0.5422560403755233</v>
@@ -17925,17 +17620,32 @@
       <c r="Q94">
         <v>2.93</v>
       </c>
+      <c r="S94">
+        <v>12705.23362875543</v>
+      </c>
+      <c r="T94">
+        <v>11470.39291662906</v>
+      </c>
       <c r="U94">
-        <v>3086.539407207176</v>
+        <v>3095.000823401328</v>
       </c>
       <c r="V94">
-        <v>1244.615882329745</v>
+        <v>1233.563824506844</v>
       </c>
       <c r="W94">
         <v>3710.739805031019</v>
       </c>
       <c r="X94">
-        <v>23788.33409636621</v>
+        <v>22609.30696040076</v>
+      </c>
+      <c r="Y94">
+        <v>11138.9140437717</v>
+      </c>
+      <c r="Z94">
+        <v>9905.350219264852</v>
+      </c>
+      <c r="AA94">
+        <v>5643.698838620672</v>
       </c>
       <c r="AE94" t="inlineStr">
         <is>
@@ -17953,7 +17663,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>268899195.5961115</v>
+        <v>254315156.3304</v>
       </c>
       <c r="D95">
         <v>64388883.8736</v>
@@ -17992,7 +17702,7 @@
         <v>0.9666422960957281</v>
       </c>
       <c r="N95">
-        <v>3.415359409501558</v>
+        <v>1.552128439011633</v>
       </c>
       <c r="O95">
         <v>0.7725186682007303</v>
@@ -18012,7 +17722,7 @@
         <v>13346.36239762477</v>
       </c>
       <c r="T95">
-        <v>11909.56491673926</v>
+        <v>12049.20941886494</v>
       </c>
       <c r="U95">
         <v>1713.839257256747</v>
@@ -18024,16 +17734,16 @@
         <v>3909.674833067294</v>
       </c>
       <c r="X95">
-        <v>29632.56058355719</v>
+        <v>28274.21386897995</v>
       </c>
       <c r="Y95">
-        <v>17722.99566681793</v>
+        <v>16225.00445011501</v>
       </c>
       <c r="Z95">
-        <v>16970.47887753495</v>
+        <v>15472.48766083203</v>
       </c>
       <c r="AA95">
-        <v>12338.75976999554</v>
+        <v>10873.86682251721</v>
       </c>
       <c r="AE95" t="inlineStr">
         <is>
@@ -18051,7 +17761,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>257469922.2817313</v>
+        <v>242613090.357</v>
       </c>
       <c r="D96">
         <v>54636926.3616</v>
@@ -18090,7 +17800,7 @@
         <v>1.460267304091145</v>
       </c>
       <c r="N96">
-        <v>4.341844173370141</v>
+        <v>1.80499070801215</v>
       </c>
       <c r="O96">
         <v>1.043703097186865</v>
@@ -18110,7 +17820,7 @@
         <v>14765.02265958411</v>
       </c>
       <c r="T96">
-        <v>13175.49985700509</v>
+        <v>13329.98796220887</v>
       </c>
       <c r="U96">
         <v>2402.183427708314</v>
@@ -18122,16 +17832,16 @@
         <v>4561.970945620762</v>
       </c>
       <c r="X96">
-        <v>43749.2350569521</v>
+        <v>41668.80358149848</v>
       </c>
       <c r="Y96">
-        <v>30573.73519994702</v>
+        <v>28338.81561928961</v>
       </c>
       <c r="Z96">
-        <v>29594.09142197275</v>
+        <v>27359.17184131534</v>
       </c>
       <c r="AA96">
-        <v>23966.10106853424</v>
+        <v>21781.87449603073</v>
       </c>
       <c r="AE96" t="inlineStr">
         <is>
@@ -18149,7 +17859,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>254181417.6250523</v>
+        <v>241190771.5932</v>
       </c>
       <c r="D97">
         <v>31949152.3164</v>
@@ -18188,7 +17898,7 @@
         <v>2.40590503571002</v>
       </c>
       <c r="N97">
-        <v>5.019218946607819</v>
+        <v>2.388092855380338</v>
       </c>
       <c r="O97">
         <v>1.288920009735108</v>
@@ -18208,7 +17918,7 @@
         <v>20655.76321874334</v>
       </c>
       <c r="T97">
-        <v>18432.07502009682</v>
+        <v>18648.19861128753</v>
       </c>
       <c r="U97">
         <v>3281.07803568129</v>
@@ -18220,16 +17930,16 @@
         <v>5060.15432154359</v>
       </c>
       <c r="X97">
-        <v>59731.65082586783</v>
+        <v>57372.53664649131</v>
       </c>
       <c r="Y97">
-        <v>41299.57580577101</v>
+        <v>38724.33803520378</v>
       </c>
       <c r="Z97">
-        <v>40015.31872159757</v>
+        <v>37440.08095103034</v>
       </c>
       <c r="AA97">
-        <v>33499.70811702465</v>
+        <v>30981.95390010584</v>
       </c>
       <c r="AE97" t="inlineStr">
         <is>
@@ -18247,7 +17957,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>247773030.6396965</v>
+        <v>238412145.5166</v>
       </c>
       <c r="D98">
         <v>20763719.82234</v>
@@ -18286,7 +17996,7 @@
         <v>3.030781768098272</v>
       </c>
       <c r="N98">
-        <v>7.568725879488357</v>
+        <v>4.497059288764902</v>
       </c>
       <c r="O98">
         <v>1.499304840234349</v>
@@ -18306,7 +18016,7 @@
         <v>24770.86379173943</v>
       </c>
       <c r="T98">
-        <v>22104.16603283074</v>
+        <v>22363.34638762436</v>
       </c>
       <c r="U98">
         <v>4595.498605305907</v>
@@ -18318,16 +18028,16 @@
         <v>5284.848568071481</v>
       </c>
       <c r="X98">
-        <v>72134.23853070798</v>
+        <v>70116.21858862373</v>
       </c>
       <c r="Y98">
-        <v>50030.07249787724</v>
+        <v>47752.87220099937</v>
       </c>
       <c r="Z98">
-        <v>48260.20107021421</v>
+        <v>45983.00077333635</v>
       </c>
       <c r="AA98">
-        <v>41217.6875248743</v>
+        <v>38989.65948028438</v>
       </c>
       <c r="AE98" t="inlineStr">
         <is>
@@ -18345,7 +18055,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>242036137.7849751</v>
+        <v>236452111.7508</v>
       </c>
       <c r="D99">
         <v>20686397.4114204</v>
@@ -18384,7 +18094,7 @@
         <v>8.991015162190822</v>
       </c>
       <c r="N99">
-        <v>13.67904582641926</v>
+        <v>12.94147669805176</v>
       </c>
       <c r="O99">
         <v>1.743880514041419</v>
@@ -18401,10 +18111,10 @@
         </is>
       </c>
       <c r="S99">
-        <v>29549.65160836547</v>
+        <v>29549.65160836548</v>
       </c>
       <c r="T99">
-        <v>26368.49529572856</v>
+        <v>26677.67664896171</v>
       </c>
       <c r="U99">
         <v>6940.769281061585</v>
@@ -18416,16 +18126,16 @@
         <v>5925.929530057659</v>
       </c>
       <c r="X99">
-        <v>142261.1549017193</v>
+        <v>140411.0138771669</v>
       </c>
       <c r="Y99">
-        <v>115892.6596059908</v>
+        <v>113733.3372282052</v>
       </c>
       <c r="Z99">
-        <v>113424.7310265013</v>
+        <v>111265.4086487158</v>
       </c>
       <c r="AA99">
-        <v>104032.3831257823</v>
+        <v>101918.1423645509</v>
       </c>
       <c r="AE99" t="inlineStr">
         <is>
@@ -18443,7 +18153,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>220344493.9499344</v>
+        <v>227941980.9018</v>
       </c>
       <c r="D100">
         <v>38281780.30050659</v>
@@ -18482,7 +18192,7 @@
         <v>6.05824830177867</v>
       </c>
       <c r="N100">
-        <v>10.08763090488371</v>
+        <v>11.32325264022676</v>
       </c>
       <c r="O100">
         <v>1.799823733081524</v>
@@ -18502,7 +18212,7 @@
         <v>28873.78247737324</v>
       </c>
       <c r="T100">
-        <v>25765.38659457381</v>
+        <v>26067.49625250244</v>
       </c>
       <c r="U100">
         <v>8284.085055596654</v>
@@ -18514,16 +18224,16 @@
         <v>6366.052985794636</v>
       </c>
       <c r="X100">
-        <v>96590.64057663317</v>
+        <v>98405.53590732526</v>
       </c>
       <c r="Y100">
-        <v>70825.25398205937</v>
+        <v>72338.03965482282</v>
       </c>
       <c r="Z100">
-        <v>67840.44620249879</v>
+        <v>69353.23187526224</v>
       </c>
       <c r="AA100">
-        <v>59120.80926639742</v>
+        <v>60589.37213976433</v>
       </c>
       <c r="AE100" t="inlineStr">
         <is>
@@ -18541,7 +18251,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>215106366.4088183</v>
+        <v>222743303.9568</v>
       </c>
       <c r="D101">
         <v>33429069.6217896</v>
@@ -18580,7 +18290,7 @@
         <v>7.699329891418924</v>
       </c>
       <c r="N101">
-        <v>12.96545076307643</v>
+        <v>12.57553709973752</v>
       </c>
       <c r="O101">
         <v>2.036006709535843</v>
@@ -18600,7 +18310,7 @@
         <v>34583.54418547882</v>
       </c>
       <c r="T101">
-        <v>30860.46611481053</v>
+        <v>31222.31765649969</v>
       </c>
       <c r="U101">
         <v>10797.5146733119</v>
@@ -18612,16 +18322,16 @@
         <v>8279.27429162431</v>
       </c>
       <c r="X101">
-        <v>148549.3351816518</v>
+        <v>151494.3618920414</v>
       </c>
       <c r="Y101">
-        <v>117688.8690668412</v>
+        <v>120272.0442355417</v>
       </c>
       <c r="Z101">
-        <v>113971.3152024887</v>
+        <v>116554.4903711892</v>
       </c>
       <c r="AA101">
-        <v>102072.4010676553</v>
+        <v>104583.8159958457</v>
       </c>
       <c r="AE101" t="inlineStr">
         <is>
@@ -18639,7 +18349,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>202002442.1947765</v>
+        <v>209615629.6542</v>
       </c>
       <c r="D102">
         <v>21725042.0421738</v>
@@ -18678,7 +18388,7 @@
         <v>9.813452816168102</v>
       </c>
       <c r="N102">
-        <v>16.49945538996105</v>
+        <v>16.17958801155788</v>
       </c>
       <c r="O102">
         <v>2.114508017249896</v>
@@ -18698,7 +18408,7 @@
         <v>45478.13318051624</v>
       </c>
       <c r="T102">
-        <v>40582.20234615119</v>
+        <v>41058.04520702906</v>
       </c>
       <c r="U102">
         <v>15347.15504543464</v>
@@ -18710,16 +18420,16 @@
         <v>10661.1264634248</v>
       </c>
       <c r="X102">
-        <v>205677.8311720429</v>
+        <v>210082.9529907069</v>
       </c>
       <c r="Y102">
-        <v>165095.6288258917</v>
+        <v>169024.9077836779</v>
       </c>
       <c r="Z102">
-        <v>160007.864498827</v>
+        <v>163937.1434566131</v>
       </c>
       <c r="AA102">
-        <v>144335.071899941</v>
+        <v>148157.0130872179</v>
       </c>
       <c r="AE102" t="inlineStr">
         <is>
@@ -18737,7 +18447,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>201076103.5525829</v>
+        <v>208440946.6062</v>
       </c>
       <c r="D103">
         <v>24058816.80833532</v>
@@ -18776,7 +18486,7 @@
         <v>11.37692321386652</v>
       </c>
       <c r="N103">
-        <v>15.97332383456711</v>
+        <v>18.50937721603621</v>
       </c>
       <c r="O103">
         <v>1.892351873803061</v>
@@ -18796,7 +18506,7 @@
         <v>56426.68120879387</v>
       </c>
       <c r="T103">
-        <v>50352.08867188259</v>
+        <v>50942.48743142842</v>
       </c>
       <c r="U103">
         <v>19042.74153551916</v>
@@ -18808,16 +18518,16 @@
         <v>15461.46476406837</v>
       </c>
       <c r="X103">
-        <v>267217.2743558198</v>
+        <v>272553.2524234431</v>
       </c>
       <c r="Y103">
-        <v>216865.1856839372</v>
+        <v>221610.7649920147</v>
       </c>
       <c r="Z103">
-        <v>210503.5285745196</v>
+        <v>215249.1078825971</v>
       </c>
       <c r="AA103">
-        <v>188530.8916677467</v>
+        <v>193146.4514183993</v>
       </c>
       <c r="AE103" t="inlineStr">
         <is>
@@ -18835,7 +18545,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>197077899.6772364</v>
+        <v>204173770.1718</v>
       </c>
       <c r="D104">
         <v>15931837.93771614</v>
@@ -18874,7 +18584,7 @@
         <v>10.79195070009504</v>
       </c>
       <c r="N104">
-        <v>15.97322981147881</v>
+        <v>20.81605585661363</v>
       </c>
       <c r="O104">
         <v>1.871133196076307</v>
@@ -18891,10 +18601,10 @@
         </is>
       </c>
       <c r="S104">
-        <v>67716.62572081837</v>
+        <v>73294.07471109502</v>
       </c>
       <c r="T104">
-        <v>60426.61857497208</v>
+        <v>66170.51366094234</v>
       </c>
       <c r="U104">
         <v>24838.8156354</v>
@@ -18906,16 +18616,16 @@
         <v>25413.00179900282</v>
       </c>
       <c r="X104">
-        <v>285895.17277545</v>
+        <v>291468.237568909</v>
       </c>
       <c r="Y104">
-        <v>225468.5542004779</v>
+        <v>225297.7239079666</v>
       </c>
       <c r="Z104">
-        <v>217243.3425200779</v>
+        <v>217072.5122275666</v>
       </c>
       <c r="AA104">
-        <v>184864.0519989228</v>
+        <v>184557.4251553834</v>
       </c>
       <c r="AE104" t="inlineStr">
         <is>
@@ -18933,7 +18643,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>194226984.4178757</v>
+        <v>201146495.7216</v>
       </c>
       <c r="D105">
         <v>16825688.38858842</v>
@@ -18972,7 +18682,7 @@
         <v>10.52889893168332</v>
       </c>
       <c r="N105">
-        <v>14.00824490307292</v>
+        <v>20.6154716078505</v>
       </c>
       <c r="O105">
         <v>2.287471943738364</v>
@@ -18989,10 +18699,10 @@
         </is>
       </c>
       <c r="S105">
-        <v>84873.94397038275</v>
+        <v>91656.16540909471</v>
       </c>
       <c r="T105">
-        <v>75736.87236567595</v>
+        <v>82747.96522390646</v>
       </c>
       <c r="U105">
         <v>36406.33695203321</v>
@@ -19004,16 +18714,16 @@
         <v>36203.76603294804</v>
       </c>
       <c r="X105">
-        <v>386461.4308741315</v>
+        <v>393892.4788326742</v>
       </c>
       <c r="Y105">
-        <v>310724.5585084555</v>
+        <v>311144.5136087678</v>
       </c>
       <c r="Z105">
-        <v>299133.1357131034</v>
+        <v>299553.0908134157</v>
       </c>
       <c r="AA105">
-        <v>253512.6247896782</v>
+        <v>253751.5106362328</v>
       </c>
       <c r="AE105" t="inlineStr">
         <is>
@@ -19031,7 +18741,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>194339835.4062838</v>
+        <v>201105366.7194</v>
       </c>
       <c r="D106">
         <v>14726080.94671626</v>
@@ -19070,7 +18780,7 @@
         <v>6.480576847737366</v>
       </c>
       <c r="N106">
-        <v>7.196422357854731</v>
+        <v>19.87283664056364</v>
       </c>
       <c r="O106">
         <v>2.15010809733667</v>
@@ -19087,10 +18797,10 @@
         </is>
       </c>
       <c r="S106">
-        <v>88043.63651478694</v>
+        <v>99709.05546601515</v>
       </c>
       <c r="T106">
-        <v>78565.33288540562</v>
+        <v>90018.18281819252</v>
       </c>
       <c r="U106">
         <v>49158.39415409092</v>
@@ -19102,16 +18812,16 @@
         <v>54020.71580722831</v>
       </c>
       <c r="X106">
-        <v>287969.2724474781</v>
+        <v>292665.0886130772</v>
       </c>
       <c r="Y106">
-        <v>209403.9395620725</v>
+        <v>202646.9057948847</v>
       </c>
       <c r="Z106">
-        <v>193648.404043701</v>
+        <v>186891.3702765133</v>
       </c>
       <c r="AA106">
-        <v>132610.8607905861</v>
+        <v>125739.406024687</v>
       </c>
       <c r="AE106" t="inlineStr">
         <is>
@@ -19129,7 +18839,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>186858772.4536606</v>
+        <v>178180149.422684</v>
       </c>
       <c r="D107">
         <v>18683541.3286236</v>
@@ -19168,7 +18878,7 @@
         <v>3.680975540602125</v>
       </c>
       <c r="N107">
-        <v>6.705561883807536</v>
+        <v>14.55110287725587</v>
       </c>
       <c r="O107">
         <v>3.371700184168235</v>
@@ -19185,10 +18895,10 @@
         </is>
       </c>
       <c r="S107">
-        <v>136120.4581962787</v>
+        <v>141003.9136602297</v>
       </c>
       <c r="T107">
-        <v>121466.4629272606</v>
+        <v>127299.5318090587</v>
       </c>
       <c r="U107">
         <v>55785.67350555433</v>
@@ -19200,16 +18910,16 @@
         <v>88690.97627182691</v>
       </c>
       <c r="X107">
-        <v>289592.4842444696</v>
+        <v>282173.9674094135</v>
       </c>
       <c r="Y107">
-        <v>168126.0213172089</v>
+        <v>154874.4356003549</v>
       </c>
       <c r="Z107">
-        <v>148661.7544896465</v>
+        <v>135410.1687727924</v>
       </c>
       <c r="AA107">
-        <v>52914.39864544806</v>
+        <v>39843.57684167949</v>
       </c>
       <c r="AE107" t="inlineStr">
         <is>
@@ -19227,7 +18937,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>175065754.5388151</v>
+        <v>166357510.9765998</v>
       </c>
       <c r="D108">
         <v>10845928.399746</v>
@@ -19266,7 +18976,7 @@
         <v>5.087057457117536</v>
       </c>
       <c r="N108">
-        <v>9.095799411997563</v>
+        <v>7.294269175395665</v>
       </c>
       <c r="O108">
         <v>3.948895811758799</v>
@@ -19283,10 +18993,10 @@
         </is>
       </c>
       <c r="S108">
-        <v>144831.9413150367</v>
+        <v>158420.9363439421</v>
       </c>
       <c r="T108">
-        <v>129240.1147008997</v>
+        <v>143023.7679354897</v>
       </c>
       <c r="U108">
         <v>64891.72700178792</v>
@@ -19298,16 +19008,16 @@
         <v>34428.32684545482</v>
       </c>
       <c r="X108">
-        <v>364801.4844202921</v>
+        <v>356426.4323352305</v>
       </c>
       <c r="Y108">
-        <v>235561.3697193924</v>
+        <v>213402.6643997409</v>
       </c>
       <c r="Z108">
-        <v>211022.9548388101</v>
+        <v>188864.2495191585</v>
       </c>
       <c r="AA108">
-        <v>167705.6620060298</v>
+        <v>145751.0280959135</v>
       </c>
       <c r="AE108" t="inlineStr">
         <is>
@@ -19325,7 +19035,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>178663117.0198723</v>
+        <v>169528964.5768283</v>
       </c>
       <c r="D109">
         <v>22591805.2422843</v>
@@ -19364,7 +19074,7 @@
         <v>6.446001316195582</v>
       </c>
       <c r="N109">
-        <v>8.463556495314675</v>
+        <v>6.295455362364702</v>
       </c>
       <c r="O109">
         <v>3.26601898259122</v>
@@ -19381,10 +19091,10 @@
         </is>
       </c>
       <c r="S109">
-        <v>381457.8858882181</v>
+        <v>305329.3664788263</v>
       </c>
       <c r="T109">
-        <v>340392.1847496334</v>
+        <v>275653.9474072338</v>
       </c>
       <c r="U109">
         <v>88714.51168128941</v>
@@ -19396,16 +19106,16 @@
         <v>70010.96091192566</v>
       </c>
       <c r="X109">
-        <v>789616.6434475192</v>
+        <v>768464.7442258081</v>
       </c>
       <c r="Y109">
-        <v>449224.4586978858</v>
+        <v>492810.7968185743</v>
       </c>
       <c r="Z109">
-        <v>413097.0843675564</v>
+        <v>456683.422488245</v>
       </c>
       <c r="AA109">
-        <v>323845.8632418194</v>
+        <v>367947.6008901384</v>
       </c>
       <c r="AE109" t="inlineStr">
         <is>
@@ -19423,7 +19133,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>185655272.5290866</v>
+        <v>175152024.2241997</v>
       </c>
       <c r="D110">
         <v>23950112.1422574</v>
@@ -19458,13 +19168,16 @@
           <t>USD/MMBTU</t>
         </is>
       </c>
-      <c r="N110">
-        <v>5.728814685109065</v>
-      </c>
       <c r="R110" t="inlineStr">
         <is>
           <t>Millones de pesos corrientes</t>
         </is>
+      </c>
+      <c r="S110">
+        <v>453402.8125134932</v>
+      </c>
+      <c r="T110">
+        <v>409335.9131361296</v>
       </c>
       <c r="U110">
         <v>143278.0112145623</v>
@@ -19488,7 +19201,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>175827628.644158</v>
+        <v>164579561.1756965</v>
       </c>
       <c r="D111">
         <v>11961897.6554286</v>
@@ -19519,6 +19232,18 @@
         <is>
           <t>Millones de pesos corrientes</t>
         </is>
+      </c>
+      <c r="S111">
+        <v>425157.1127607017</v>
+      </c>
+      <c r="T111">
+        <v>383835.4553061866</v>
+      </c>
+      <c r="U111">
+        <v>107174.7558206607</v>
+      </c>
+      <c r="V111">
+        <v>42716.27350826657</v>
       </c>
       <c r="AE111" t="inlineStr">
         <is>
